--- a/resources/单体测试书.xlsx
+++ b/resources/单体测试书.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23040" windowHeight="11580" tabRatio="680" activeTab="1"/>
+    <workbookView windowWidth="24750" windowHeight="12790" tabRatio="680" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="封面" sheetId="23" r:id="rId1"/>
@@ -106,7 +106,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="74">
   <si>
     <t xml:space="preserve">东软机密 </t>
   </si>
@@ -117,10 +117,10 @@
     <t>文档编号：D0000-PPC-项目编号-PUT-年份</t>
   </si>
   <si>
-    <t>项目名称（项目编号）</t>
+    <t>悦居-智能家居控制系统</t>
   </si>
   <si>
-    <t>单体测试式样书</t>
+    <t>单体测试设计</t>
   </si>
   <si>
     <t>东软初级人才培养中心</t>
@@ -172,6 +172,9 @@
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
+  </si>
+  <si>
+    <t>匡子晗</t>
   </si>
   <si>
     <r>
@@ -234,52 +237,148 @@
     <t>错误编号</t>
   </si>
   <si>
-    <t>注册功能中用户名有效性</t>
+    <t>注册功能中用户名和密码有效性</t>
   </si>
   <si>
-    <t>打开注册页面，自动聚焦到用户名字段组件，输入 “13899999999”，切换焦点组件</t>
+    <t>在用户名输入 “kkk”，密码输入123456</t>
   </si>
   <si>
-    <t>恭喜您，可以注册</t>
+    <t>注册成功</t>
   </si>
   <si>
-    <t>打开注册页面，自动聚焦到用户名字段组件，输入已存在的手机号码 “13899999999”，切换焦点组件</t>
+    <t>YES</t>
   </si>
   <si>
-    <t>手机号码已被注册，找回密码</t>
+    <t>在用户名输入 “k k k”，密码输入123456</t>
   </si>
   <si>
-    <t>打开注册页面，自动聚焦到用户名字段组件，输入 “110”，切换焦点组件</t>
+    <t>用户名格式不符合规范</t>
   </si>
   <si>
-    <t>提示手机号码不正确</t>
+    <t>在用户名输入 “kkk”，密码输入1 23456</t>
   </si>
   <si>
-    <t>输入年龄值</t>
+    <t>请输入有效的用户名和密码</t>
   </si>
   <si>
-    <t>输入0</t>
+    <t>登录功能中用户名和密码验证</t>
   </si>
   <si>
-    <t>输入数据越界</t>
+    <t>登陆成功</t>
   </si>
   <si>
-    <t>输入1</t>
+    <t>在用户名输入 “kkk”，密码输入1234567</t>
   </si>
   <si>
-    <t>恭喜</t>
+    <t>登陆失败</t>
   </si>
   <si>
-    <t>输入 130</t>
+    <t>输入空调温度</t>
   </si>
   <si>
-    <t>输入 131</t>
+    <t>输入 0</t>
+  </si>
+  <si>
+    <t>设置失败，自动设置为28度</t>
+  </si>
+  <si>
+    <t>输入 28</t>
+  </si>
+  <si>
+    <t>设置成功</t>
+  </si>
+  <si>
+    <t>输入 35</t>
+  </si>
+  <si>
+    <t>灯-设备控制页面</t>
+  </si>
+  <si>
+    <t>点击选择模式框，点击暖光灯按钮</t>
+  </si>
+  <si>
+    <t>弹窗显示成功</t>
+  </si>
+  <si>
+    <t>点击选择模式框，点击冷光灯按钮</t>
+  </si>
+  <si>
+    <t>关灯情况下，点击开关按钮</t>
+  </si>
+  <si>
+    <t>弹窗显示灯已打开</t>
+  </si>
+  <si>
+    <t>开灯情况下，点击开关按钮</t>
+  </si>
+  <si>
+    <t>弹窗显示灯已关闭</t>
+  </si>
+  <si>
+    <t>空调-设备控制页面</t>
+  </si>
+  <si>
+    <t>点击选择模式框，点击制热按钮</t>
+  </si>
+  <si>
+    <t>点击选择模式框，点击制冷按钮</t>
+  </si>
+  <si>
+    <t>点击选择模式框，点击除湿按钮</t>
+  </si>
+  <si>
+    <t>点击选择模式框，点击送风按钮</t>
+  </si>
+  <si>
+    <t>点击选择模式框，点击睡眠按钮</t>
+  </si>
+  <si>
+    <t>关空调情况下，点击开关按钮</t>
+  </si>
+  <si>
+    <t>弹窗显示空调已打开</t>
+  </si>
+  <si>
+    <t>开空调情况下，点击开关按钮</t>
+  </si>
+  <si>
+    <t>弹窗显示空调已关闭</t>
+  </si>
+  <si>
+    <t>空调开启情况下，在定时界面选择一分钟</t>
+  </si>
+  <si>
+    <t>一分钟后，空调自动关闭</t>
+  </si>
+  <si>
+    <t>空调关闭情况下，在定时界面选择一分钟</t>
+  </si>
+  <si>
+    <t>一分钟后，空调自动开启</t>
+  </si>
+  <si>
+    <t>加湿器-设备控制页面</t>
+  </si>
+  <si>
+    <t>调整湿度至0-100</t>
+  </si>
+  <si>
+    <t>关加湿器情况下，点击开关按钮</t>
+  </si>
+  <si>
+    <t>弹窗显示加湿器已打开</t>
+  </si>
+  <si>
+    <t>开加湿器情况下，点击开关按钮</t>
+  </si>
+  <si>
+    <t>弹窗显示加湿器已关闭</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9">
   <numFmts count="9">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
@@ -420,34 +519,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -461,14 +532,6 @@
       <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -511,9 +574,19 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <name val="ＭＳ Ｐゴシック"/>
+      <color theme="3"/>
+      <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <b/>
@@ -522,11 +595,6 @@
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="8"/>
-      <name val="Times New Roman"/>
-      <charset val="134"/>
     </font>
     <font>
       <b/>
@@ -568,10 +636,41 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Times New Roman"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="10"/>
@@ -636,55 +735,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -702,31 +759,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -750,6 +795,18 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -762,7 +819,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -786,7 +867,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -805,6 +898,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -892,21 +991,6 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
@@ -935,6 +1019,21 @@
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1004,156 +1103,156 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="23" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="23" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="23" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="9" fontId="23" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="41" fontId="23" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="23" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="23" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="4" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="23" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="9" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="5" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="6" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="6" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="7" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="6" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="27" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="13" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="39" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="14" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="0"/>
+    <xf numFmtId="177" fontId="43" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="24" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="15" fontId="45" fillId="0" borderId="0"/>
@@ -1163,11 +1262,11 @@
     <xf numFmtId="0" fontId="46" fillId="0" borderId="3">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="47" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
@@ -1183,20 +1282,20 @@
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="50" fillId="0" borderId="0"/>
-    <xf numFmtId="178" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="178" fontId="43" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="51" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="179" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="180" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="179" fontId="43" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="180" fontId="43" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="88">
+  <cellXfs count="87">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="62" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="22" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="50" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="62" applyFont="1" applyAlignment="1">
@@ -1206,10 +1305,10 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="62" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="22" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="50" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="22" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="50" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="62" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1245,11 +1344,11 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="62" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="62" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="62" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -1257,10 +1356,10 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="62" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="22" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="50" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="22" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="50" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="62" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1277,13 +1376,13 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="22" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="50" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="22" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="50" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="22" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="50" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="61" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1299,16 +1398,16 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="22" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="50" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="2" xfId="22" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="2" xfId="50" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="3" xfId="22" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="3" xfId="50" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="4" xfId="22" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="4" xfId="50" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="61" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1317,28 +1416,22 @@
     <xf numFmtId="14" fontId="1" fillId="0" borderId="2" xfId="61" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="3" xfId="61" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="4" xfId="61" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="2" xfId="61" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="2" xfId="62" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="22" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="50" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="2" xfId="22" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="2" xfId="50" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="3" xfId="22" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="3" xfId="50" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="4" xfId="22" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="4" xfId="50" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1354,7 +1447,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="66" applyFill="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="41" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="53" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="65" applyFont="1" applyAlignment="1">
@@ -1363,50 +1456,50 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="65" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="43" applyFont="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="54" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="43" applyFont="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="54" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="43" applyFont="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="54" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="63" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="43" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="54" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="43" applyFont="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="54" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="43" applyFont="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="54" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="43" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="54" applyFont="1" applyAlignment="1">
       <alignment horizontal="centerContinuous" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="43" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="54" applyFont="1" applyAlignment="1">
       <alignment horizontal="centerContinuous" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="41" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="53" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="41" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="53" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="41" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="53" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="41" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="53" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="43" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="54" applyFont="1" applyAlignment="1">
       <alignment horizontal="centerContinuous" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="43" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="54" applyFont="1" applyAlignment="1">
       <alignment horizontal="centerContinuous" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="12" fillId="0" borderId="0" xfId="43" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="12" fillId="0" borderId="0" xfId="54" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="centerContinuous" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="65" applyFont="1" applyAlignment="1">
@@ -1436,78 +1529,81 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="5" xfId="65" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="distributed" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="14" fontId="8" fillId="0" borderId="5" xfId="65" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="65" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="43" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="54" applyFont="1" applyAlignment="1">
       <alignment horizontal="centerContinuous" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="43" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="54" applyFont="1" applyAlignment="1">
       <alignment horizontal="centerContinuous" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="43" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="54" applyFont="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="43" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="54" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="77">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
+    <cellStyle name="货币" xfId="2" builtinId="4"/>
+    <cellStyle name="百分比" xfId="3" builtinId="5"/>
+    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
+    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
+    <cellStyle name="超链接" xfId="6" builtinId="8"/>
+    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
+    <cellStyle name="注释" xfId="8" builtinId="10"/>
+    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
+    <cellStyle name="标题" xfId="10" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
+    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
     <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="Calc Currency (0)" xfId="18"/>
-    <cellStyle name="解释性文本" xfId="19" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="20" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="21" builtinId="17"/>
-    <cellStyle name="標準_00 クラス一覧(アプリケーション)_【36G3C9-002】メーター詳細設計書　Rev1.0_メーター単体試験仕様書_２．１０初期設定データクラス（CCSvShoKiSetti）コピー" xfId="22"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="23" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="24" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="25" builtinId="44"/>
-    <cellStyle name="输出" xfId="26" builtinId="21"/>
-    <cellStyle name="Normal_#10-Headcount" xfId="27"/>
-    <cellStyle name="计算" xfId="28" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="29" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="30" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="31" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="32" builtinId="24"/>
-    <cellStyle name="汇总" xfId="33" builtinId="25"/>
-    <cellStyle name="好" xfId="34" builtinId="26"/>
-    <cellStyle name="适中" xfId="35" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="36" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="37" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="38" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="39" builtinId="31"/>
-    <cellStyle name="桁区切り_(D)日程計画" xfId="40"/>
-    <cellStyle name="常规_SEP裁剪工作表" xfId="41"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="42" builtinId="34"/>
-    <cellStyle name="常规_封页" xfId="43"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="44" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="45" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="46" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="47" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="48" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="49" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="50" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="51" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="52" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="53" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="54" builtinId="52"/>
+    <cellStyle name="输入" xfId="16" builtinId="20"/>
+    <cellStyle name="输出" xfId="17" builtinId="21"/>
+    <cellStyle name="计算" xfId="18" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
+    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="好" xfId="22" builtinId="26"/>
+    <cellStyle name="差" xfId="23" builtinId="27"/>
+    <cellStyle name="适中" xfId="24" builtinId="28"/>
+    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
+    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
+    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
+    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
+    <cellStyle name="Calc Currency (0)" xfId="49"/>
+    <cellStyle name="標準_00 クラス一覧(アプリケーション)_【36G3C9-002】メーター詳細設計書　Rev1.0_メーター単体試験仕様書_２．１０初期設定データクラス（CCSvShoKiSetti）コピー" xfId="50"/>
+    <cellStyle name="Normal_#10-Headcount" xfId="51"/>
+    <cellStyle name="桁区切り_(D)日程計画" xfId="52"/>
+    <cellStyle name="常规_SEP裁剪工作表" xfId="53"/>
+    <cellStyle name="常规_封页" xfId="54"/>
     <cellStyle name="Date" xfId="55"/>
     <cellStyle name="Header1" xfId="56"/>
     <cellStyle name="Header2" xfId="57"/>
@@ -1564,8 +1660,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="4404360" y="266700"/>
-          <a:ext cx="1573530" cy="304800"/>
+          <a:off x="4288155" y="266700"/>
+          <a:ext cx="1543685" cy="304800"/>
           <a:chOff x="2352" y="4130"/>
           <a:chExt cx="2399" cy="459"/>
         </a:xfrm>
@@ -8011,8 +8107,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8166100" y="142875"/>
-          <a:ext cx="1682115" cy="381000"/>
+          <a:off x="7953375" y="142875"/>
+          <a:ext cx="1636395" cy="381000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -8470,332 +8566,342 @@
   <sheetPr/>
   <dimension ref="A1:I56"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A17" workbookViewId="0">
-      <selection activeCell="K33" sqref="K33"/>
+    <sheetView showGridLines="0" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="E37" sqref="E37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8" defaultRowHeight="15.35"/>
+  <sheetFormatPr defaultColWidth="8" defaultRowHeight="15.5"/>
   <cols>
-    <col min="1" max="1" width="9.2212389380531" style="58" customWidth="1"/>
-    <col min="2" max="4" width="9.66371681415929" style="58" customWidth="1"/>
-    <col min="5" max="5" width="13.1061946902655" style="58" customWidth="1"/>
-    <col min="6" max="6" width="9.66371681415929" style="58" customWidth="1"/>
-    <col min="7" max="7" width="15.5575221238938" style="58" customWidth="1"/>
-    <col min="8" max="8" width="12.3362831858407" style="58" customWidth="1"/>
-    <col min="9" max="16384" width="8" style="58"/>
+    <col min="1" max="1" width="9.21818181818182" style="56" customWidth="1"/>
+    <col min="2" max="4" width="9.66363636363636" style="56" customWidth="1"/>
+    <col min="5" max="5" width="13.1090909090909" style="56" customWidth="1"/>
+    <col min="6" max="6" width="9.66363636363636" style="56" customWidth="1"/>
+    <col min="7" max="7" width="15.5545454545455" style="56" customWidth="1"/>
+    <col min="8" max="8" width="12.3363636363636" style="56" customWidth="1"/>
+    <col min="9" max="16384" width="8" style="56"/>
   </cols>
   <sheetData>
     <row r="1" ht="22.5" spans="1:1">
-      <c r="A1" s="59"/>
+      <c r="A1" s="57"/>
     </row>
     <row r="2" ht="25.5" customHeight="1" spans="1:1">
-      <c r="A2" s="60" t="s">
+      <c r="A2" s="58" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" s="54" customFormat="1" ht="22.5" spans="1:9">
-      <c r="A3" s="61" t="s">
+    <row r="3" s="52" customFormat="1" ht="22.5" spans="1:9">
+      <c r="A3" s="59" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="62"/>
-      <c r="C3" s="61"/>
-      <c r="D3" s="62"/>
-      <c r="E3" s="62"/>
-      <c r="F3" s="62"/>
-      <c r="G3" s="62"/>
-      <c r="H3" s="62"/>
-      <c r="I3" s="62"/>
+      <c r="B3" s="60"/>
+      <c r="C3" s="59"/>
+      <c r="D3" s="60"/>
+      <c r="E3" s="60"/>
+      <c r="F3" s="60"/>
+      <c r="G3" s="60"/>
+      <c r="H3" s="60"/>
+      <c r="I3" s="60"/>
     </row>
-    <row r="4" ht="17.6" spans="1:1">
-      <c r="A4" s="63" t="s">
+    <row r="4" ht="17.5" spans="1:1">
+      <c r="A4" s="61" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="5" ht="17.6" spans="1:1">
-      <c r="A5" s="64"/>
+    <row r="5" ht="18" spans="1:1">
+      <c r="A5" s="62"/>
     </row>
-    <row r="6" ht="17.6" spans="1:1">
-      <c r="A6" s="64"/>
+    <row r="6" ht="18" spans="1:1">
+      <c r="A6" s="62"/>
     </row>
-    <row r="7" ht="17.6" spans="1:1">
-      <c r="A7" s="64"/>
+    <row r="7" ht="18" spans="1:1">
+      <c r="A7" s="62"/>
     </row>
-    <row r="8" ht="17.6" spans="1:1">
-      <c r="A8" s="64"/>
+    <row r="8" ht="18" spans="1:1">
+      <c r="A8" s="62"/>
     </row>
     <row r="9" ht="9.75" customHeight="1" spans="1:1">
-      <c r="A9" s="64"/>
+      <c r="A9" s="62"/>
     </row>
-    <row r="10" ht="17.6" spans="1:1">
-      <c r="A10" s="64"/>
+    <row r="10" ht="18" spans="1:1">
+      <c r="A10" s="62"/>
     </row>
-    <row r="11" ht="17.6" spans="1:1">
-      <c r="A11" s="64"/>
+    <row r="11" ht="18" spans="1:1">
+      <c r="A11" s="62"/>
     </row>
-    <row r="12" ht="17.6" spans="1:1">
-      <c r="A12" s="64"/>
+    <row r="12" ht="18" spans="1:1">
+      <c r="A12" s="62"/>
     </row>
-    <row r="13" ht="17.6" spans="1:1">
-      <c r="A13" s="64"/>
+    <row r="13" ht="18" spans="1:1">
+      <c r="A13" s="62"/>
     </row>
-    <row r="14" ht="17.6" spans="1:1">
-      <c r="A14" s="64"/>
+    <row r="14" ht="18" spans="1:1">
+      <c r="A14" s="62"/>
     </row>
-    <row r="15" ht="17.6" spans="1:8">
-      <c r="A15" s="65"/>
-      <c r="B15" s="66"/>
-      <c r="C15" s="66"/>
-      <c r="D15" s="66"/>
-      <c r="E15" s="66"/>
-      <c r="F15" s="66"/>
-      <c r="G15" s="66"/>
-      <c r="H15" s="66"/>
+    <row r="15" ht="18" spans="1:8">
+      <c r="A15" s="63"/>
+      <c r="B15" s="64"/>
+      <c r="C15" s="64"/>
+      <c r="D15" s="64"/>
+      <c r="E15" s="64"/>
+      <c r="F15" s="64"/>
+      <c r="G15" s="64"/>
+      <c r="H15" s="64"/>
     </row>
-    <row r="16" s="55" customFormat="1" ht="46.1" spans="1:8">
-      <c r="A16" s="67" t="s">
+    <row r="16" s="53" customFormat="1" ht="45.5" spans="1:8">
+      <c r="A16" s="65" t="s">
         <v>3</v>
       </c>
-      <c r="B16" s="67"/>
-      <c r="C16" s="67"/>
-      <c r="D16" s="67"/>
-      <c r="E16" s="67"/>
-      <c r="F16" s="67"/>
-      <c r="G16" s="67"/>
-      <c r="H16" s="67"/>
+      <c r="B16" s="65"/>
+      <c r="C16" s="65"/>
+      <c r="D16" s="65"/>
+      <c r="E16" s="65"/>
+      <c r="F16" s="65"/>
+      <c r="G16" s="65"/>
+      <c r="H16" s="65"/>
     </row>
-    <row r="17" s="55" customFormat="1" ht="15.75" spans="1:8">
-      <c r="A17" s="68"/>
-      <c r="B17" s="69"/>
-      <c r="C17" s="70"/>
-      <c r="D17" s="70"/>
-      <c r="E17" s="70"/>
-      <c r="F17" s="70"/>
-      <c r="G17" s="70"/>
-      <c r="H17" s="70"/>
+    <row r="17" s="53" customFormat="1" spans="1:8">
+      <c r="A17" s="66"/>
+      <c r="B17" s="67"/>
+      <c r="C17" s="68"/>
+      <c r="D17" s="68"/>
+      <c r="E17" s="68"/>
+      <c r="F17" s="68"/>
+      <c r="G17" s="68"/>
+      <c r="H17" s="68"/>
     </row>
-    <row r="18" ht="53.6" spans="1:8">
-      <c r="A18" s="71" t="s">
+    <row r="18" ht="53.5" spans="1:8">
+      <c r="A18" s="69" t="s">
         <v>4</v>
       </c>
-      <c r="B18" s="66"/>
-      <c r="C18" s="66"/>
-      <c r="D18" s="66"/>
-      <c r="E18" s="66"/>
-      <c r="F18" s="66"/>
-      <c r="G18" s="66"/>
-      <c r="H18" s="66"/>
+      <c r="B18" s="64"/>
+      <c r="C18" s="64"/>
+      <c r="D18" s="64"/>
+      <c r="E18" s="64"/>
+      <c r="F18" s="64"/>
+      <c r="G18" s="64"/>
+      <c r="H18" s="64"/>
     </row>
-    <row r="19" ht="17.6" spans="1:8">
-      <c r="A19" s="65"/>
-      <c r="B19" s="66"/>
-      <c r="C19" s="66"/>
-      <c r="D19" s="66"/>
-      <c r="E19" s="66"/>
-      <c r="F19" s="66"/>
-      <c r="G19" s="66"/>
-      <c r="H19" s="66"/>
+    <row r="19" ht="18" spans="1:8">
+      <c r="A19" s="63"/>
+      <c r="B19" s="64"/>
+      <c r="C19" s="64"/>
+      <c r="D19" s="64"/>
+      <c r="E19" s="64"/>
+      <c r="F19" s="64"/>
+      <c r="G19" s="64"/>
+      <c r="H19" s="64"/>
     </row>
-    <row r="20" ht="45.75" spans="1:8">
-      <c r="A20" s="72"/>
-      <c r="B20" s="66"/>
-      <c r="C20" s="66"/>
-      <c r="D20" s="66"/>
-      <c r="E20" s="66"/>
-      <c r="F20" s="66"/>
-      <c r="G20" s="66"/>
-      <c r="H20" s="66"/>
+    <row r="20" ht="46" spans="1:8">
+      <c r="A20" s="70"/>
+      <c r="B20" s="64"/>
+      <c r="C20" s="64"/>
+      <c r="D20" s="64"/>
+      <c r="E20" s="64"/>
+      <c r="F20" s="64"/>
+      <c r="G20" s="64"/>
+      <c r="H20" s="64"/>
     </row>
-    <row r="21" ht="17.6" spans="1:8">
-      <c r="A21" s="73"/>
-      <c r="B21" s="66"/>
-      <c r="C21" s="66"/>
-      <c r="D21" s="66"/>
-      <c r="E21" s="66"/>
-      <c r="F21" s="66"/>
-      <c r="G21" s="66"/>
-      <c r="H21" s="66"/>
+    <row r="21" ht="18" spans="1:8">
+      <c r="A21" s="71"/>
+      <c r="B21" s="64"/>
+      <c r="C21" s="64"/>
+      <c r="D21" s="64"/>
+      <c r="E21" s="64"/>
+      <c r="F21" s="64"/>
+      <c r="G21" s="64"/>
+      <c r="H21" s="64"/>
     </row>
     <row r="22" ht="22.2" customHeight="1" spans="1:8">
-      <c r="A22" s="74" t="s">
+      <c r="A22" s="72" t="s">
         <v>5</v>
       </c>
-      <c r="B22" s="75"/>
-      <c r="C22" s="75"/>
-      <c r="D22" s="75"/>
-      <c r="E22" s="75"/>
-      <c r="F22" s="75"/>
-      <c r="G22" s="75"/>
-      <c r="H22" s="75"/>
+      <c r="B22" s="73"/>
+      <c r="C22" s="73"/>
+      <c r="D22" s="73"/>
+      <c r="E22" s="73"/>
+      <c r="F22" s="73"/>
+      <c r="G22" s="73"/>
+      <c r="H22" s="73"/>
     </row>
-    <row r="23" ht="17.6" spans="1:8">
-      <c r="A23" s="65"/>
-      <c r="B23" s="66"/>
-      <c r="C23" s="66"/>
-      <c r="D23" s="66"/>
-      <c r="E23" s="66"/>
-      <c r="F23" s="66"/>
-      <c r="G23" s="66"/>
-      <c r="H23" s="66"/>
+    <row r="23" ht="18" spans="1:8">
+      <c r="A23" s="63"/>
+      <c r="B23" s="64"/>
+      <c r="C23" s="64"/>
+      <c r="D23" s="64"/>
+      <c r="E23" s="64"/>
+      <c r="F23" s="64"/>
+      <c r="G23" s="64"/>
+      <c r="H23" s="64"/>
     </row>
     <row r="24" ht="18" customHeight="1" spans="1:8">
-      <c r="A24" s="65"/>
-      <c r="B24" s="66"/>
-      <c r="C24" s="66"/>
-      <c r="D24" s="66"/>
-      <c r="E24" s="66"/>
-      <c r="F24" s="66"/>
-      <c r="G24" s="66"/>
-      <c r="H24" s="66"/>
+      <c r="A24" s="63"/>
+      <c r="B24" s="64"/>
+      <c r="C24" s="64"/>
+      <c r="D24" s="64"/>
+      <c r="E24" s="64"/>
+      <c r="F24" s="64"/>
+      <c r="G24" s="64"/>
+      <c r="H24" s="64"/>
     </row>
     <row r="25" ht="18" customHeight="1" spans="1:8">
-      <c r="A25" s="65"/>
-      <c r="B25" s="66"/>
-      <c r="C25" s="66"/>
-      <c r="D25" s="66"/>
-      <c r="E25" s="66"/>
-      <c r="F25" s="66"/>
-      <c r="G25" s="66"/>
-      <c r="H25" s="66"/>
+      <c r="A25" s="63"/>
+      <c r="B25" s="64"/>
+      <c r="C25" s="64"/>
+      <c r="D25" s="64"/>
+      <c r="E25" s="64"/>
+      <c r="F25" s="64"/>
+      <c r="G25" s="64"/>
+      <c r="H25" s="64"/>
     </row>
     <row r="26" ht="18" customHeight="1" spans="1:8">
-      <c r="A26" s="65"/>
-      <c r="B26" s="66"/>
-      <c r="C26" s="66"/>
-      <c r="D26" s="66"/>
-      <c r="E26" s="66"/>
-      <c r="F26" s="66"/>
-      <c r="G26" s="66"/>
-      <c r="H26" s="66"/>
+      <c r="A26" s="63"/>
+      <c r="B26" s="64"/>
+      <c r="C26" s="64"/>
+      <c r="D26" s="64"/>
+      <c r="E26" s="64"/>
+      <c r="F26" s="64"/>
+      <c r="G26" s="64"/>
+      <c r="H26" s="64"/>
     </row>
     <row r="27" ht="18" customHeight="1" spans="1:8">
-      <c r="A27" s="65"/>
-      <c r="B27" s="66"/>
-      <c r="C27" s="66"/>
-      <c r="D27" s="66"/>
-      <c r="E27" s="66"/>
-      <c r="F27" s="66"/>
-      <c r="G27" s="66"/>
-      <c r="H27" s="66"/>
+      <c r="A27" s="63"/>
+      <c r="B27" s="64"/>
+      <c r="C27" s="64"/>
+      <c r="D27" s="64"/>
+      <c r="E27" s="64"/>
+      <c r="F27" s="64"/>
+      <c r="G27" s="64"/>
+      <c r="H27" s="64"/>
     </row>
     <row r="28" ht="18" customHeight="1" spans="1:8">
-      <c r="A28" s="65"/>
-      <c r="B28" s="66"/>
-      <c r="C28" s="66"/>
-      <c r="D28" s="66"/>
-      <c r="E28" s="66"/>
-      <c r="F28" s="66"/>
-      <c r="G28" s="66"/>
-      <c r="H28" s="66"/>
+      <c r="A28" s="63"/>
+      <c r="B28" s="64"/>
+      <c r="C28" s="64"/>
+      <c r="D28" s="64"/>
+      <c r="E28" s="64"/>
+      <c r="F28" s="64"/>
+      <c r="G28" s="64"/>
+      <c r="H28" s="64"/>
     </row>
-    <row r="29" s="56" customFormat="1" ht="22.2" customHeight="1" spans="1:8">
-      <c r="A29" s="76" t="s">
+    <row r="29" s="54" customFormat="1" ht="22.2" customHeight="1" spans="1:8">
+      <c r="A29" s="74" t="s">
         <v>6</v>
       </c>
-      <c r="B29" s="77"/>
-      <c r="C29" s="77"/>
-      <c r="D29" s="77"/>
-      <c r="E29" s="77"/>
-      <c r="F29" s="77"/>
-      <c r="G29" s="77"/>
-      <c r="H29" s="77"/>
+      <c r="B29" s="75"/>
+      <c r="C29" s="75"/>
+      <c r="D29" s="75"/>
+      <c r="E29" s="75"/>
+      <c r="F29" s="75"/>
+      <c r="G29" s="75"/>
+      <c r="H29" s="75"/>
     </row>
-    <row r="30" s="56" customFormat="1" spans="1:8">
-      <c r="A30" s="78"/>
-      <c r="B30" s="57"/>
-      <c r="C30" s="57"/>
-      <c r="D30" s="57"/>
-      <c r="E30" s="57"/>
-      <c r="F30" s="57"/>
-      <c r="G30" s="57"/>
-      <c r="H30" s="57"/>
+    <row r="30" s="54" customFormat="1" spans="1:8">
+      <c r="A30" s="76"/>
+      <c r="B30" s="55"/>
+      <c r="C30" s="55"/>
+      <c r="D30" s="55"/>
+      <c r="E30" s="55"/>
+      <c r="F30" s="55"/>
+      <c r="G30" s="55"/>
+      <c r="H30" s="55"/>
     </row>
-    <row r="31" s="56" customFormat="1" spans="1:8">
-      <c r="A31" s="78"/>
-      <c r="B31" s="57"/>
-      <c r="C31" s="57"/>
-      <c r="D31" s="57"/>
-      <c r="E31" s="57"/>
-      <c r="F31" s="57"/>
-      <c r="G31" s="57"/>
-      <c r="H31" s="57"/>
+    <row r="31" s="54" customFormat="1" spans="1:8">
+      <c r="A31" s="76"/>
+      <c r="B31" s="55"/>
+      <c r="C31" s="55"/>
+      <c r="D31" s="55"/>
+      <c r="E31" s="55"/>
+      <c r="F31" s="55"/>
+      <c r="G31" s="55"/>
+      <c r="H31" s="55"/>
     </row>
-    <row r="32" s="56" customFormat="1" spans="1:8">
-      <c r="A32" s="78"/>
-      <c r="B32" s="57"/>
-      <c r="C32" s="57"/>
-      <c r="D32" s="57"/>
-      <c r="E32" s="57"/>
-      <c r="F32" s="57"/>
-      <c r="G32" s="57"/>
-      <c r="H32" s="57"/>
+    <row r="32" s="54" customFormat="1" spans="1:8">
+      <c r="A32" s="76"/>
+      <c r="B32" s="55"/>
+      <c r="C32" s="55"/>
+      <c r="D32" s="55"/>
+      <c r="E32" s="55"/>
+      <c r="F32" s="55"/>
+      <c r="G32" s="55"/>
+      <c r="H32" s="55"/>
     </row>
-    <row r="33" s="57" customFormat="1" ht="30" customHeight="1" spans="1:8">
-      <c r="A33" s="79" t="s">
+    <row r="33" s="55" customFormat="1" ht="30" customHeight="1" spans="1:8">
+      <c r="A33" s="77" t="s">
         <v>7</v>
       </c>
-      <c r="B33" s="80"/>
-      <c r="C33" s="79" t="s">
+      <c r="B33" s="78">
+        <v>1</v>
+      </c>
+      <c r="C33" s="77" t="s">
         <v>8</v>
       </c>
-      <c r="D33" s="80"/>
-      <c r="E33" s="79" t="s">
+      <c r="D33" s="78">
+        <v>1</v>
+      </c>
+      <c r="E33" s="77" t="s">
         <v>9</v>
       </c>
-      <c r="F33" s="81"/>
-      <c r="G33" s="82" t="s">
+      <c r="F33" s="79">
+        <v>0</v>
+      </c>
+      <c r="G33" s="80" t="s">
         <v>10</v>
       </c>
-      <c r="H33" s="80"/>
+      <c r="H33" s="81">
+        <v>45155</v>
+      </c>
     </row>
-    <row r="34" s="57" customFormat="1" ht="29.25" customHeight="1" spans="1:8">
-      <c r="A34" s="79" t="s">
+    <row r="34" s="55" customFormat="1" ht="29.25" customHeight="1" spans="1:8">
+      <c r="A34" s="77" t="s">
         <v>11</v>
       </c>
-      <c r="B34" s="83"/>
-      <c r="C34" s="80"/>
-      <c r="D34" s="80"/>
-      <c r="E34" s="79" t="s">
+      <c r="B34" s="82" t="s">
         <v>12</v>
       </c>
-      <c r="F34" s="83"/>
-      <c r="G34" s="80"/>
-      <c r="H34" s="80"/>
+      <c r="C34" s="78"/>
+      <c r="D34" s="78"/>
+      <c r="E34" s="77" t="s">
+        <v>13</v>
+      </c>
+      <c r="F34" s="82"/>
+      <c r="G34" s="78"/>
+      <c r="H34" s="78"/>
     </row>
-    <row r="35" ht="17.6" spans="1:8">
-      <c r="A35" s="65"/>
-      <c r="B35" s="66"/>
-      <c r="C35" s="66"/>
-      <c r="D35" s="66"/>
-      <c r="E35" s="66"/>
-      <c r="F35" s="66"/>
-      <c r="G35" s="66"/>
-      <c r="H35" s="66"/>
+    <row r="35" ht="18" spans="1:8">
+      <c r="A35" s="63"/>
+      <c r="B35" s="64"/>
+      <c r="C35" s="64"/>
+      <c r="D35" s="64"/>
+      <c r="E35" s="64"/>
+      <c r="F35" s="64"/>
+      <c r="G35" s="64"/>
+      <c r="H35" s="64"/>
     </row>
-    <row r="36" ht="19.1" spans="1:8">
-      <c r="A36" s="84"/>
-      <c r="B36" s="66"/>
-      <c r="C36" s="66"/>
-      <c r="D36" s="66"/>
-      <c r="E36" s="66"/>
-      <c r="F36" s="66"/>
-      <c r="G36" s="66"/>
-      <c r="H36" s="66"/>
+    <row r="36" ht="19" spans="1:8">
+      <c r="A36" s="83"/>
+      <c r="B36" s="64"/>
+      <c r="C36" s="64"/>
+      <c r="D36" s="64"/>
+      <c r="E36" s="64"/>
+      <c r="F36" s="64"/>
+      <c r="G36" s="64"/>
+      <c r="H36" s="64"/>
     </row>
-    <row r="37" ht="18.75" spans="1:8">
-      <c r="A37" s="85"/>
-      <c r="B37" s="66"/>
-      <c r="C37" s="66"/>
-      <c r="D37" s="66"/>
-      <c r="E37" s="66"/>
-      <c r="F37" s="66"/>
-      <c r="G37" s="66"/>
-      <c r="H37" s="66"/>
+    <row r="37" ht="19" spans="1:8">
+      <c r="A37" s="84"/>
+      <c r="B37" s="64"/>
+      <c r="C37" s="64"/>
+      <c r="D37" s="64"/>
+      <c r="E37" s="64"/>
+      <c r="F37" s="64"/>
+      <c r="G37" s="64"/>
+      <c r="H37" s="64"/>
     </row>
-    <row r="55" ht="13.1" spans="1:1">
-      <c r="A55" s="86"/>
+    <row r="55" ht="13.5" spans="1:1">
+      <c r="A55" s="85"/>
     </row>
     <row r="56" ht="13.5" spans="1:1">
-      <c r="A56" s="87"/>
+      <c r="A56" s="86"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -8813,24 +8919,24 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="B1:BB209"/>
+  <dimension ref="B1:BB213"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="4" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="AM6" sqref="AM6:AP6"/>
+      <selection pane="bottomLeft" activeCell="AY13" sqref="AY13:BB13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="2.66371681415929" defaultRowHeight="12"/>
+  <sheetFormatPr defaultColWidth="2.66363636363636" defaultRowHeight="12"/>
   <cols>
-    <col min="1" max="20" width="2.66371681415929" style="4" customWidth="1"/>
-    <col min="21" max="21" width="2.33628318584071" style="4" customWidth="1"/>
-    <col min="22" max="16384" width="2.66371681415929" style="4"/>
+    <col min="1" max="20" width="2.66363636363636" style="4" customWidth="1"/>
+    <col min="21" max="21" width="2.33636363636364" style="4" customWidth="1"/>
+    <col min="22" max="16384" width="2.66363636363636" style="4"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" ht="45" customHeight="1" spans="2:53">
       <c r="B1" s="5" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C1" s="5"/>
       <c r="D1" s="5"/>
@@ -8886,7 +8992,7 @@
     </row>
     <row r="2" s="2" customFormat="1" ht="20.1" customHeight="1" spans="2:54">
       <c r="B2" s="6" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C2" s="7"/>
       <c r="D2" s="7"/>
@@ -8905,14 +9011,14 @@
       <c r="Q2" s="7"/>
       <c r="R2" s="7"/>
       <c r="S2" s="6" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="T2" s="7"/>
       <c r="U2" s="7"/>
       <c r="V2" s="7"/>
       <c r="W2" s="23"/>
       <c r="X2" s="24" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="Y2" s="29"/>
       <c r="Z2" s="29"/>
@@ -8943,11 +9049,11 @@
       <c r="AY2" s="29"/>
       <c r="AZ2" s="29"/>
       <c r="BA2" s="29"/>
-      <c r="BB2" s="46"/>
+      <c r="BB2" s="44"/>
     </row>
     <row r="3" s="3" customFormat="1" ht="20.1" customHeight="1" spans="2:54">
       <c r="B3" s="8" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C3" s="9"/>
       <c r="D3" s="10"/>
@@ -8966,7 +9072,7 @@
       <c r="Q3" s="12"/>
       <c r="R3" s="25"/>
       <c r="S3" s="8" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="T3" s="9"/>
       <c r="U3" s="10"/>
@@ -8988,7 +9094,7 @@
       <c r="AK3" s="17"/>
       <c r="AL3" s="18"/>
       <c r="AM3" s="30" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AN3" s="31"/>
       <c r="AO3" s="31"/>
@@ -8998,24 +9104,24 @@
       <c r="AS3" s="38"/>
       <c r="AT3" s="39"/>
       <c r="AU3" s="30" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AV3" s="31"/>
       <c r="AW3" s="31"/>
       <c r="AX3" s="36"/>
-      <c r="AY3" s="47"/>
-      <c r="AZ3" s="48"/>
-      <c r="BA3" s="48"/>
-      <c r="BB3" s="49"/>
+      <c r="AY3" s="45"/>
+      <c r="AZ3" s="46"/>
+      <c r="BA3" s="46"/>
+      <c r="BB3" s="47"/>
     </row>
     <row r="4" s="1" customFormat="1" ht="20.1" customHeight="1" spans="2:54">
       <c r="B4" s="13" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C4" s="14"/>
       <c r="D4" s="15"/>
       <c r="E4" s="13" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F4" s="14"/>
       <c r="G4" s="14"/>
@@ -9034,7 +9140,7 @@
       <c r="T4" s="14"/>
       <c r="U4" s="15"/>
       <c r="V4" s="13" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="W4" s="14"/>
       <c r="X4" s="14"/>
@@ -9053,25 +9159,25 @@
       <c r="AK4" s="14"/>
       <c r="AL4" s="15"/>
       <c r="AM4" s="30" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AN4" s="31"/>
       <c r="AO4" s="31"/>
       <c r="AP4" s="36"/>
       <c r="AQ4" s="30" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AR4" s="31"/>
       <c r="AS4" s="31"/>
       <c r="AT4" s="36"/>
       <c r="AU4" s="30" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AV4" s="31"/>
       <c r="AW4" s="31"/>
       <c r="AX4" s="36"/>
       <c r="AY4" s="31" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AZ4" s="31"/>
       <c r="BA4" s="31"/>
@@ -9079,7 +9185,7 @@
     </row>
     <row r="5" s="1" customFormat="1" ht="20.1" customHeight="1" spans="2:54">
       <c r="B5" s="11" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C5" s="12"/>
       <c r="D5" s="12"/>
@@ -9141,7 +9247,7 @@
       <c r="C6" s="17"/>
       <c r="D6" s="18"/>
       <c r="E6" s="11" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F6" s="12"/>
       <c r="G6" s="12"/>
@@ -9160,7 +9266,7 @@
       <c r="T6" s="12"/>
       <c r="U6" s="25"/>
       <c r="V6" s="11" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="W6" s="12"/>
       <c r="X6" s="12"/>
@@ -9178,15 +9284,21 @@
       <c r="AJ6" s="12"/>
       <c r="AK6" s="12"/>
       <c r="AL6" s="25"/>
-      <c r="AM6" s="32"/>
+      <c r="AM6" s="32" t="s">
+        <v>31</v>
+      </c>
       <c r="AN6" s="33"/>
       <c r="AO6" s="33"/>
       <c r="AP6" s="40"/>
-      <c r="AQ6" s="41"/>
+      <c r="AQ6" s="41">
+        <v>45155</v>
+      </c>
       <c r="AR6" s="33"/>
       <c r="AS6" s="33"/>
       <c r="AT6" s="40"/>
-      <c r="AU6" s="32"/>
+      <c r="AU6" s="32" t="s">
+        <v>12</v>
+      </c>
       <c r="AV6" s="33"/>
       <c r="AW6" s="33"/>
       <c r="AX6" s="40"/>
@@ -9196,11 +9308,13 @@
       <c r="BB6" s="18"/>
     </row>
     <row r="7" s="1" customFormat="1" ht="18.75" customHeight="1" spans="2:54">
-      <c r="B7" s="16"/>
+      <c r="B7" s="16">
+        <v>2</v>
+      </c>
       <c r="C7" s="17"/>
       <c r="D7" s="18"/>
       <c r="E7" s="11" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="F7" s="12"/>
       <c r="G7" s="12"/>
@@ -9219,7 +9333,7 @@
       <c r="T7" s="12"/>
       <c r="U7" s="25"/>
       <c r="V7" s="11" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="W7" s="12"/>
       <c r="X7" s="12"/>
@@ -9237,15 +9351,21 @@
       <c r="AJ7" s="12"/>
       <c r="AK7" s="12"/>
       <c r="AL7" s="25"/>
-      <c r="AM7" s="32"/>
+      <c r="AM7" s="32" t="s">
+        <v>31</v>
+      </c>
       <c r="AN7" s="33"/>
       <c r="AO7" s="33"/>
       <c r="AP7" s="40"/>
-      <c r="AQ7" s="41"/>
+      <c r="AQ7" s="41">
+        <v>45155</v>
+      </c>
       <c r="AR7" s="33"/>
       <c r="AS7" s="33"/>
       <c r="AT7" s="40"/>
-      <c r="AU7" s="32"/>
+      <c r="AU7" s="32" t="s">
+        <v>12</v>
+      </c>
       <c r="AV7" s="33"/>
       <c r="AW7" s="33"/>
       <c r="AX7" s="40"/>
@@ -9256,12 +9376,12 @@
     </row>
     <row r="8" s="1" customFormat="1" ht="20.1" customHeight="1" spans="2:54">
       <c r="B8" s="16">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C8" s="17"/>
       <c r="D8" s="18"/>
       <c r="E8" s="11" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="F8" s="12"/>
       <c r="G8" s="12"/>
@@ -9280,7 +9400,7 @@
       <c r="T8" s="12"/>
       <c r="U8" s="25"/>
       <c r="V8" s="11" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="W8" s="12"/>
       <c r="X8" s="12"/>
@@ -9298,15 +9418,21 @@
       <c r="AJ8" s="12"/>
       <c r="AK8" s="12"/>
       <c r="AL8" s="25"/>
-      <c r="AM8" s="32"/>
+      <c r="AM8" s="32" t="s">
+        <v>31</v>
+      </c>
       <c r="AN8" s="33"/>
       <c r="AO8" s="33"/>
       <c r="AP8" s="40"/>
-      <c r="AQ8" s="41"/>
+      <c r="AQ8" s="41">
+        <v>45155</v>
+      </c>
       <c r="AR8" s="33"/>
       <c r="AS8" s="33"/>
       <c r="AT8" s="40"/>
-      <c r="AU8" s="32"/>
+      <c r="AU8" s="32" t="s">
+        <v>12</v>
+      </c>
       <c r="AV8" s="33"/>
       <c r="AW8" s="33"/>
       <c r="AX8" s="40"/>
@@ -9316,8 +9442,8 @@
       <c r="BB8" s="18"/>
     </row>
     <row r="9" s="1" customFormat="1" ht="20.1" customHeight="1" spans="2:54">
-      <c r="B9" s="19" t="s">
-        <v>34</v>
+      <c r="B9" s="11" t="s">
+        <v>36</v>
       </c>
       <c r="C9" s="12"/>
       <c r="D9" s="12"/>
@@ -9374,12 +9500,12 @@
     </row>
     <row r="10" s="1" customFormat="1" ht="20.1" customHeight="1" spans="2:54">
       <c r="B10" s="16">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C10" s="17"/>
       <c r="D10" s="18"/>
       <c r="E10" s="11" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="F10" s="12"/>
       <c r="G10" s="12"/>
@@ -9398,7 +9524,7 @@
       <c r="T10" s="12"/>
       <c r="U10" s="25"/>
       <c r="V10" s="11" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="W10" s="12"/>
       <c r="X10" s="12"/>
@@ -9416,15 +9542,21 @@
       <c r="AJ10" s="12"/>
       <c r="AK10" s="12"/>
       <c r="AL10" s="25"/>
-      <c r="AM10" s="32"/>
+      <c r="AM10" s="32" t="s">
+        <v>31</v>
+      </c>
       <c r="AN10" s="33"/>
       <c r="AO10" s="33"/>
       <c r="AP10" s="40"/>
-      <c r="AQ10" s="41"/>
+      <c r="AQ10" s="41">
+        <v>45155</v>
+      </c>
       <c r="AR10" s="33"/>
       <c r="AS10" s="33"/>
       <c r="AT10" s="40"/>
-      <c r="AU10" s="32"/>
+      <c r="AU10" s="32" t="s">
+        <v>12</v>
+      </c>
       <c r="AV10" s="33"/>
       <c r="AW10" s="33"/>
       <c r="AX10" s="40"/>
@@ -9435,12 +9567,12 @@
     </row>
     <row r="11" s="1" customFormat="1" ht="20.1" customHeight="1" spans="2:54">
       <c r="B11" s="16">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C11" s="17"/>
       <c r="D11" s="18"/>
       <c r="E11" s="11" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F11" s="12"/>
       <c r="G11" s="12"/>
@@ -9459,7 +9591,7 @@
       <c r="T11" s="12"/>
       <c r="U11" s="25"/>
       <c r="V11" s="11" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="W11" s="12"/>
       <c r="X11" s="12"/>
@@ -9477,15 +9609,21 @@
       <c r="AJ11" s="12"/>
       <c r="AK11" s="12"/>
       <c r="AL11" s="25"/>
-      <c r="AM11" s="32"/>
+      <c r="AM11" s="32" t="s">
+        <v>31</v>
+      </c>
       <c r="AN11" s="33"/>
       <c r="AO11" s="33"/>
       <c r="AP11" s="40"/>
-      <c r="AQ11" s="41"/>
+      <c r="AQ11" s="41">
+        <v>45155</v>
+      </c>
       <c r="AR11" s="33"/>
       <c r="AS11" s="33"/>
       <c r="AT11" s="40"/>
-      <c r="AU11" s="32"/>
+      <c r="AU11" s="32" t="s">
+        <v>12</v>
+      </c>
       <c r="AV11" s="33"/>
       <c r="AW11" s="33"/>
       <c r="AX11" s="40"/>
@@ -9495,59 +9633,61 @@
       <c r="BB11" s="18"/>
     </row>
     <row r="12" s="1" customFormat="1" ht="20.1" customHeight="1" spans="2:54">
-      <c r="B12" s="11"/>
+      <c r="B12" s="11" t="s">
+        <v>40</v>
+      </c>
       <c r="C12" s="12"/>
       <c r="D12" s="12"/>
-      <c r="E12" s="20"/>
-      <c r="F12" s="20"/>
-      <c r="G12" s="20"/>
-      <c r="H12" s="20"/>
-      <c r="I12" s="20"/>
-      <c r="J12" s="20"/>
-      <c r="K12" s="20"/>
-      <c r="L12" s="20"/>
-      <c r="M12" s="20"/>
-      <c r="N12" s="20"/>
-      <c r="O12" s="20"/>
-      <c r="P12" s="20"/>
-      <c r="Q12" s="20"/>
-      <c r="R12" s="20"/>
-      <c r="S12" s="20"/>
-      <c r="T12" s="20"/>
-      <c r="U12" s="20"/>
-      <c r="V12" s="20"/>
-      <c r="W12" s="20"/>
-      <c r="X12" s="20"/>
-      <c r="Y12" s="20"/>
-      <c r="Z12" s="20"/>
-      <c r="AA12" s="20"/>
-      <c r="AB12" s="20"/>
-      <c r="AC12" s="20"/>
-      <c r="AD12" s="20"/>
-      <c r="AE12" s="20"/>
-      <c r="AF12" s="20"/>
-      <c r="AG12" s="20"/>
-      <c r="AH12" s="20"/>
-      <c r="AI12" s="20"/>
-      <c r="AJ12" s="20"/>
-      <c r="AK12" s="20"/>
-      <c r="AL12" s="20"/>
-      <c r="AM12" s="20"/>
-      <c r="AN12" s="20"/>
-      <c r="AO12" s="20"/>
-      <c r="AP12" s="20"/>
-      <c r="AQ12" s="20"/>
-      <c r="AR12" s="20"/>
-      <c r="AS12" s="20"/>
-      <c r="AT12" s="20"/>
-      <c r="AU12" s="20"/>
-      <c r="AV12" s="20"/>
-      <c r="AW12" s="20"/>
-      <c r="AX12" s="20"/>
-      <c r="AY12" s="20"/>
-      <c r="AZ12" s="20"/>
-      <c r="BA12" s="20"/>
-      <c r="BB12" s="50"/>
+      <c r="E12" s="19"/>
+      <c r="F12" s="19"/>
+      <c r="G12" s="19"/>
+      <c r="H12" s="19"/>
+      <c r="I12" s="19"/>
+      <c r="J12" s="19"/>
+      <c r="K12" s="19"/>
+      <c r="L12" s="19"/>
+      <c r="M12" s="19"/>
+      <c r="N12" s="19"/>
+      <c r="O12" s="19"/>
+      <c r="P12" s="19"/>
+      <c r="Q12" s="19"/>
+      <c r="R12" s="19"/>
+      <c r="S12" s="19"/>
+      <c r="T12" s="19"/>
+      <c r="U12" s="19"/>
+      <c r="V12" s="19"/>
+      <c r="W12" s="19"/>
+      <c r="X12" s="19"/>
+      <c r="Y12" s="19"/>
+      <c r="Z12" s="19"/>
+      <c r="AA12" s="19"/>
+      <c r="AB12" s="19"/>
+      <c r="AC12" s="19"/>
+      <c r="AD12" s="19"/>
+      <c r="AE12" s="19"/>
+      <c r="AF12" s="19"/>
+      <c r="AG12" s="19"/>
+      <c r="AH12" s="19"/>
+      <c r="AI12" s="19"/>
+      <c r="AJ12" s="19"/>
+      <c r="AK12" s="19"/>
+      <c r="AL12" s="19"/>
+      <c r="AM12" s="19"/>
+      <c r="AN12" s="19"/>
+      <c r="AO12" s="19"/>
+      <c r="AP12" s="19"/>
+      <c r="AQ12" s="19"/>
+      <c r="AR12" s="19"/>
+      <c r="AS12" s="19"/>
+      <c r="AT12" s="19"/>
+      <c r="AU12" s="19"/>
+      <c r="AV12" s="19"/>
+      <c r="AW12" s="19"/>
+      <c r="AX12" s="19"/>
+      <c r="AY12" s="19"/>
+      <c r="AZ12" s="19"/>
+      <c r="BA12" s="19"/>
+      <c r="BB12" s="48"/>
     </row>
     <row r="13" s="1" customFormat="1" ht="20.1" customHeight="1" spans="2:54">
       <c r="B13" s="16">
@@ -9556,7 +9696,7 @@
       <c r="C13" s="17"/>
       <c r="D13" s="18"/>
       <c r="E13" s="11" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="F13" s="12"/>
       <c r="G13" s="12"/>
@@ -9575,7 +9715,7 @@
       <c r="T13" s="12"/>
       <c r="U13" s="25"/>
       <c r="V13" s="11" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="W13" s="12"/>
       <c r="X13" s="12"/>
@@ -9593,15 +9733,21 @@
       <c r="AJ13" s="12"/>
       <c r="AK13" s="12"/>
       <c r="AL13" s="25"/>
-      <c r="AM13" s="32"/>
+      <c r="AM13" s="32" t="s">
+        <v>31</v>
+      </c>
       <c r="AN13" s="33"/>
       <c r="AO13" s="33"/>
       <c r="AP13" s="40"/>
-      <c r="AQ13" s="41"/>
+      <c r="AQ13" s="41">
+        <v>45155</v>
+      </c>
       <c r="AR13" s="33"/>
       <c r="AS13" s="33"/>
       <c r="AT13" s="40"/>
-      <c r="AU13" s="32"/>
+      <c r="AU13" s="32" t="s">
+        <v>12</v>
+      </c>
       <c r="AV13" s="33"/>
       <c r="AW13" s="33"/>
       <c r="AX13" s="40"/>
@@ -9617,7 +9763,7 @@
       <c r="C14" s="17"/>
       <c r="D14" s="18"/>
       <c r="E14" s="11" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="F14" s="12"/>
       <c r="G14" s="12"/>
@@ -9636,7 +9782,7 @@
       <c r="T14" s="12"/>
       <c r="U14" s="25"/>
       <c r="V14" s="11" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="W14" s="12"/>
       <c r="X14" s="12"/>
@@ -9654,15 +9800,21 @@
       <c r="AJ14" s="12"/>
       <c r="AK14" s="12"/>
       <c r="AL14" s="25"/>
-      <c r="AM14" s="32"/>
+      <c r="AM14" s="32" t="s">
+        <v>31</v>
+      </c>
       <c r="AN14" s="33"/>
       <c r="AO14" s="33"/>
       <c r="AP14" s="40"/>
-      <c r="AQ14" s="41"/>
+      <c r="AQ14" s="41">
+        <v>45155</v>
+      </c>
       <c r="AR14" s="33"/>
       <c r="AS14" s="33"/>
       <c r="AT14" s="40"/>
-      <c r="AU14" s="32"/>
+      <c r="AU14" s="32" t="s">
+        <v>12</v>
+      </c>
       <c r="AV14" s="33"/>
       <c r="AW14" s="33"/>
       <c r="AX14" s="40"/>
@@ -9672,10 +9824,14 @@
       <c r="BB14" s="18"/>
     </row>
     <row r="15" s="1" customFormat="1" ht="20.1" customHeight="1" spans="2:54">
-      <c r="B15" s="11"/>
-      <c r="C15" s="12"/>
-      <c r="D15" s="12"/>
-      <c r="E15" s="12"/>
+      <c r="B15" s="16">
+        <v>7</v>
+      </c>
+      <c r="C15" s="17"/>
+      <c r="D15" s="18"/>
+      <c r="E15" s="11" t="s">
+        <v>45</v>
+      </c>
       <c r="F15" s="12"/>
       <c r="G15" s="12"/>
       <c r="H15" s="12"/>
@@ -9691,8 +9847,10 @@
       <c r="R15" s="12"/>
       <c r="S15" s="12"/>
       <c r="T15" s="12"/>
-      <c r="U15" s="12"/>
-      <c r="V15" s="12"/>
+      <c r="U15" s="25"/>
+      <c r="V15" s="11" t="s">
+        <v>42</v>
+      </c>
       <c r="W15" s="12"/>
       <c r="X15" s="12"/>
       <c r="Y15" s="12"/>
@@ -9708,31 +9866,37 @@
       <c r="AI15" s="12"/>
       <c r="AJ15" s="12"/>
       <c r="AK15" s="12"/>
-      <c r="AL15" s="12"/>
-      <c r="AM15" s="12"/>
-      <c r="AN15" s="12"/>
-      <c r="AO15" s="12"/>
-      <c r="AP15" s="12"/>
-      <c r="AQ15" s="12"/>
-      <c r="AR15" s="12"/>
-      <c r="AS15" s="12"/>
-      <c r="AT15" s="12"/>
-      <c r="AU15" s="12"/>
-      <c r="AV15" s="12"/>
-      <c r="AW15" s="12"/>
-      <c r="AX15" s="12"/>
-      <c r="AY15" s="12"/>
-      <c r="AZ15" s="12"/>
-      <c r="BA15" s="12"/>
-      <c r="BB15" s="25"/>
+      <c r="AL15" s="25"/>
+      <c r="AM15" s="32" t="s">
+        <v>31</v>
+      </c>
+      <c r="AN15" s="33"/>
+      <c r="AO15" s="33"/>
+      <c r="AP15" s="40"/>
+      <c r="AQ15" s="41">
+        <v>45155</v>
+      </c>
+      <c r="AR15" s="33"/>
+      <c r="AS15" s="33"/>
+      <c r="AT15" s="40"/>
+      <c r="AU15" s="32" t="s">
+        <v>12</v>
+      </c>
+      <c r="AV15" s="33"/>
+      <c r="AW15" s="33"/>
+      <c r="AX15" s="40"/>
+      <c r="AY15" s="16"/>
+      <c r="AZ15" s="17"/>
+      <c r="BA15" s="17"/>
+      <c r="BB15" s="18"/>
     </row>
-    <row r="16" s="1" customFormat="1" ht="38.25" customHeight="1" spans="2:54">
-      <c r="B16" s="16">
-        <v>7</v>
-      </c>
-      <c r="C16" s="17"/>
-      <c r="D16" s="18"/>
-      <c r="E16" s="11"/>
+    <row r="16" s="1" customFormat="1" ht="19" customHeight="1" spans="2:54">
+      <c r="B16" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="C16" s="12"/>
+      <c r="D16" s="12"/>
+      <c r="E16" s="12"/>
       <c r="F16" s="12"/>
       <c r="G16" s="12"/>
       <c r="H16" s="12"/>
@@ -9748,8 +9912,8 @@
       <c r="R16" s="12"/>
       <c r="S16" s="12"/>
       <c r="T16" s="12"/>
-      <c r="U16" s="25"/>
-      <c r="V16" s="11"/>
+      <c r="U16" s="12"/>
+      <c r="V16" s="12"/>
       <c r="W16" s="12"/>
       <c r="X16" s="12"/>
       <c r="Y16" s="12"/>
@@ -9765,31 +9929,33 @@
       <c r="AI16" s="12"/>
       <c r="AJ16" s="12"/>
       <c r="AK16" s="12"/>
-      <c r="AL16" s="25"/>
-      <c r="AM16" s="32"/>
-      <c r="AN16" s="33"/>
-      <c r="AO16" s="33"/>
-      <c r="AP16" s="40"/>
-      <c r="AQ16" s="41"/>
-      <c r="AR16" s="33"/>
-      <c r="AS16" s="33"/>
-      <c r="AT16" s="40"/>
-      <c r="AU16" s="32"/>
-      <c r="AV16" s="33"/>
-      <c r="AW16" s="33"/>
-      <c r="AX16" s="40"/>
-      <c r="AY16" s="51"/>
-      <c r="AZ16" s="52"/>
-      <c r="BA16" s="52"/>
-      <c r="BB16" s="53"/>
+      <c r="AL16" s="12"/>
+      <c r="AM16" s="12"/>
+      <c r="AN16" s="12"/>
+      <c r="AO16" s="12"/>
+      <c r="AP16" s="12"/>
+      <c r="AQ16" s="12"/>
+      <c r="AR16" s="12"/>
+      <c r="AS16" s="12"/>
+      <c r="AT16" s="12"/>
+      <c r="AU16" s="12"/>
+      <c r="AV16" s="12"/>
+      <c r="AW16" s="12"/>
+      <c r="AX16" s="12"/>
+      <c r="AY16" s="12"/>
+      <c r="AZ16" s="12"/>
+      <c r="BA16" s="12"/>
+      <c r="BB16" s="25"/>
     </row>
-    <row r="17" s="1" customFormat="1" ht="20.1" customHeight="1" spans="2:54">
+    <row r="17" s="1" customFormat="1" ht="24" customHeight="1" spans="2:54">
       <c r="B17" s="16">
         <v>8</v>
       </c>
       <c r="C17" s="17"/>
       <c r="D17" s="18"/>
-      <c r="E17" s="11"/>
+      <c r="E17" s="11" t="s">
+        <v>47</v>
+      </c>
       <c r="F17" s="12"/>
       <c r="G17" s="12"/>
       <c r="H17" s="12"/>
@@ -9806,7 +9972,9 @@
       <c r="S17" s="12"/>
       <c r="T17" s="12"/>
       <c r="U17" s="25"/>
-      <c r="V17" s="11"/>
+      <c r="V17" s="11" t="s">
+        <v>48</v>
+      </c>
       <c r="W17" s="12"/>
       <c r="X17" s="12"/>
       <c r="Y17" s="12"/>
@@ -9823,22 +9991,28 @@
       <c r="AJ17" s="12"/>
       <c r="AK17" s="12"/>
       <c r="AL17" s="25"/>
-      <c r="AM17" s="32"/>
+      <c r="AM17" s="32" t="s">
+        <v>31</v>
+      </c>
       <c r="AN17" s="33"/>
       <c r="AO17" s="33"/>
       <c r="AP17" s="40"/>
-      <c r="AQ17" s="41"/>
+      <c r="AQ17" s="41">
+        <v>45155</v>
+      </c>
       <c r="AR17" s="33"/>
       <c r="AS17" s="33"/>
       <c r="AT17" s="40"/>
-      <c r="AU17" s="32"/>
+      <c r="AU17" s="32" t="s">
+        <v>12</v>
+      </c>
       <c r="AV17" s="33"/>
       <c r="AW17" s="33"/>
       <c r="AX17" s="40"/>
-      <c r="AY17" s="16"/>
-      <c r="AZ17" s="17"/>
-      <c r="BA17" s="17"/>
-      <c r="BB17" s="18"/>
+      <c r="AY17" s="49"/>
+      <c r="AZ17" s="50"/>
+      <c r="BA17" s="50"/>
+      <c r="BB17" s="51"/>
     </row>
     <row r="18" s="1" customFormat="1" ht="20.1" customHeight="1" spans="2:54">
       <c r="B18" s="16">
@@ -9846,7 +10020,9 @@
       </c>
       <c r="C18" s="17"/>
       <c r="D18" s="18"/>
-      <c r="E18" s="11"/>
+      <c r="E18" s="11" t="s">
+        <v>49</v>
+      </c>
       <c r="F18" s="12"/>
       <c r="G18" s="12"/>
       <c r="H18" s="12"/>
@@ -9863,7 +10039,9 @@
       <c r="S18" s="12"/>
       <c r="T18" s="12"/>
       <c r="U18" s="25"/>
-      <c r="V18" s="11"/>
+      <c r="V18" s="11" t="s">
+        <v>48</v>
+      </c>
       <c r="W18" s="12"/>
       <c r="X18" s="12"/>
       <c r="Y18" s="12"/>
@@ -9880,15 +10058,21 @@
       <c r="AJ18" s="12"/>
       <c r="AK18" s="12"/>
       <c r="AL18" s="25"/>
-      <c r="AM18" s="32"/>
+      <c r="AM18" s="32" t="s">
+        <v>31</v>
+      </c>
       <c r="AN18" s="33"/>
       <c r="AO18" s="33"/>
       <c r="AP18" s="40"/>
-      <c r="AQ18" s="41"/>
+      <c r="AQ18" s="41">
+        <v>45155</v>
+      </c>
       <c r="AR18" s="33"/>
       <c r="AS18" s="33"/>
       <c r="AT18" s="40"/>
-      <c r="AU18" s="32"/>
+      <c r="AU18" s="32" t="s">
+        <v>12</v>
+      </c>
       <c r="AV18" s="33"/>
       <c r="AW18" s="33"/>
       <c r="AX18" s="40"/>
@@ -9903,7 +10087,9 @@
       </c>
       <c r="C19" s="17"/>
       <c r="D19" s="18"/>
-      <c r="E19" s="11"/>
+      <c r="E19" s="11" t="s">
+        <v>50</v>
+      </c>
       <c r="F19" s="12"/>
       <c r="G19" s="12"/>
       <c r="H19" s="12"/>
@@ -9920,7 +10106,9 @@
       <c r="S19" s="12"/>
       <c r="T19" s="12"/>
       <c r="U19" s="25"/>
-      <c r="V19" s="11"/>
+      <c r="V19" s="11" t="s">
+        <v>51</v>
+      </c>
       <c r="W19" s="12"/>
       <c r="X19" s="12"/>
       <c r="Y19" s="12"/>
@@ -9937,15 +10125,21 @@
       <c r="AJ19" s="12"/>
       <c r="AK19" s="12"/>
       <c r="AL19" s="25"/>
-      <c r="AM19" s="32"/>
+      <c r="AM19" s="32" t="s">
+        <v>31</v>
+      </c>
       <c r="AN19" s="33"/>
       <c r="AO19" s="33"/>
       <c r="AP19" s="40"/>
-      <c r="AQ19" s="41"/>
-      <c r="AR19" s="42"/>
-      <c r="AS19" s="42"/>
-      <c r="AT19" s="43"/>
-      <c r="AU19" s="32"/>
+      <c r="AQ19" s="41">
+        <v>45155</v>
+      </c>
+      <c r="AR19" s="33"/>
+      <c r="AS19" s="33"/>
+      <c r="AT19" s="40"/>
+      <c r="AU19" s="32" t="s">
+        <v>12</v>
+      </c>
       <c r="AV19" s="33"/>
       <c r="AW19" s="33"/>
       <c r="AX19" s="40"/>
@@ -9955,10 +10149,14 @@
       <c r="BB19" s="18"/>
     </row>
     <row r="20" s="1" customFormat="1" ht="20.1" customHeight="1" spans="2:54">
-      <c r="B20" s="16"/>
+      <c r="B20" s="16">
+        <v>11</v>
+      </c>
       <c r="C20" s="17"/>
       <c r="D20" s="18"/>
-      <c r="E20" s="11"/>
+      <c r="E20" s="11" t="s">
+        <v>52</v>
+      </c>
       <c r="F20" s="12"/>
       <c r="G20" s="12"/>
       <c r="H20" s="12"/>
@@ -9975,7 +10173,9 @@
       <c r="S20" s="12"/>
       <c r="T20" s="12"/>
       <c r="U20" s="25"/>
-      <c r="V20" s="11"/>
+      <c r="V20" s="11" t="s">
+        <v>53</v>
+      </c>
       <c r="W20" s="12"/>
       <c r="X20" s="12"/>
       <c r="Y20" s="12"/>
@@ -9992,15 +10192,21 @@
       <c r="AJ20" s="12"/>
       <c r="AK20" s="12"/>
       <c r="AL20" s="25"/>
-      <c r="AM20" s="32"/>
+      <c r="AM20" s="32" t="s">
+        <v>31</v>
+      </c>
       <c r="AN20" s="33"/>
       <c r="AO20" s="33"/>
       <c r="AP20" s="40"/>
-      <c r="AQ20" s="41"/>
+      <c r="AQ20" s="41">
+        <v>45155</v>
+      </c>
       <c r="AR20" s="33"/>
       <c r="AS20" s="33"/>
       <c r="AT20" s="40"/>
-      <c r="AU20" s="32"/>
+      <c r="AU20" s="32" t="s">
+        <v>12</v>
+      </c>
       <c r="AV20" s="33"/>
       <c r="AW20" s="33"/>
       <c r="AX20" s="40"/>
@@ -10010,10 +10216,12 @@
       <c r="BB20" s="18"/>
     </row>
     <row r="21" s="1" customFormat="1" ht="20.1" customHeight="1" spans="2:54">
-      <c r="B21" s="16"/>
-      <c r="C21" s="17"/>
-      <c r="D21" s="18"/>
-      <c r="E21" s="11"/>
+      <c r="B21" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="C21" s="12"/>
+      <c r="D21" s="12"/>
+      <c r="E21" s="12"/>
       <c r="F21" s="12"/>
       <c r="G21" s="12"/>
       <c r="H21" s="12"/>
@@ -10029,8 +10237,8 @@
       <c r="R21" s="12"/>
       <c r="S21" s="12"/>
       <c r="T21" s="12"/>
-      <c r="U21" s="25"/>
-      <c r="V21" s="11"/>
+      <c r="U21" s="12"/>
+      <c r="V21" s="12"/>
       <c r="W21" s="12"/>
       <c r="X21" s="12"/>
       <c r="Y21" s="12"/>
@@ -10046,29 +10254,33 @@
       <c r="AI21" s="12"/>
       <c r="AJ21" s="12"/>
       <c r="AK21" s="12"/>
-      <c r="AL21" s="25"/>
-      <c r="AM21" s="32"/>
-      <c r="AN21" s="33"/>
-      <c r="AO21" s="33"/>
-      <c r="AP21" s="40"/>
-      <c r="AQ21" s="41"/>
-      <c r="AR21" s="33"/>
-      <c r="AS21" s="33"/>
-      <c r="AT21" s="40"/>
-      <c r="AU21" s="32"/>
-      <c r="AV21" s="33"/>
-      <c r="AW21" s="33"/>
-      <c r="AX21" s="40"/>
-      <c r="AY21" s="16"/>
-      <c r="AZ21" s="17"/>
-      <c r="BA21" s="17"/>
-      <c r="BB21" s="18"/>
+      <c r="AL21" s="12"/>
+      <c r="AM21" s="12"/>
+      <c r="AN21" s="12"/>
+      <c r="AO21" s="12"/>
+      <c r="AP21" s="12"/>
+      <c r="AQ21" s="12"/>
+      <c r="AR21" s="12"/>
+      <c r="AS21" s="12"/>
+      <c r="AT21" s="12"/>
+      <c r="AU21" s="12"/>
+      <c r="AV21" s="12"/>
+      <c r="AW21" s="12"/>
+      <c r="AX21" s="12"/>
+      <c r="AY21" s="12"/>
+      <c r="AZ21" s="12"/>
+      <c r="BA21" s="12"/>
+      <c r="BB21" s="25"/>
     </row>
     <row r="22" s="1" customFormat="1" ht="20.1" customHeight="1" spans="2:54">
-      <c r="B22" s="16"/>
+      <c r="B22" s="16">
+        <v>12</v>
+      </c>
       <c r="C22" s="17"/>
       <c r="D22" s="18"/>
-      <c r="E22" s="11"/>
+      <c r="E22" s="11" t="s">
+        <v>55</v>
+      </c>
       <c r="F22" s="12"/>
       <c r="G22" s="12"/>
       <c r="H22" s="12"/>
@@ -10085,7 +10297,9 @@
       <c r="S22" s="12"/>
       <c r="T22" s="12"/>
       <c r="U22" s="25"/>
-      <c r="V22" s="11"/>
+      <c r="V22" s="11" t="s">
+        <v>48</v>
+      </c>
       <c r="W22" s="12"/>
       <c r="X22" s="12"/>
       <c r="Y22" s="12"/>
@@ -10102,28 +10316,38 @@
       <c r="AJ22" s="12"/>
       <c r="AK22" s="12"/>
       <c r="AL22" s="25"/>
-      <c r="AM22" s="16"/>
-      <c r="AN22" s="17"/>
-      <c r="AO22" s="17"/>
-      <c r="AP22" s="18"/>
-      <c r="AQ22" s="16"/>
-      <c r="AR22" s="17"/>
-      <c r="AS22" s="17"/>
-      <c r="AT22" s="18"/>
-      <c r="AU22" s="16"/>
-      <c r="AV22" s="17"/>
-      <c r="AW22" s="17"/>
-      <c r="AX22" s="18"/>
+      <c r="AM22" s="32" t="s">
+        <v>31</v>
+      </c>
+      <c r="AN22" s="33"/>
+      <c r="AO22" s="33"/>
+      <c r="AP22" s="40"/>
+      <c r="AQ22" s="41">
+        <v>45155</v>
+      </c>
+      <c r="AR22" s="33"/>
+      <c r="AS22" s="33"/>
+      <c r="AT22" s="40"/>
+      <c r="AU22" s="32" t="s">
+        <v>12</v>
+      </c>
+      <c r="AV22" s="33"/>
+      <c r="AW22" s="33"/>
+      <c r="AX22" s="40"/>
       <c r="AY22" s="16"/>
       <c r="AZ22" s="17"/>
       <c r="BA22" s="17"/>
       <c r="BB22" s="18"/>
     </row>
     <row r="23" s="1" customFormat="1" ht="20.1" customHeight="1" spans="2:54">
-      <c r="B23" s="11"/>
-      <c r="C23" s="12"/>
-      <c r="D23" s="12"/>
-      <c r="E23" s="12"/>
+      <c r="B23" s="16">
+        <v>13</v>
+      </c>
+      <c r="C23" s="17"/>
+      <c r="D23" s="18"/>
+      <c r="E23" s="11" t="s">
+        <v>56</v>
+      </c>
       <c r="F23" s="12"/>
       <c r="G23" s="12"/>
       <c r="H23" s="12"/>
@@ -10139,8 +10363,10 @@
       <c r="R23" s="12"/>
       <c r="S23" s="12"/>
       <c r="T23" s="12"/>
-      <c r="U23" s="12"/>
-      <c r="V23" s="12"/>
+      <c r="U23" s="25"/>
+      <c r="V23" s="11" t="s">
+        <v>48</v>
+      </c>
       <c r="W23" s="12"/>
       <c r="X23" s="12"/>
       <c r="Y23" s="12"/>
@@ -10156,29 +10382,39 @@
       <c r="AI23" s="12"/>
       <c r="AJ23" s="12"/>
       <c r="AK23" s="12"/>
-      <c r="AL23" s="12"/>
-      <c r="AM23" s="12"/>
-      <c r="AN23" s="12"/>
-      <c r="AO23" s="12"/>
-      <c r="AP23" s="12"/>
-      <c r="AQ23" s="12"/>
-      <c r="AR23" s="12"/>
-      <c r="AS23" s="12"/>
-      <c r="AT23" s="12"/>
-      <c r="AU23" s="12"/>
-      <c r="AV23" s="12"/>
-      <c r="AW23" s="12"/>
-      <c r="AX23" s="12"/>
-      <c r="AY23" s="12"/>
-      <c r="AZ23" s="12"/>
-      <c r="BA23" s="12"/>
-      <c r="BB23" s="25"/>
+      <c r="AL23" s="25"/>
+      <c r="AM23" s="32" t="s">
+        <v>31</v>
+      </c>
+      <c r="AN23" s="33"/>
+      <c r="AO23" s="33"/>
+      <c r="AP23" s="40"/>
+      <c r="AQ23" s="41">
+        <v>45155</v>
+      </c>
+      <c r="AR23" s="33"/>
+      <c r="AS23" s="33"/>
+      <c r="AT23" s="40"/>
+      <c r="AU23" s="32" t="s">
+        <v>12</v>
+      </c>
+      <c r="AV23" s="33"/>
+      <c r="AW23" s="33"/>
+      <c r="AX23" s="40"/>
+      <c r="AY23" s="16"/>
+      <c r="AZ23" s="17"/>
+      <c r="BA23" s="17"/>
+      <c r="BB23" s="18"/>
     </row>
     <row r="24" s="1" customFormat="1" ht="20.1" customHeight="1" spans="2:54">
-      <c r="B24" s="16"/>
+      <c r="B24" s="16">
+        <v>14</v>
+      </c>
       <c r="C24" s="17"/>
       <c r="D24" s="18"/>
-      <c r="E24" s="11"/>
+      <c r="E24" s="11" t="s">
+        <v>57</v>
+      </c>
       <c r="F24" s="12"/>
       <c r="G24" s="12"/>
       <c r="H24" s="12"/>
@@ -10195,7 +10431,9 @@
       <c r="S24" s="12"/>
       <c r="T24" s="12"/>
       <c r="U24" s="25"/>
-      <c r="V24" s="11"/>
+      <c r="V24" s="11" t="s">
+        <v>48</v>
+      </c>
       <c r="W24" s="12"/>
       <c r="X24" s="12"/>
       <c r="Y24" s="12"/>
@@ -10212,28 +10450,38 @@
       <c r="AJ24" s="12"/>
       <c r="AK24" s="12"/>
       <c r="AL24" s="25"/>
-      <c r="AM24" s="32"/>
+      <c r="AM24" s="32" t="s">
+        <v>31</v>
+      </c>
       <c r="AN24" s="33"/>
       <c r="AO24" s="33"/>
       <c r="AP24" s="40"/>
-      <c r="AQ24" s="41"/>
+      <c r="AQ24" s="41">
+        <v>45155</v>
+      </c>
       <c r="AR24" s="33"/>
       <c r="AS24" s="33"/>
       <c r="AT24" s="40"/>
-      <c r="AU24" s="32"/>
+      <c r="AU24" s="32" t="s">
+        <v>12</v>
+      </c>
       <c r="AV24" s="33"/>
       <c r="AW24" s="33"/>
       <c r="AX24" s="40"/>
-      <c r="AY24" s="32"/>
-      <c r="AZ24" s="33"/>
-      <c r="BA24" s="33"/>
-      <c r="BB24" s="40"/>
+      <c r="AY24" s="16"/>
+      <c r="AZ24" s="17"/>
+      <c r="BA24" s="17"/>
+      <c r="BB24" s="18"/>
     </row>
     <row r="25" s="1" customFormat="1" ht="20.1" customHeight="1" spans="2:54">
-      <c r="B25" s="16"/>
+      <c r="B25" s="16">
+        <v>15</v>
+      </c>
       <c r="C25" s="17"/>
       <c r="D25" s="18"/>
-      <c r="E25" s="11"/>
+      <c r="E25" s="11" t="s">
+        <v>58</v>
+      </c>
       <c r="F25" s="12"/>
       <c r="G25" s="12"/>
       <c r="H25" s="12"/>
@@ -10250,7 +10498,9 @@
       <c r="S25" s="12"/>
       <c r="T25" s="12"/>
       <c r="U25" s="25"/>
-      <c r="V25" s="11"/>
+      <c r="V25" s="11" t="s">
+        <v>48</v>
+      </c>
       <c r="W25" s="12"/>
       <c r="X25" s="12"/>
       <c r="Y25" s="12"/>
@@ -10267,28 +10517,38 @@
       <c r="AJ25" s="12"/>
       <c r="AK25" s="12"/>
       <c r="AL25" s="25"/>
-      <c r="AM25" s="32"/>
+      <c r="AM25" s="32" t="s">
+        <v>31</v>
+      </c>
       <c r="AN25" s="33"/>
       <c r="AO25" s="33"/>
       <c r="AP25" s="40"/>
-      <c r="AQ25" s="41"/>
+      <c r="AQ25" s="41">
+        <v>45155</v>
+      </c>
       <c r="AR25" s="33"/>
       <c r="AS25" s="33"/>
       <c r="AT25" s="40"/>
-      <c r="AU25" s="32"/>
+      <c r="AU25" s="32" t="s">
+        <v>12</v>
+      </c>
       <c r="AV25" s="33"/>
       <c r="AW25" s="33"/>
       <c r="AX25" s="40"/>
-      <c r="AY25" s="32"/>
-      <c r="AZ25" s="33"/>
-      <c r="BA25" s="33"/>
-      <c r="BB25" s="40"/>
+      <c r="AY25" s="16"/>
+      <c r="AZ25" s="17"/>
+      <c r="BA25" s="17"/>
+      <c r="BB25" s="18"/>
     </row>
     <row r="26" s="1" customFormat="1" ht="20.1" customHeight="1" spans="2:54">
-      <c r="B26" s="16"/>
+      <c r="B26" s="16">
+        <v>16</v>
+      </c>
       <c r="C26" s="17"/>
       <c r="D26" s="18"/>
-      <c r="E26" s="11"/>
+      <c r="E26" s="11" t="s">
+        <v>59</v>
+      </c>
       <c r="F26" s="12"/>
       <c r="G26" s="12"/>
       <c r="H26" s="12"/>
@@ -10305,7 +10565,9 @@
       <c r="S26" s="12"/>
       <c r="T26" s="12"/>
       <c r="U26" s="25"/>
-      <c r="V26" s="11"/>
+      <c r="V26" s="11" t="s">
+        <v>48</v>
+      </c>
       <c r="W26" s="12"/>
       <c r="X26" s="12"/>
       <c r="Y26" s="12"/>
@@ -10322,28 +10584,38 @@
       <c r="AJ26" s="12"/>
       <c r="AK26" s="12"/>
       <c r="AL26" s="25"/>
-      <c r="AM26" s="32"/>
+      <c r="AM26" s="32" t="s">
+        <v>31</v>
+      </c>
       <c r="AN26" s="33"/>
       <c r="AO26" s="33"/>
       <c r="AP26" s="40"/>
-      <c r="AQ26" s="41"/>
+      <c r="AQ26" s="41">
+        <v>45155</v>
+      </c>
       <c r="AR26" s="33"/>
       <c r="AS26" s="33"/>
       <c r="AT26" s="40"/>
-      <c r="AU26" s="32"/>
+      <c r="AU26" s="32" t="s">
+        <v>12</v>
+      </c>
       <c r="AV26" s="33"/>
       <c r="AW26" s="33"/>
       <c r="AX26" s="40"/>
-      <c r="AY26" s="32"/>
-      <c r="AZ26" s="33"/>
-      <c r="BA26" s="33"/>
-      <c r="BB26" s="40"/>
+      <c r="AY26" s="16"/>
+      <c r="AZ26" s="17"/>
+      <c r="BA26" s="17"/>
+      <c r="BB26" s="18"/>
     </row>
     <row r="27" s="1" customFormat="1" ht="20.1" customHeight="1" spans="2:54">
-      <c r="B27" s="16"/>
+      <c r="B27" s="16">
+        <v>17</v>
+      </c>
       <c r="C27" s="17"/>
       <c r="D27" s="18"/>
-      <c r="E27" s="11"/>
+      <c r="E27" s="11" t="s">
+        <v>60</v>
+      </c>
       <c r="F27" s="12"/>
       <c r="G27" s="12"/>
       <c r="H27" s="12"/>
@@ -10360,7 +10632,9 @@
       <c r="S27" s="12"/>
       <c r="T27" s="12"/>
       <c r="U27" s="25"/>
-      <c r="V27" s="11"/>
+      <c r="V27" s="11" t="s">
+        <v>61</v>
+      </c>
       <c r="W27" s="12"/>
       <c r="X27" s="12"/>
       <c r="Y27" s="12"/>
@@ -10377,28 +10651,38 @@
       <c r="AJ27" s="12"/>
       <c r="AK27" s="12"/>
       <c r="AL27" s="25"/>
-      <c r="AM27" s="34"/>
+      <c r="AM27" s="32" t="s">
+        <v>31</v>
+      </c>
       <c r="AN27" s="33"/>
       <c r="AO27" s="33"/>
       <c r="AP27" s="40"/>
-      <c r="AQ27" s="44"/>
+      <c r="AQ27" s="41">
+        <v>45155</v>
+      </c>
       <c r="AR27" s="33"/>
       <c r="AS27" s="33"/>
       <c r="AT27" s="40"/>
-      <c r="AU27" s="32"/>
+      <c r="AU27" s="32" t="s">
+        <v>12</v>
+      </c>
       <c r="AV27" s="33"/>
       <c r="AW27" s="33"/>
       <c r="AX27" s="40"/>
-      <c r="AY27" s="32"/>
-      <c r="AZ27" s="33"/>
-      <c r="BA27" s="33"/>
-      <c r="BB27" s="40"/>
+      <c r="AY27" s="16"/>
+      <c r="AZ27" s="17"/>
+      <c r="BA27" s="17"/>
+      <c r="BB27" s="18"/>
     </row>
     <row r="28" s="1" customFormat="1" ht="20.1" customHeight="1" spans="2:54">
-      <c r="B28" s="16"/>
+      <c r="B28" s="16">
+        <v>18</v>
+      </c>
       <c r="C28" s="17"/>
       <c r="D28" s="18"/>
-      <c r="E28" s="11"/>
+      <c r="E28" s="11" t="s">
+        <v>62</v>
+      </c>
       <c r="F28" s="12"/>
       <c r="G28" s="12"/>
       <c r="H28" s="12"/>
@@ -10415,7 +10699,9 @@
       <c r="S28" s="12"/>
       <c r="T28" s="12"/>
       <c r="U28" s="25"/>
-      <c r="V28" s="11"/>
+      <c r="V28" s="11" t="s">
+        <v>63</v>
+      </c>
       <c r="W28" s="12"/>
       <c r="X28" s="12"/>
       <c r="Y28" s="12"/>
@@ -10432,15 +10718,21 @@
       <c r="AJ28" s="12"/>
       <c r="AK28" s="12"/>
       <c r="AL28" s="25"/>
-      <c r="AM28" s="32"/>
+      <c r="AM28" s="32" t="s">
+        <v>31</v>
+      </c>
       <c r="AN28" s="33"/>
       <c r="AO28" s="33"/>
       <c r="AP28" s="40"/>
-      <c r="AQ28" s="41"/>
+      <c r="AQ28" s="41">
+        <v>45155</v>
+      </c>
       <c r="AR28" s="33"/>
       <c r="AS28" s="33"/>
       <c r="AT28" s="40"/>
-      <c r="AU28" s="32"/>
+      <c r="AU28" s="32" t="s">
+        <v>12</v>
+      </c>
       <c r="AV28" s="33"/>
       <c r="AW28" s="33"/>
       <c r="AX28" s="40"/>
@@ -10450,10 +10742,14 @@
       <c r="BB28" s="40"/>
     </row>
     <row r="29" s="1" customFormat="1" ht="20.1" customHeight="1" spans="2:54">
-      <c r="B29" s="16"/>
+      <c r="B29" s="16">
+        <v>19</v>
+      </c>
       <c r="C29" s="17"/>
       <c r="D29" s="18"/>
-      <c r="E29" s="11"/>
+      <c r="E29" s="11" t="s">
+        <v>64</v>
+      </c>
       <c r="F29" s="12"/>
       <c r="G29" s="12"/>
       <c r="H29" s="12"/>
@@ -10470,7 +10766,9 @@
       <c r="S29" s="12"/>
       <c r="T29" s="12"/>
       <c r="U29" s="25"/>
-      <c r="V29" s="11"/>
+      <c r="V29" s="11" t="s">
+        <v>65</v>
+      </c>
       <c r="W29" s="12"/>
       <c r="X29" s="12"/>
       <c r="Y29" s="12"/>
@@ -10487,15 +10785,21 @@
       <c r="AJ29" s="12"/>
       <c r="AK29" s="12"/>
       <c r="AL29" s="25"/>
-      <c r="AM29" s="32"/>
+      <c r="AM29" s="32" t="s">
+        <v>31</v>
+      </c>
       <c r="AN29" s="33"/>
       <c r="AO29" s="33"/>
       <c r="AP29" s="40"/>
-      <c r="AQ29" s="41"/>
+      <c r="AQ29" s="41">
+        <v>45155</v>
+      </c>
       <c r="AR29" s="33"/>
       <c r="AS29" s="33"/>
       <c r="AT29" s="40"/>
-      <c r="AU29" s="32"/>
+      <c r="AU29" s="32" t="s">
+        <v>12</v>
+      </c>
       <c r="AV29" s="33"/>
       <c r="AW29" s="33"/>
       <c r="AX29" s="40"/>
@@ -10505,10 +10809,14 @@
       <c r="BB29" s="40"/>
     </row>
     <row r="30" s="1" customFormat="1" ht="20.1" customHeight="1" spans="2:54">
-      <c r="B30" s="16"/>
+      <c r="B30" s="16">
+        <v>20</v>
+      </c>
       <c r="C30" s="17"/>
       <c r="D30" s="18"/>
-      <c r="E30" s="11"/>
+      <c r="E30" s="11" t="s">
+        <v>66</v>
+      </c>
       <c r="F30" s="12"/>
       <c r="G30" s="12"/>
       <c r="H30" s="12"/>
@@ -10525,7 +10833,9 @@
       <c r="S30" s="12"/>
       <c r="T30" s="12"/>
       <c r="U30" s="25"/>
-      <c r="V30" s="11"/>
+      <c r="V30" s="11" t="s">
+        <v>67</v>
+      </c>
       <c r="W30" s="12"/>
       <c r="X30" s="12"/>
       <c r="Y30" s="12"/>
@@ -10542,15 +10852,21 @@
       <c r="AJ30" s="12"/>
       <c r="AK30" s="12"/>
       <c r="AL30" s="25"/>
-      <c r="AM30" s="32"/>
+      <c r="AM30" s="32" t="s">
+        <v>31</v>
+      </c>
       <c r="AN30" s="33"/>
       <c r="AO30" s="33"/>
       <c r="AP30" s="40"/>
-      <c r="AQ30" s="41"/>
+      <c r="AQ30" s="41">
+        <v>45155</v>
+      </c>
       <c r="AR30" s="33"/>
       <c r="AS30" s="33"/>
       <c r="AT30" s="40"/>
-      <c r="AU30" s="32"/>
+      <c r="AU30" s="32" t="s">
+        <v>12</v>
+      </c>
       <c r="AV30" s="33"/>
       <c r="AW30" s="33"/>
       <c r="AX30" s="40"/>
@@ -10560,7 +10876,9 @@
       <c r="BB30" s="40"/>
     </row>
     <row r="31" s="1" customFormat="1" ht="20.1" customHeight="1" spans="2:54">
-      <c r="B31" s="19"/>
+      <c r="B31" s="11" t="s">
+        <v>68</v>
+      </c>
       <c r="C31" s="12"/>
       <c r="D31" s="12"/>
       <c r="E31" s="12"/>
@@ -10615,10 +10933,14 @@
       <c r="BB31" s="25"/>
     </row>
     <row r="32" s="1" customFormat="1" ht="20.1" customHeight="1" spans="2:54">
-      <c r="B32" s="16"/>
+      <c r="B32" s="16">
+        <v>21</v>
+      </c>
       <c r="C32" s="17"/>
       <c r="D32" s="18"/>
-      <c r="E32" s="11"/>
+      <c r="E32" s="11" t="s">
+        <v>69</v>
+      </c>
       <c r="F32" s="12"/>
       <c r="G32" s="12"/>
       <c r="H32" s="12"/>
@@ -10635,7 +10957,9 @@
       <c r="S32" s="12"/>
       <c r="T32" s="12"/>
       <c r="U32" s="25"/>
-      <c r="V32" s="11"/>
+      <c r="V32" s="11" t="s">
+        <v>48</v>
+      </c>
       <c r="W32" s="12"/>
       <c r="X32" s="12"/>
       <c r="Y32" s="12"/>
@@ -10652,15 +10976,21 @@
       <c r="AJ32" s="12"/>
       <c r="AK32" s="12"/>
       <c r="AL32" s="25"/>
-      <c r="AM32" s="32"/>
+      <c r="AM32" s="32" t="s">
+        <v>31</v>
+      </c>
       <c r="AN32" s="33"/>
       <c r="AO32" s="33"/>
       <c r="AP32" s="40"/>
-      <c r="AQ32" s="41"/>
+      <c r="AQ32" s="41">
+        <v>45155</v>
+      </c>
       <c r="AR32" s="33"/>
       <c r="AS32" s="33"/>
       <c r="AT32" s="40"/>
-      <c r="AU32" s="32"/>
+      <c r="AU32" s="32" t="s">
+        <v>12</v>
+      </c>
       <c r="AV32" s="33"/>
       <c r="AW32" s="33"/>
       <c r="AX32" s="40"/>
@@ -10670,10 +11000,14 @@
       <c r="BB32" s="40"/>
     </row>
     <row r="33" s="1" customFormat="1" ht="20.1" customHeight="1" spans="2:54">
-      <c r="B33" s="16"/>
+      <c r="B33" s="16">
+        <v>22</v>
+      </c>
       <c r="C33" s="17"/>
       <c r="D33" s="18"/>
-      <c r="E33" s="11"/>
+      <c r="E33" s="11" t="s">
+        <v>70</v>
+      </c>
       <c r="F33" s="12"/>
       <c r="G33" s="12"/>
       <c r="H33" s="12"/>
@@ -10690,7 +11024,9 @@
       <c r="S33" s="12"/>
       <c r="T33" s="12"/>
       <c r="U33" s="25"/>
-      <c r="V33" s="11"/>
+      <c r="V33" s="11" t="s">
+        <v>71</v>
+      </c>
       <c r="W33" s="12"/>
       <c r="X33" s="12"/>
       <c r="Y33" s="12"/>
@@ -10707,15 +11043,21 @@
       <c r="AJ33" s="12"/>
       <c r="AK33" s="12"/>
       <c r="AL33" s="25"/>
-      <c r="AM33" s="32"/>
+      <c r="AM33" s="32" t="s">
+        <v>31</v>
+      </c>
       <c r="AN33" s="33"/>
       <c r="AO33" s="33"/>
       <c r="AP33" s="40"/>
-      <c r="AQ33" s="41"/>
+      <c r="AQ33" s="41">
+        <v>45155</v>
+      </c>
       <c r="AR33" s="33"/>
       <c r="AS33" s="33"/>
       <c r="AT33" s="40"/>
-      <c r="AU33" s="32"/>
+      <c r="AU33" s="32" t="s">
+        <v>12</v>
+      </c>
       <c r="AV33" s="33"/>
       <c r="AW33" s="33"/>
       <c r="AX33" s="40"/>
@@ -10725,10 +11067,14 @@
       <c r="BB33" s="40"/>
     </row>
     <row r="34" s="1" customFormat="1" ht="20.1" customHeight="1" spans="2:54">
-      <c r="B34" s="16"/>
+      <c r="B34" s="16">
+        <v>23</v>
+      </c>
       <c r="C34" s="17"/>
       <c r="D34" s="18"/>
-      <c r="E34" s="11"/>
+      <c r="E34" s="11" t="s">
+        <v>72</v>
+      </c>
       <c r="F34" s="12"/>
       <c r="G34" s="12"/>
       <c r="H34" s="12"/>
@@ -10745,7 +11091,9 @@
       <c r="S34" s="12"/>
       <c r="T34" s="12"/>
       <c r="U34" s="25"/>
-      <c r="V34" s="11"/>
+      <c r="V34" s="11" t="s">
+        <v>73</v>
+      </c>
       <c r="W34" s="12"/>
       <c r="X34" s="12"/>
       <c r="Y34" s="12"/>
@@ -10762,15 +11110,21 @@
       <c r="AJ34" s="12"/>
       <c r="AK34" s="12"/>
       <c r="AL34" s="25"/>
-      <c r="AM34" s="32"/>
+      <c r="AM34" s="32" t="s">
+        <v>31</v>
+      </c>
       <c r="AN34" s="33"/>
       <c r="AO34" s="33"/>
       <c r="AP34" s="40"/>
-      <c r="AQ34" s="41"/>
+      <c r="AQ34" s="41">
+        <v>45155</v>
+      </c>
       <c r="AR34" s="33"/>
       <c r="AS34" s="33"/>
       <c r="AT34" s="40"/>
-      <c r="AU34" s="32"/>
+      <c r="AU34" s="32" t="s">
+        <v>12</v>
+      </c>
       <c r="AV34" s="33"/>
       <c r="AW34" s="33"/>
       <c r="AX34" s="40"/>
@@ -10780,10 +11134,10 @@
       <c r="BB34" s="40"/>
     </row>
     <row r="35" s="1" customFormat="1" ht="20.1" customHeight="1" spans="2:54">
-      <c r="B35" s="16"/>
-      <c r="C35" s="17"/>
-      <c r="D35" s="18"/>
-      <c r="E35" s="11"/>
+      <c r="B35" s="20"/>
+      <c r="C35" s="12"/>
+      <c r="D35" s="12"/>
+      <c r="E35" s="12"/>
       <c r="F35" s="12"/>
       <c r="G35" s="12"/>
       <c r="H35" s="12"/>
@@ -10799,8 +11153,8 @@
       <c r="R35" s="12"/>
       <c r="S35" s="12"/>
       <c r="T35" s="12"/>
-      <c r="U35" s="25"/>
-      <c r="V35" s="11"/>
+      <c r="U35" s="12"/>
+      <c r="V35" s="12"/>
       <c r="W35" s="12"/>
       <c r="X35" s="12"/>
       <c r="Y35" s="12"/>
@@ -10816,29 +11170,29 @@
       <c r="AI35" s="12"/>
       <c r="AJ35" s="12"/>
       <c r="AK35" s="12"/>
-      <c r="AL35" s="25"/>
-      <c r="AM35" s="16"/>
-      <c r="AN35" s="17"/>
-      <c r="AO35" s="17"/>
-      <c r="AP35" s="18"/>
-      <c r="AQ35" s="16"/>
-      <c r="AR35" s="17"/>
-      <c r="AS35" s="17"/>
-      <c r="AT35" s="18"/>
-      <c r="AU35" s="16"/>
-      <c r="AV35" s="17"/>
-      <c r="AW35" s="17"/>
-      <c r="AX35" s="18"/>
-      <c r="AY35" s="16"/>
-      <c r="AZ35" s="17"/>
-      <c r="BA35" s="17"/>
-      <c r="BB35" s="18"/>
+      <c r="AL35" s="12"/>
+      <c r="AM35" s="12"/>
+      <c r="AN35" s="12"/>
+      <c r="AO35" s="12"/>
+      <c r="AP35" s="12"/>
+      <c r="AQ35" s="12"/>
+      <c r="AR35" s="12"/>
+      <c r="AS35" s="12"/>
+      <c r="AT35" s="12"/>
+      <c r="AU35" s="12"/>
+      <c r="AV35" s="12"/>
+      <c r="AW35" s="12"/>
+      <c r="AX35" s="12"/>
+      <c r="AY35" s="12"/>
+      <c r="AZ35" s="12"/>
+      <c r="BA35" s="12"/>
+      <c r="BB35" s="25"/>
     </row>
     <row r="36" s="1" customFormat="1" ht="20.1" customHeight="1" spans="2:54">
-      <c r="B36" s="19"/>
-      <c r="C36" s="12"/>
-      <c r="D36" s="12"/>
-      <c r="E36" s="12"/>
+      <c r="B36" s="16"/>
+      <c r="C36" s="17"/>
+      <c r="D36" s="18"/>
+      <c r="E36" s="11"/>
       <c r="F36" s="12"/>
       <c r="G36" s="12"/>
       <c r="H36" s="12"/>
@@ -10854,8 +11208,8 @@
       <c r="R36" s="12"/>
       <c r="S36" s="12"/>
       <c r="T36" s="12"/>
-      <c r="U36" s="12"/>
-      <c r="V36" s="12"/>
+      <c r="U36" s="25"/>
+      <c r="V36" s="11"/>
       <c r="W36" s="12"/>
       <c r="X36" s="12"/>
       <c r="Y36" s="12"/>
@@ -10871,23 +11225,23 @@
       <c r="AI36" s="12"/>
       <c r="AJ36" s="12"/>
       <c r="AK36" s="12"/>
-      <c r="AL36" s="12"/>
-      <c r="AM36" s="12"/>
-      <c r="AN36" s="12"/>
-      <c r="AO36" s="12"/>
-      <c r="AP36" s="12"/>
-      <c r="AQ36" s="12"/>
-      <c r="AR36" s="12"/>
-      <c r="AS36" s="12"/>
-      <c r="AT36" s="12"/>
-      <c r="AU36" s="12"/>
-      <c r="AV36" s="12"/>
-      <c r="AW36" s="12"/>
-      <c r="AX36" s="12"/>
-      <c r="AY36" s="12"/>
-      <c r="AZ36" s="12"/>
-      <c r="BA36" s="12"/>
-      <c r="BB36" s="25"/>
+      <c r="AL36" s="25"/>
+      <c r="AM36" s="32"/>
+      <c r="AN36" s="33"/>
+      <c r="AO36" s="33"/>
+      <c r="AP36" s="40"/>
+      <c r="AQ36" s="41"/>
+      <c r="AR36" s="33"/>
+      <c r="AS36" s="33"/>
+      <c r="AT36" s="40"/>
+      <c r="AU36" s="32"/>
+      <c r="AV36" s="33"/>
+      <c r="AW36" s="33"/>
+      <c r="AX36" s="40"/>
+      <c r="AY36" s="32"/>
+      <c r="AZ36" s="33"/>
+      <c r="BA36" s="33"/>
+      <c r="BB36" s="40"/>
     </row>
     <row r="37" s="1" customFormat="1" ht="20.1" customHeight="1" spans="2:54">
       <c r="B37" s="16"/>
@@ -11037,28 +11391,28 @@
       <c r="AJ39" s="12"/>
       <c r="AK39" s="12"/>
       <c r="AL39" s="25"/>
-      <c r="AM39" s="32"/>
-      <c r="AN39" s="33"/>
-      <c r="AO39" s="33"/>
-      <c r="AP39" s="40"/>
-      <c r="AQ39" s="41"/>
-      <c r="AR39" s="33"/>
-      <c r="AS39" s="33"/>
-      <c r="AT39" s="40"/>
-      <c r="AU39" s="32"/>
-      <c r="AV39" s="33"/>
-      <c r="AW39" s="33"/>
-      <c r="AX39" s="40"/>
-      <c r="AY39" s="32"/>
-      <c r="AZ39" s="33"/>
-      <c r="BA39" s="33"/>
-      <c r="BB39" s="40"/>
+      <c r="AM39" s="16"/>
+      <c r="AN39" s="17"/>
+      <c r="AO39" s="17"/>
+      <c r="AP39" s="18"/>
+      <c r="AQ39" s="16"/>
+      <c r="AR39" s="17"/>
+      <c r="AS39" s="17"/>
+      <c r="AT39" s="18"/>
+      <c r="AU39" s="16"/>
+      <c r="AV39" s="17"/>
+      <c r="AW39" s="17"/>
+      <c r="AX39" s="18"/>
+      <c r="AY39" s="16"/>
+      <c r="AZ39" s="17"/>
+      <c r="BA39" s="17"/>
+      <c r="BB39" s="18"/>
     </row>
     <row r="40" s="1" customFormat="1" ht="20.1" customHeight="1" spans="2:54">
-      <c r="B40" s="16"/>
-      <c r="C40" s="17"/>
-      <c r="D40" s="18"/>
-      <c r="E40" s="11"/>
+      <c r="B40" s="20"/>
+      <c r="C40" s="12"/>
+      <c r="D40" s="12"/>
+      <c r="E40" s="12"/>
       <c r="F40" s="12"/>
       <c r="G40" s="12"/>
       <c r="H40" s="12"/>
@@ -11074,8 +11428,8 @@
       <c r="R40" s="12"/>
       <c r="S40" s="12"/>
       <c r="T40" s="12"/>
-      <c r="U40" s="25"/>
-      <c r="V40" s="11"/>
+      <c r="U40" s="12"/>
+      <c r="V40" s="12"/>
       <c r="W40" s="12"/>
       <c r="X40" s="12"/>
       <c r="Y40" s="12"/>
@@ -11091,23 +11445,23 @@
       <c r="AI40" s="12"/>
       <c r="AJ40" s="12"/>
       <c r="AK40" s="12"/>
-      <c r="AL40" s="25"/>
-      <c r="AM40" s="32"/>
-      <c r="AN40" s="33"/>
-      <c r="AO40" s="33"/>
-      <c r="AP40" s="40"/>
-      <c r="AQ40" s="41"/>
-      <c r="AR40" s="33"/>
-      <c r="AS40" s="33"/>
-      <c r="AT40" s="40"/>
-      <c r="AU40" s="32"/>
-      <c r="AV40" s="33"/>
-      <c r="AW40" s="33"/>
-      <c r="AX40" s="40"/>
-      <c r="AY40" s="32"/>
-      <c r="AZ40" s="33"/>
-      <c r="BA40" s="33"/>
-      <c r="BB40" s="40"/>
+      <c r="AL40" s="12"/>
+      <c r="AM40" s="12"/>
+      <c r="AN40" s="12"/>
+      <c r="AO40" s="12"/>
+      <c r="AP40" s="12"/>
+      <c r="AQ40" s="12"/>
+      <c r="AR40" s="12"/>
+      <c r="AS40" s="12"/>
+      <c r="AT40" s="12"/>
+      <c r="AU40" s="12"/>
+      <c r="AV40" s="12"/>
+      <c r="AW40" s="12"/>
+      <c r="AX40" s="12"/>
+      <c r="AY40" s="12"/>
+      <c r="AZ40" s="12"/>
+      <c r="BA40" s="12"/>
+      <c r="BB40" s="25"/>
     </row>
     <row r="41" s="1" customFormat="1" ht="20.1" customHeight="1" spans="2:54">
       <c r="B41" s="16"/>
@@ -11147,77 +11501,77 @@
       <c r="AJ41" s="12"/>
       <c r="AK41" s="12"/>
       <c r="AL41" s="25"/>
-      <c r="AM41" s="16"/>
-      <c r="AN41" s="17"/>
-      <c r="AO41" s="17"/>
-      <c r="AP41" s="18"/>
-      <c r="AQ41" s="16"/>
-      <c r="AR41" s="17"/>
-      <c r="AS41" s="17"/>
-      <c r="AT41" s="18"/>
-      <c r="AU41" s="16"/>
-      <c r="AV41" s="17"/>
-      <c r="AW41" s="17"/>
-      <c r="AX41" s="18"/>
-      <c r="AY41" s="16"/>
-      <c r="AZ41" s="17"/>
-      <c r="BA41" s="17"/>
-      <c r="BB41" s="18"/>
+      <c r="AM41" s="32"/>
+      <c r="AN41" s="33"/>
+      <c r="AO41" s="33"/>
+      <c r="AP41" s="40"/>
+      <c r="AQ41" s="41"/>
+      <c r="AR41" s="33"/>
+      <c r="AS41" s="33"/>
+      <c r="AT41" s="40"/>
+      <c r="AU41" s="32"/>
+      <c r="AV41" s="33"/>
+      <c r="AW41" s="33"/>
+      <c r="AX41" s="40"/>
+      <c r="AY41" s="32"/>
+      <c r="AZ41" s="33"/>
+      <c r="BA41" s="33"/>
+      <c r="BB41" s="40"/>
     </row>
     <row r="42" s="1" customFormat="1" ht="20.1" customHeight="1" spans="2:54">
-      <c r="B42" s="21"/>
-      <c r="C42" s="20"/>
-      <c r="D42" s="20"/>
-      <c r="E42" s="20"/>
-      <c r="F42" s="20"/>
-      <c r="G42" s="20"/>
-      <c r="H42" s="20"/>
-      <c r="I42" s="20"/>
-      <c r="J42" s="20"/>
-      <c r="K42" s="20"/>
-      <c r="L42" s="20"/>
-      <c r="M42" s="20"/>
-      <c r="N42" s="20"/>
-      <c r="O42" s="20"/>
-      <c r="P42" s="20"/>
-      <c r="Q42" s="20"/>
-      <c r="R42" s="20"/>
-      <c r="S42" s="20"/>
-      <c r="T42" s="20"/>
-      <c r="U42" s="20"/>
-      <c r="V42" s="20"/>
-      <c r="W42" s="20"/>
-      <c r="X42" s="20"/>
-      <c r="Y42" s="20"/>
-      <c r="Z42" s="20"/>
-      <c r="AA42" s="20"/>
-      <c r="AB42" s="20"/>
-      <c r="AC42" s="20"/>
-      <c r="AD42" s="20"/>
-      <c r="AE42" s="20"/>
-      <c r="AF42" s="20"/>
-      <c r="AG42" s="20"/>
-      <c r="AH42" s="20"/>
-      <c r="AI42" s="20"/>
-      <c r="AJ42" s="20"/>
-      <c r="AK42" s="20"/>
-      <c r="AL42" s="20"/>
-      <c r="AM42" s="20"/>
-      <c r="AN42" s="20"/>
-      <c r="AO42" s="20"/>
-      <c r="AP42" s="20"/>
-      <c r="AQ42" s="20"/>
-      <c r="AR42" s="20"/>
-      <c r="AS42" s="20"/>
-      <c r="AT42" s="20"/>
-      <c r="AU42" s="20"/>
-      <c r="AV42" s="20"/>
-      <c r="AW42" s="20"/>
-      <c r="AX42" s="20"/>
-      <c r="AY42" s="20"/>
-      <c r="AZ42" s="20"/>
-      <c r="BA42" s="20"/>
-      <c r="BB42" s="50"/>
+      <c r="B42" s="16"/>
+      <c r="C42" s="17"/>
+      <c r="D42" s="18"/>
+      <c r="E42" s="11"/>
+      <c r="F42" s="12"/>
+      <c r="G42" s="12"/>
+      <c r="H42" s="12"/>
+      <c r="I42" s="12"/>
+      <c r="J42" s="12"/>
+      <c r="K42" s="12"/>
+      <c r="L42" s="12"/>
+      <c r="M42" s="12"/>
+      <c r="N42" s="12"/>
+      <c r="O42" s="12"/>
+      <c r="P42" s="12"/>
+      <c r="Q42" s="12"/>
+      <c r="R42" s="12"/>
+      <c r="S42" s="12"/>
+      <c r="T42" s="12"/>
+      <c r="U42" s="25"/>
+      <c r="V42" s="11"/>
+      <c r="W42" s="12"/>
+      <c r="X42" s="12"/>
+      <c r="Y42" s="12"/>
+      <c r="Z42" s="12"/>
+      <c r="AA42" s="12"/>
+      <c r="AB42" s="12"/>
+      <c r="AC42" s="12"/>
+      <c r="AD42" s="12"/>
+      <c r="AE42" s="12"/>
+      <c r="AF42" s="12"/>
+      <c r="AG42" s="12"/>
+      <c r="AH42" s="12"/>
+      <c r="AI42" s="12"/>
+      <c r="AJ42" s="12"/>
+      <c r="AK42" s="12"/>
+      <c r="AL42" s="25"/>
+      <c r="AM42" s="32"/>
+      <c r="AN42" s="33"/>
+      <c r="AO42" s="33"/>
+      <c r="AP42" s="40"/>
+      <c r="AQ42" s="41"/>
+      <c r="AR42" s="33"/>
+      <c r="AS42" s="33"/>
+      <c r="AT42" s="40"/>
+      <c r="AU42" s="32"/>
+      <c r="AV42" s="33"/>
+      <c r="AW42" s="33"/>
+      <c r="AX42" s="40"/>
+      <c r="AY42" s="32"/>
+      <c r="AZ42" s="33"/>
+      <c r="BA42" s="33"/>
+      <c r="BB42" s="40"/>
     </row>
     <row r="43" s="1" customFormat="1" ht="20.1" customHeight="1" spans="2:54">
       <c r="B43" s="16"/>
@@ -11312,11 +11666,11 @@
       <c r="AJ44" s="12"/>
       <c r="AK44" s="12"/>
       <c r="AL44" s="25"/>
-      <c r="AM44" s="34"/>
+      <c r="AM44" s="32"/>
       <c r="AN44" s="33"/>
       <c r="AO44" s="33"/>
       <c r="AP44" s="40"/>
-      <c r="AQ44" s="44"/>
+      <c r="AQ44" s="41"/>
       <c r="AR44" s="33"/>
       <c r="AS44" s="33"/>
       <c r="AT44" s="40"/>
@@ -11367,116 +11721,116 @@
       <c r="AJ45" s="12"/>
       <c r="AK45" s="12"/>
       <c r="AL45" s="25"/>
-      <c r="AM45" s="32"/>
-      <c r="AN45" s="33"/>
-      <c r="AO45" s="33"/>
-      <c r="AP45" s="40"/>
-      <c r="AQ45" s="41"/>
-      <c r="AR45" s="33"/>
-      <c r="AS45" s="33"/>
-      <c r="AT45" s="40"/>
-      <c r="AU45" s="32"/>
-      <c r="AV45" s="33"/>
-      <c r="AW45" s="33"/>
-      <c r="AX45" s="40"/>
-      <c r="AY45" s="32"/>
-      <c r="AZ45" s="33"/>
-      <c r="BA45" s="33"/>
-      <c r="BB45" s="40"/>
+      <c r="AM45" s="16"/>
+      <c r="AN45" s="17"/>
+      <c r="AO45" s="17"/>
+      <c r="AP45" s="18"/>
+      <c r="AQ45" s="16"/>
+      <c r="AR45" s="17"/>
+      <c r="AS45" s="17"/>
+      <c r="AT45" s="18"/>
+      <c r="AU45" s="16"/>
+      <c r="AV45" s="17"/>
+      <c r="AW45" s="17"/>
+      <c r="AX45" s="18"/>
+      <c r="AY45" s="16"/>
+      <c r="AZ45" s="17"/>
+      <c r="BA45" s="17"/>
+      <c r="BB45" s="18"/>
     </row>
     <row r="46" s="1" customFormat="1" ht="20.1" customHeight="1" spans="2:54">
-      <c r="B46" s="16"/>
-      <c r="C46" s="17"/>
-      <c r="D46" s="18"/>
+      <c r="B46" s="21"/>
+      <c r="C46" s="19"/>
+      <c r="D46" s="19"/>
       <c r="E46" s="19"/>
-      <c r="F46" s="22"/>
-      <c r="G46" s="22"/>
-      <c r="H46" s="22"/>
-      <c r="I46" s="22"/>
-      <c r="J46" s="22"/>
-      <c r="K46" s="22"/>
-      <c r="L46" s="22"/>
-      <c r="M46" s="22"/>
-      <c r="N46" s="22"/>
-      <c r="O46" s="22"/>
-      <c r="P46" s="22"/>
-      <c r="Q46" s="22"/>
-      <c r="R46" s="22"/>
-      <c r="S46" s="22"/>
-      <c r="T46" s="22"/>
-      <c r="U46" s="26"/>
-      <c r="V46" s="27"/>
-      <c r="W46" s="28"/>
-      <c r="X46" s="28"/>
-      <c r="Y46" s="28"/>
-      <c r="Z46" s="28"/>
-      <c r="AA46" s="28"/>
-      <c r="AB46" s="28"/>
-      <c r="AC46" s="28"/>
-      <c r="AD46" s="28"/>
-      <c r="AE46" s="28"/>
-      <c r="AF46" s="28"/>
-      <c r="AG46" s="28"/>
-      <c r="AH46" s="28"/>
-      <c r="AI46" s="28"/>
-      <c r="AJ46" s="28"/>
-      <c r="AK46" s="28"/>
-      <c r="AL46" s="35"/>
-      <c r="AM46" s="32"/>
-      <c r="AN46" s="33"/>
-      <c r="AO46" s="33"/>
-      <c r="AP46" s="40"/>
-      <c r="AQ46" s="41"/>
-      <c r="AR46" s="33"/>
-      <c r="AS46" s="33"/>
-      <c r="AT46" s="40"/>
-      <c r="AU46" s="32"/>
-      <c r="AV46" s="33"/>
-      <c r="AW46" s="33"/>
-      <c r="AX46" s="40"/>
-      <c r="AY46" s="32"/>
-      <c r="AZ46" s="33"/>
-      <c r="BA46" s="33"/>
-      <c r="BB46" s="40"/>
+      <c r="F46" s="19"/>
+      <c r="G46" s="19"/>
+      <c r="H46" s="19"/>
+      <c r="I46" s="19"/>
+      <c r="J46" s="19"/>
+      <c r="K46" s="19"/>
+      <c r="L46" s="19"/>
+      <c r="M46" s="19"/>
+      <c r="N46" s="19"/>
+      <c r="O46" s="19"/>
+      <c r="P46" s="19"/>
+      <c r="Q46" s="19"/>
+      <c r="R46" s="19"/>
+      <c r="S46" s="19"/>
+      <c r="T46" s="19"/>
+      <c r="U46" s="19"/>
+      <c r="V46" s="19"/>
+      <c r="W46" s="19"/>
+      <c r="X46" s="19"/>
+      <c r="Y46" s="19"/>
+      <c r="Z46" s="19"/>
+      <c r="AA46" s="19"/>
+      <c r="AB46" s="19"/>
+      <c r="AC46" s="19"/>
+      <c r="AD46" s="19"/>
+      <c r="AE46" s="19"/>
+      <c r="AF46" s="19"/>
+      <c r="AG46" s="19"/>
+      <c r="AH46" s="19"/>
+      <c r="AI46" s="19"/>
+      <c r="AJ46" s="19"/>
+      <c r="AK46" s="19"/>
+      <c r="AL46" s="19"/>
+      <c r="AM46" s="19"/>
+      <c r="AN46" s="19"/>
+      <c r="AO46" s="19"/>
+      <c r="AP46" s="19"/>
+      <c r="AQ46" s="19"/>
+      <c r="AR46" s="19"/>
+      <c r="AS46" s="19"/>
+      <c r="AT46" s="19"/>
+      <c r="AU46" s="19"/>
+      <c r="AV46" s="19"/>
+      <c r="AW46" s="19"/>
+      <c r="AX46" s="19"/>
+      <c r="AY46" s="19"/>
+      <c r="AZ46" s="19"/>
+      <c r="BA46" s="19"/>
+      <c r="BB46" s="48"/>
     </row>
     <row r="47" s="1" customFormat="1" ht="20.1" customHeight="1" spans="2:54">
       <c r="B47" s="16"/>
       <c r="C47" s="17"/>
       <c r="D47" s="18"/>
-      <c r="E47" s="19"/>
-      <c r="F47" s="22"/>
-      <c r="G47" s="22"/>
-      <c r="H47" s="22"/>
-      <c r="I47" s="22"/>
-      <c r="J47" s="22"/>
-      <c r="K47" s="22"/>
-      <c r="L47" s="22"/>
-      <c r="M47" s="22"/>
-      <c r="N47" s="22"/>
-      <c r="O47" s="22"/>
-      <c r="P47" s="22"/>
-      <c r="Q47" s="22"/>
-      <c r="R47" s="22"/>
-      <c r="S47" s="22"/>
-      <c r="T47" s="22"/>
-      <c r="U47" s="26"/>
-      <c r="V47" s="19"/>
-      <c r="W47" s="22"/>
-      <c r="X47" s="22"/>
-      <c r="Y47" s="22"/>
-      <c r="Z47" s="22"/>
-      <c r="AA47" s="22"/>
-      <c r="AB47" s="22"/>
-      <c r="AC47" s="22"/>
-      <c r="AD47" s="22"/>
-      <c r="AE47" s="22"/>
-      <c r="AF47" s="22"/>
-      <c r="AG47" s="22"/>
-      <c r="AH47" s="22"/>
-      <c r="AI47" s="22"/>
-      <c r="AJ47" s="22"/>
-      <c r="AK47" s="22"/>
-      <c r="AL47" s="26"/>
+      <c r="E47" s="11"/>
+      <c r="F47" s="12"/>
+      <c r="G47" s="12"/>
+      <c r="H47" s="12"/>
+      <c r="I47" s="12"/>
+      <c r="J47" s="12"/>
+      <c r="K47" s="12"/>
+      <c r="L47" s="12"/>
+      <c r="M47" s="12"/>
+      <c r="N47" s="12"/>
+      <c r="O47" s="12"/>
+      <c r="P47" s="12"/>
+      <c r="Q47" s="12"/>
+      <c r="R47" s="12"/>
+      <c r="S47" s="12"/>
+      <c r="T47" s="12"/>
+      <c r="U47" s="25"/>
+      <c r="V47" s="11"/>
+      <c r="W47" s="12"/>
+      <c r="X47" s="12"/>
+      <c r="Y47" s="12"/>
+      <c r="Z47" s="12"/>
+      <c r="AA47" s="12"/>
+      <c r="AB47" s="12"/>
+      <c r="AC47" s="12"/>
+      <c r="AD47" s="12"/>
+      <c r="AE47" s="12"/>
+      <c r="AF47" s="12"/>
+      <c r="AG47" s="12"/>
+      <c r="AH47" s="12"/>
+      <c r="AI47" s="12"/>
+      <c r="AJ47" s="12"/>
+      <c r="AK47" s="12"/>
+      <c r="AL47" s="25"/>
       <c r="AM47" s="32"/>
       <c r="AN47" s="33"/>
       <c r="AO47" s="33"/>
@@ -11515,28 +11869,28 @@
       <c r="S48" s="12"/>
       <c r="T48" s="12"/>
       <c r="U48" s="25"/>
-      <c r="V48" s="19"/>
-      <c r="W48" s="22"/>
-      <c r="X48" s="22"/>
-      <c r="Y48" s="22"/>
-      <c r="Z48" s="22"/>
-      <c r="AA48" s="22"/>
-      <c r="AB48" s="22"/>
-      <c r="AC48" s="22"/>
-      <c r="AD48" s="22"/>
-      <c r="AE48" s="22"/>
-      <c r="AF48" s="22"/>
-      <c r="AG48" s="22"/>
-      <c r="AH48" s="22"/>
-      <c r="AI48" s="22"/>
-      <c r="AJ48" s="22"/>
-      <c r="AK48" s="22"/>
-      <c r="AL48" s="26"/>
-      <c r="AM48" s="32"/>
+      <c r="V48" s="11"/>
+      <c r="W48" s="12"/>
+      <c r="X48" s="12"/>
+      <c r="Y48" s="12"/>
+      <c r="Z48" s="12"/>
+      <c r="AA48" s="12"/>
+      <c r="AB48" s="12"/>
+      <c r="AC48" s="12"/>
+      <c r="AD48" s="12"/>
+      <c r="AE48" s="12"/>
+      <c r="AF48" s="12"/>
+      <c r="AG48" s="12"/>
+      <c r="AH48" s="12"/>
+      <c r="AI48" s="12"/>
+      <c r="AJ48" s="12"/>
+      <c r="AK48" s="12"/>
+      <c r="AL48" s="25"/>
+      <c r="AM48" s="34"/>
       <c r="AN48" s="33"/>
       <c r="AO48" s="33"/>
       <c r="AP48" s="40"/>
-      <c r="AQ48" s="41"/>
+      <c r="AQ48" s="42"/>
       <c r="AR48" s="33"/>
       <c r="AS48" s="33"/>
       <c r="AT48" s="40"/>
@@ -11570,133 +11924,133 @@
       <c r="S49" s="12"/>
       <c r="T49" s="12"/>
       <c r="U49" s="25"/>
-      <c r="V49" s="19"/>
-      <c r="W49" s="22"/>
-      <c r="X49" s="22"/>
-      <c r="Y49" s="22"/>
-      <c r="Z49" s="22"/>
-      <c r="AA49" s="22"/>
-      <c r="AB49" s="22"/>
-      <c r="AC49" s="22"/>
-      <c r="AD49" s="22"/>
-      <c r="AE49" s="22"/>
-      <c r="AF49" s="22"/>
-      <c r="AG49" s="22"/>
-      <c r="AH49" s="22"/>
-      <c r="AI49" s="22"/>
-      <c r="AJ49" s="22"/>
-      <c r="AK49" s="22"/>
-      <c r="AL49" s="26"/>
-      <c r="AM49" s="16"/>
-      <c r="AN49" s="17"/>
-      <c r="AO49" s="17"/>
-      <c r="AP49" s="18"/>
-      <c r="AQ49" s="45"/>
-      <c r="AR49" s="17"/>
-      <c r="AS49" s="17"/>
-      <c r="AT49" s="18"/>
-      <c r="AU49" s="16"/>
-      <c r="AV49" s="17"/>
-      <c r="AW49" s="17"/>
-      <c r="AX49" s="18"/>
-      <c r="AY49" s="16"/>
-      <c r="AZ49" s="17"/>
-      <c r="BA49" s="17"/>
-      <c r="BB49" s="18"/>
+      <c r="V49" s="11"/>
+      <c r="W49" s="12"/>
+      <c r="X49" s="12"/>
+      <c r="Y49" s="12"/>
+      <c r="Z49" s="12"/>
+      <c r="AA49" s="12"/>
+      <c r="AB49" s="12"/>
+      <c r="AC49" s="12"/>
+      <c r="AD49" s="12"/>
+      <c r="AE49" s="12"/>
+      <c r="AF49" s="12"/>
+      <c r="AG49" s="12"/>
+      <c r="AH49" s="12"/>
+      <c r="AI49" s="12"/>
+      <c r="AJ49" s="12"/>
+      <c r="AK49" s="12"/>
+      <c r="AL49" s="25"/>
+      <c r="AM49" s="32"/>
+      <c r="AN49" s="33"/>
+      <c r="AO49" s="33"/>
+      <c r="AP49" s="40"/>
+      <c r="AQ49" s="41"/>
+      <c r="AR49" s="33"/>
+      <c r="AS49" s="33"/>
+      <c r="AT49" s="40"/>
+      <c r="AU49" s="32"/>
+      <c r="AV49" s="33"/>
+      <c r="AW49" s="33"/>
+      <c r="AX49" s="40"/>
+      <c r="AY49" s="32"/>
+      <c r="AZ49" s="33"/>
+      <c r="BA49" s="33"/>
+      <c r="BB49" s="40"/>
     </row>
     <row r="50" s="1" customFormat="1" ht="20.1" customHeight="1" spans="2:54">
-      <c r="B50" s="19"/>
-      <c r="C50" s="12"/>
-      <c r="D50" s="12"/>
-      <c r="E50" s="12"/>
-      <c r="F50" s="12"/>
-      <c r="G50" s="12"/>
-      <c r="H50" s="12"/>
-      <c r="I50" s="12"/>
-      <c r="J50" s="12"/>
-      <c r="K50" s="12"/>
-      <c r="L50" s="12"/>
-      <c r="M50" s="12"/>
-      <c r="N50" s="12"/>
-      <c r="O50" s="12"/>
-      <c r="P50" s="12"/>
-      <c r="Q50" s="12"/>
-      <c r="R50" s="12"/>
-      <c r="S50" s="12"/>
-      <c r="T50" s="12"/>
-      <c r="U50" s="12"/>
-      <c r="V50" s="12"/>
-      <c r="W50" s="12"/>
-      <c r="X50" s="12"/>
-      <c r="Y50" s="12"/>
-      <c r="Z50" s="12"/>
-      <c r="AA50" s="12"/>
-      <c r="AB50" s="12"/>
-      <c r="AC50" s="12"/>
-      <c r="AD50" s="12"/>
-      <c r="AE50" s="12"/>
-      <c r="AF50" s="12"/>
-      <c r="AG50" s="12"/>
-      <c r="AH50" s="12"/>
-      <c r="AI50" s="12"/>
-      <c r="AJ50" s="12"/>
-      <c r="AK50" s="12"/>
-      <c r="AL50" s="12"/>
-      <c r="AM50" s="12"/>
-      <c r="AN50" s="12"/>
-      <c r="AO50" s="12"/>
-      <c r="AP50" s="12"/>
-      <c r="AQ50" s="12"/>
-      <c r="AR50" s="12"/>
-      <c r="AS50" s="12"/>
-      <c r="AT50" s="12"/>
-      <c r="AU50" s="12"/>
-      <c r="AV50" s="12"/>
-      <c r="AW50" s="12"/>
-      <c r="AX50" s="12"/>
-      <c r="AY50" s="12"/>
-      <c r="AZ50" s="12"/>
-      <c r="BA50" s="12"/>
-      <c r="BB50" s="25"/>
+      <c r="B50" s="16"/>
+      <c r="C50" s="17"/>
+      <c r="D50" s="18"/>
+      <c r="E50" s="20"/>
+      <c r="F50" s="22"/>
+      <c r="G50" s="22"/>
+      <c r="H50" s="22"/>
+      <c r="I50" s="22"/>
+      <c r="J50" s="22"/>
+      <c r="K50" s="22"/>
+      <c r="L50" s="22"/>
+      <c r="M50" s="22"/>
+      <c r="N50" s="22"/>
+      <c r="O50" s="22"/>
+      <c r="P50" s="22"/>
+      <c r="Q50" s="22"/>
+      <c r="R50" s="22"/>
+      <c r="S50" s="22"/>
+      <c r="T50" s="22"/>
+      <c r="U50" s="26"/>
+      <c r="V50" s="27"/>
+      <c r="W50" s="28"/>
+      <c r="X50" s="28"/>
+      <c r="Y50" s="28"/>
+      <c r="Z50" s="28"/>
+      <c r="AA50" s="28"/>
+      <c r="AB50" s="28"/>
+      <c r="AC50" s="28"/>
+      <c r="AD50" s="28"/>
+      <c r="AE50" s="28"/>
+      <c r="AF50" s="28"/>
+      <c r="AG50" s="28"/>
+      <c r="AH50" s="28"/>
+      <c r="AI50" s="28"/>
+      <c r="AJ50" s="28"/>
+      <c r="AK50" s="28"/>
+      <c r="AL50" s="35"/>
+      <c r="AM50" s="32"/>
+      <c r="AN50" s="33"/>
+      <c r="AO50" s="33"/>
+      <c r="AP50" s="40"/>
+      <c r="AQ50" s="41"/>
+      <c r="AR50" s="33"/>
+      <c r="AS50" s="33"/>
+      <c r="AT50" s="40"/>
+      <c r="AU50" s="32"/>
+      <c r="AV50" s="33"/>
+      <c r="AW50" s="33"/>
+      <c r="AX50" s="40"/>
+      <c r="AY50" s="32"/>
+      <c r="AZ50" s="33"/>
+      <c r="BA50" s="33"/>
+      <c r="BB50" s="40"/>
     </row>
     <row r="51" s="1" customFormat="1" ht="20.1" customHeight="1" spans="2:54">
       <c r="B51" s="16"/>
       <c r="C51" s="17"/>
       <c r="D51" s="18"/>
-      <c r="E51" s="11"/>
-      <c r="F51" s="12"/>
-      <c r="G51" s="12"/>
-      <c r="H51" s="12"/>
-      <c r="I51" s="12"/>
-      <c r="J51" s="12"/>
-      <c r="K51" s="12"/>
-      <c r="L51" s="12"/>
-      <c r="M51" s="12"/>
-      <c r="N51" s="12"/>
-      <c r="O51" s="12"/>
-      <c r="P51" s="12"/>
-      <c r="Q51" s="12"/>
-      <c r="R51" s="12"/>
-      <c r="S51" s="12"/>
-      <c r="T51" s="12"/>
-      <c r="U51" s="25"/>
-      <c r="V51" s="11"/>
-      <c r="W51" s="12"/>
-      <c r="X51" s="12"/>
-      <c r="Y51" s="12"/>
-      <c r="Z51" s="12"/>
-      <c r="AA51" s="12"/>
-      <c r="AB51" s="12"/>
-      <c r="AC51" s="12"/>
-      <c r="AD51" s="12"/>
-      <c r="AE51" s="12"/>
-      <c r="AF51" s="12"/>
-      <c r="AG51" s="12"/>
-      <c r="AH51" s="12"/>
-      <c r="AI51" s="12"/>
-      <c r="AJ51" s="12"/>
-      <c r="AK51" s="12"/>
-      <c r="AL51" s="25"/>
+      <c r="E51" s="20"/>
+      <c r="F51" s="22"/>
+      <c r="G51" s="22"/>
+      <c r="H51" s="22"/>
+      <c r="I51" s="22"/>
+      <c r="J51" s="22"/>
+      <c r="K51" s="22"/>
+      <c r="L51" s="22"/>
+      <c r="M51" s="22"/>
+      <c r="N51" s="22"/>
+      <c r="O51" s="22"/>
+      <c r="P51" s="22"/>
+      <c r="Q51" s="22"/>
+      <c r="R51" s="22"/>
+      <c r="S51" s="22"/>
+      <c r="T51" s="22"/>
+      <c r="U51" s="26"/>
+      <c r="V51" s="20"/>
+      <c r="W51" s="22"/>
+      <c r="X51" s="22"/>
+      <c r="Y51" s="22"/>
+      <c r="Z51" s="22"/>
+      <c r="AA51" s="22"/>
+      <c r="AB51" s="22"/>
+      <c r="AC51" s="22"/>
+      <c r="AD51" s="22"/>
+      <c r="AE51" s="22"/>
+      <c r="AF51" s="22"/>
+      <c r="AG51" s="22"/>
+      <c r="AH51" s="22"/>
+      <c r="AI51" s="22"/>
+      <c r="AJ51" s="22"/>
+      <c r="AK51" s="22"/>
+      <c r="AL51" s="26"/>
       <c r="AM51" s="32"/>
       <c r="AN51" s="33"/>
       <c r="AO51" s="33"/>
@@ -11735,28 +12089,28 @@
       <c r="S52" s="12"/>
       <c r="T52" s="12"/>
       <c r="U52" s="25"/>
-      <c r="V52" s="11"/>
-      <c r="W52" s="12"/>
-      <c r="X52" s="12"/>
-      <c r="Y52" s="12"/>
-      <c r="Z52" s="12"/>
-      <c r="AA52" s="12"/>
-      <c r="AB52" s="12"/>
-      <c r="AC52" s="12"/>
-      <c r="AD52" s="12"/>
-      <c r="AE52" s="12"/>
-      <c r="AF52" s="12"/>
-      <c r="AG52" s="12"/>
-      <c r="AH52" s="12"/>
-      <c r="AI52" s="12"/>
-      <c r="AJ52" s="12"/>
-      <c r="AK52" s="12"/>
-      <c r="AL52" s="25"/>
-      <c r="AM52" s="34"/>
+      <c r="V52" s="20"/>
+      <c r="W52" s="22"/>
+      <c r="X52" s="22"/>
+      <c r="Y52" s="22"/>
+      <c r="Z52" s="22"/>
+      <c r="AA52" s="22"/>
+      <c r="AB52" s="22"/>
+      <c r="AC52" s="22"/>
+      <c r="AD52" s="22"/>
+      <c r="AE52" s="22"/>
+      <c r="AF52" s="22"/>
+      <c r="AG52" s="22"/>
+      <c r="AH52" s="22"/>
+      <c r="AI52" s="22"/>
+      <c r="AJ52" s="22"/>
+      <c r="AK52" s="22"/>
+      <c r="AL52" s="26"/>
+      <c r="AM52" s="32"/>
       <c r="AN52" s="33"/>
       <c r="AO52" s="33"/>
       <c r="AP52" s="40"/>
-      <c r="AQ52" s="44"/>
+      <c r="AQ52" s="41"/>
       <c r="AR52" s="33"/>
       <c r="AS52" s="33"/>
       <c r="AT52" s="40"/>
@@ -11790,28 +12144,28 @@
       <c r="S53" s="12"/>
       <c r="T53" s="12"/>
       <c r="U53" s="25"/>
-      <c r="V53" s="11"/>
-      <c r="W53" s="12"/>
-      <c r="X53" s="12"/>
-      <c r="Y53" s="12"/>
-      <c r="Z53" s="12"/>
-      <c r="AA53" s="12"/>
-      <c r="AB53" s="12"/>
-      <c r="AC53" s="12"/>
-      <c r="AD53" s="12"/>
-      <c r="AE53" s="12"/>
-      <c r="AF53" s="12"/>
-      <c r="AG53" s="12"/>
-      <c r="AH53" s="12"/>
-      <c r="AI53" s="12"/>
-      <c r="AJ53" s="12"/>
-      <c r="AK53" s="12"/>
-      <c r="AL53" s="25"/>
+      <c r="V53" s="20"/>
+      <c r="W53" s="22"/>
+      <c r="X53" s="22"/>
+      <c r="Y53" s="22"/>
+      <c r="Z53" s="22"/>
+      <c r="AA53" s="22"/>
+      <c r="AB53" s="22"/>
+      <c r="AC53" s="22"/>
+      <c r="AD53" s="22"/>
+      <c r="AE53" s="22"/>
+      <c r="AF53" s="22"/>
+      <c r="AG53" s="22"/>
+      <c r="AH53" s="22"/>
+      <c r="AI53" s="22"/>
+      <c r="AJ53" s="22"/>
+      <c r="AK53" s="22"/>
+      <c r="AL53" s="26"/>
       <c r="AM53" s="16"/>
       <c r="AN53" s="17"/>
       <c r="AO53" s="17"/>
       <c r="AP53" s="18"/>
-      <c r="AQ53" s="45"/>
+      <c r="AQ53" s="43"/>
       <c r="AR53" s="17"/>
       <c r="AS53" s="17"/>
       <c r="AT53" s="18"/>
@@ -11825,7 +12179,7 @@
       <c r="BB53" s="18"/>
     </row>
     <row r="54" s="1" customFormat="1" ht="20.1" customHeight="1" spans="2:54">
-      <c r="B54" s="11"/>
+      <c r="B54" s="20"/>
       <c r="C54" s="12"/>
       <c r="D54" s="12"/>
       <c r="E54" s="12"/>
@@ -11917,11 +12271,11 @@
       <c r="AJ55" s="12"/>
       <c r="AK55" s="12"/>
       <c r="AL55" s="25"/>
-      <c r="AM55" s="34"/>
+      <c r="AM55" s="32"/>
       <c r="AN55" s="33"/>
       <c r="AO55" s="33"/>
       <c r="AP55" s="40"/>
-      <c r="AQ55" s="44"/>
+      <c r="AQ55" s="41"/>
       <c r="AR55" s="33"/>
       <c r="AS55" s="33"/>
       <c r="AT55" s="40"/>
@@ -11972,11 +12326,11 @@
       <c r="AJ56" s="12"/>
       <c r="AK56" s="12"/>
       <c r="AL56" s="25"/>
-      <c r="AM56" s="32"/>
+      <c r="AM56" s="34"/>
       <c r="AN56" s="33"/>
       <c r="AO56" s="33"/>
       <c r="AP56" s="40"/>
-      <c r="AQ56" s="41"/>
+      <c r="AQ56" s="42"/>
       <c r="AR56" s="33"/>
       <c r="AS56" s="33"/>
       <c r="AT56" s="40"/>
@@ -12027,28 +12381,28 @@
       <c r="AJ57" s="12"/>
       <c r="AK57" s="12"/>
       <c r="AL57" s="25"/>
-      <c r="AM57" s="32"/>
-      <c r="AN57" s="33"/>
-      <c r="AO57" s="33"/>
-      <c r="AP57" s="40"/>
-      <c r="AQ57" s="41"/>
-      <c r="AR57" s="33"/>
-      <c r="AS57" s="33"/>
-      <c r="AT57" s="40"/>
-      <c r="AU57" s="32"/>
-      <c r="AV57" s="33"/>
-      <c r="AW57" s="33"/>
-      <c r="AX57" s="40"/>
-      <c r="AY57" s="32"/>
-      <c r="AZ57" s="33"/>
-      <c r="BA57" s="33"/>
-      <c r="BB57" s="40"/>
+      <c r="AM57" s="16"/>
+      <c r="AN57" s="17"/>
+      <c r="AO57" s="17"/>
+      <c r="AP57" s="18"/>
+      <c r="AQ57" s="43"/>
+      <c r="AR57" s="17"/>
+      <c r="AS57" s="17"/>
+      <c r="AT57" s="18"/>
+      <c r="AU57" s="16"/>
+      <c r="AV57" s="17"/>
+      <c r="AW57" s="17"/>
+      <c r="AX57" s="18"/>
+      <c r="AY57" s="16"/>
+      <c r="AZ57" s="17"/>
+      <c r="BA57" s="17"/>
+      <c r="BB57" s="18"/>
     </row>
     <row r="58" s="1" customFormat="1" ht="20.1" customHeight="1" spans="2:54">
-      <c r="B58" s="16"/>
-      <c r="C58" s="17"/>
-      <c r="D58" s="18"/>
-      <c r="E58" s="11"/>
+      <c r="B58" s="11"/>
+      <c r="C58" s="12"/>
+      <c r="D58" s="12"/>
+      <c r="E58" s="12"/>
       <c r="F58" s="12"/>
       <c r="G58" s="12"/>
       <c r="H58" s="12"/>
@@ -12064,8 +12418,8 @@
       <c r="R58" s="12"/>
       <c r="S58" s="12"/>
       <c r="T58" s="12"/>
-      <c r="U58" s="25"/>
-      <c r="V58" s="11"/>
+      <c r="U58" s="12"/>
+      <c r="V58" s="12"/>
       <c r="W58" s="12"/>
       <c r="X58" s="12"/>
       <c r="Y58" s="12"/>
@@ -12081,29 +12435,29 @@
       <c r="AI58" s="12"/>
       <c r="AJ58" s="12"/>
       <c r="AK58" s="12"/>
-      <c r="AL58" s="25"/>
-      <c r="AM58" s="16"/>
-      <c r="AN58" s="17"/>
-      <c r="AO58" s="17"/>
-      <c r="AP58" s="18"/>
-      <c r="AQ58" s="16"/>
-      <c r="AR58" s="17"/>
-      <c r="AS58" s="17"/>
-      <c r="AT58" s="18"/>
-      <c r="AU58" s="16"/>
-      <c r="AV58" s="17"/>
-      <c r="AW58" s="17"/>
-      <c r="AX58" s="18"/>
-      <c r="AY58" s="16"/>
-      <c r="AZ58" s="17"/>
-      <c r="BA58" s="17"/>
-      <c r="BB58" s="18"/>
+      <c r="AL58" s="12"/>
+      <c r="AM58" s="12"/>
+      <c r="AN58" s="12"/>
+      <c r="AO58" s="12"/>
+      <c r="AP58" s="12"/>
+      <c r="AQ58" s="12"/>
+      <c r="AR58" s="12"/>
+      <c r="AS58" s="12"/>
+      <c r="AT58" s="12"/>
+      <c r="AU58" s="12"/>
+      <c r="AV58" s="12"/>
+      <c r="AW58" s="12"/>
+      <c r="AX58" s="12"/>
+      <c r="AY58" s="12"/>
+      <c r="AZ58" s="12"/>
+      <c r="BA58" s="12"/>
+      <c r="BB58" s="25"/>
     </row>
     <row r="59" s="1" customFormat="1" ht="20.1" customHeight="1" spans="2:54">
-      <c r="B59" s="11"/>
-      <c r="C59" s="12"/>
-      <c r="D59" s="12"/>
-      <c r="E59" s="12"/>
+      <c r="B59" s="16"/>
+      <c r="C59" s="17"/>
+      <c r="D59" s="18"/>
+      <c r="E59" s="11"/>
       <c r="F59" s="12"/>
       <c r="G59" s="12"/>
       <c r="H59" s="12"/>
@@ -12119,8 +12473,8 @@
       <c r="R59" s="12"/>
       <c r="S59" s="12"/>
       <c r="T59" s="12"/>
-      <c r="U59" s="12"/>
-      <c r="V59" s="12"/>
+      <c r="U59" s="25"/>
+      <c r="V59" s="11"/>
       <c r="W59" s="12"/>
       <c r="X59" s="12"/>
       <c r="Y59" s="12"/>
@@ -12136,23 +12490,23 @@
       <c r="AI59" s="12"/>
       <c r="AJ59" s="12"/>
       <c r="AK59" s="12"/>
-      <c r="AL59" s="12"/>
-      <c r="AM59" s="12"/>
-      <c r="AN59" s="12"/>
-      <c r="AO59" s="12"/>
-      <c r="AP59" s="12"/>
-      <c r="AQ59" s="12"/>
-      <c r="AR59" s="12"/>
-      <c r="AS59" s="12"/>
-      <c r="AT59" s="12"/>
-      <c r="AU59" s="12"/>
-      <c r="AV59" s="12"/>
-      <c r="AW59" s="12"/>
-      <c r="AX59" s="12"/>
-      <c r="AY59" s="12"/>
-      <c r="AZ59" s="12"/>
-      <c r="BA59" s="12"/>
-      <c r="BB59" s="25"/>
+      <c r="AL59" s="25"/>
+      <c r="AM59" s="34"/>
+      <c r="AN59" s="33"/>
+      <c r="AO59" s="33"/>
+      <c r="AP59" s="40"/>
+      <c r="AQ59" s="42"/>
+      <c r="AR59" s="33"/>
+      <c r="AS59" s="33"/>
+      <c r="AT59" s="40"/>
+      <c r="AU59" s="32"/>
+      <c r="AV59" s="33"/>
+      <c r="AW59" s="33"/>
+      <c r="AX59" s="40"/>
+      <c r="AY59" s="32"/>
+      <c r="AZ59" s="33"/>
+      <c r="BA59" s="33"/>
+      <c r="BB59" s="40"/>
     </row>
     <row r="60" s="1" customFormat="1" ht="20.1" customHeight="1" spans="2:54">
       <c r="B60" s="16"/>
@@ -12230,23 +12584,23 @@
       <c r="S61" s="12"/>
       <c r="T61" s="12"/>
       <c r="U61" s="25"/>
-      <c r="V61" s="19"/>
-      <c r="W61" s="22"/>
-      <c r="X61" s="22"/>
-      <c r="Y61" s="22"/>
-      <c r="Z61" s="22"/>
-      <c r="AA61" s="22"/>
-      <c r="AB61" s="22"/>
-      <c r="AC61" s="22"/>
-      <c r="AD61" s="22"/>
-      <c r="AE61" s="22"/>
-      <c r="AF61" s="22"/>
-      <c r="AG61" s="22"/>
-      <c r="AH61" s="22"/>
-      <c r="AI61" s="22"/>
-      <c r="AJ61" s="22"/>
-      <c r="AK61" s="22"/>
-      <c r="AL61" s="26"/>
+      <c r="V61" s="11"/>
+      <c r="W61" s="12"/>
+      <c r="X61" s="12"/>
+      <c r="Y61" s="12"/>
+      <c r="Z61" s="12"/>
+      <c r="AA61" s="12"/>
+      <c r="AB61" s="12"/>
+      <c r="AC61" s="12"/>
+      <c r="AD61" s="12"/>
+      <c r="AE61" s="12"/>
+      <c r="AF61" s="12"/>
+      <c r="AG61" s="12"/>
+      <c r="AH61" s="12"/>
+      <c r="AI61" s="12"/>
+      <c r="AJ61" s="12"/>
+      <c r="AK61" s="12"/>
+      <c r="AL61" s="25"/>
       <c r="AM61" s="32"/>
       <c r="AN61" s="33"/>
       <c r="AO61" s="33"/>
@@ -12285,45 +12639,45 @@
       <c r="S62" s="12"/>
       <c r="T62" s="12"/>
       <c r="U62" s="25"/>
-      <c r="V62" s="19"/>
-      <c r="W62" s="22"/>
-      <c r="X62" s="22"/>
-      <c r="Y62" s="22"/>
-      <c r="Z62" s="22"/>
-      <c r="AA62" s="22"/>
-      <c r="AB62" s="22"/>
-      <c r="AC62" s="22"/>
-      <c r="AD62" s="22"/>
-      <c r="AE62" s="22"/>
-      <c r="AF62" s="22"/>
-      <c r="AG62" s="22"/>
-      <c r="AH62" s="22"/>
-      <c r="AI62" s="22"/>
-      <c r="AJ62" s="22"/>
-      <c r="AK62" s="22"/>
-      <c r="AL62" s="26"/>
-      <c r="AM62" s="32"/>
-      <c r="AN62" s="33"/>
-      <c r="AO62" s="33"/>
-      <c r="AP62" s="40"/>
-      <c r="AQ62" s="41"/>
-      <c r="AR62" s="33"/>
-      <c r="AS62" s="33"/>
-      <c r="AT62" s="40"/>
-      <c r="AU62" s="32"/>
-      <c r="AV62" s="33"/>
-      <c r="AW62" s="33"/>
-      <c r="AX62" s="40"/>
-      <c r="AY62" s="32"/>
-      <c r="AZ62" s="33"/>
-      <c r="BA62" s="33"/>
-      <c r="BB62" s="40"/>
+      <c r="V62" s="11"/>
+      <c r="W62" s="12"/>
+      <c r="X62" s="12"/>
+      <c r="Y62" s="12"/>
+      <c r="Z62" s="12"/>
+      <c r="AA62" s="12"/>
+      <c r="AB62" s="12"/>
+      <c r="AC62" s="12"/>
+      <c r="AD62" s="12"/>
+      <c r="AE62" s="12"/>
+      <c r="AF62" s="12"/>
+      <c r="AG62" s="12"/>
+      <c r="AH62" s="12"/>
+      <c r="AI62" s="12"/>
+      <c r="AJ62" s="12"/>
+      <c r="AK62" s="12"/>
+      <c r="AL62" s="25"/>
+      <c r="AM62" s="16"/>
+      <c r="AN62" s="17"/>
+      <c r="AO62" s="17"/>
+      <c r="AP62" s="18"/>
+      <c r="AQ62" s="16"/>
+      <c r="AR62" s="17"/>
+      <c r="AS62" s="17"/>
+      <c r="AT62" s="18"/>
+      <c r="AU62" s="16"/>
+      <c r="AV62" s="17"/>
+      <c r="AW62" s="17"/>
+      <c r="AX62" s="18"/>
+      <c r="AY62" s="16"/>
+      <c r="AZ62" s="17"/>
+      <c r="BA62" s="17"/>
+      <c r="BB62" s="18"/>
     </row>
     <row r="63" s="1" customFormat="1" ht="20.1" customHeight="1" spans="2:54">
-      <c r="B63" s="16"/>
-      <c r="C63" s="17"/>
-      <c r="D63" s="18"/>
-      <c r="E63" s="11"/>
+      <c r="B63" s="11"/>
+      <c r="C63" s="12"/>
+      <c r="D63" s="12"/>
+      <c r="E63" s="12"/>
       <c r="F63" s="12"/>
       <c r="G63" s="12"/>
       <c r="H63" s="12"/>
@@ -12339,40 +12693,40 @@
       <c r="R63" s="12"/>
       <c r="S63" s="12"/>
       <c r="T63" s="12"/>
-      <c r="U63" s="25"/>
-      <c r="V63" s="19"/>
-      <c r="W63" s="22"/>
-      <c r="X63" s="22"/>
-      <c r="Y63" s="22"/>
-      <c r="Z63" s="22"/>
-      <c r="AA63" s="22"/>
-      <c r="AB63" s="22"/>
-      <c r="AC63" s="22"/>
-      <c r="AD63" s="22"/>
-      <c r="AE63" s="22"/>
-      <c r="AF63" s="22"/>
-      <c r="AG63" s="22"/>
-      <c r="AH63" s="22"/>
-      <c r="AI63" s="22"/>
-      <c r="AJ63" s="22"/>
-      <c r="AK63" s="22"/>
-      <c r="AL63" s="26"/>
-      <c r="AM63" s="32"/>
-      <c r="AN63" s="33"/>
-      <c r="AO63" s="33"/>
-      <c r="AP63" s="40"/>
-      <c r="AQ63" s="41"/>
-      <c r="AR63" s="33"/>
-      <c r="AS63" s="33"/>
-      <c r="AT63" s="40"/>
-      <c r="AU63" s="32"/>
-      <c r="AV63" s="33"/>
-      <c r="AW63" s="33"/>
-      <c r="AX63" s="40"/>
-      <c r="AY63" s="32"/>
-      <c r="AZ63" s="33"/>
-      <c r="BA63" s="33"/>
-      <c r="BB63" s="40"/>
+      <c r="U63" s="12"/>
+      <c r="V63" s="12"/>
+      <c r="W63" s="12"/>
+      <c r="X63" s="12"/>
+      <c r="Y63" s="12"/>
+      <c r="Z63" s="12"/>
+      <c r="AA63" s="12"/>
+      <c r="AB63" s="12"/>
+      <c r="AC63" s="12"/>
+      <c r="AD63" s="12"/>
+      <c r="AE63" s="12"/>
+      <c r="AF63" s="12"/>
+      <c r="AG63" s="12"/>
+      <c r="AH63" s="12"/>
+      <c r="AI63" s="12"/>
+      <c r="AJ63" s="12"/>
+      <c r="AK63" s="12"/>
+      <c r="AL63" s="12"/>
+      <c r="AM63" s="12"/>
+      <c r="AN63" s="12"/>
+      <c r="AO63" s="12"/>
+      <c r="AP63" s="12"/>
+      <c r="AQ63" s="12"/>
+      <c r="AR63" s="12"/>
+      <c r="AS63" s="12"/>
+      <c r="AT63" s="12"/>
+      <c r="AU63" s="12"/>
+      <c r="AV63" s="12"/>
+      <c r="AW63" s="12"/>
+      <c r="AX63" s="12"/>
+      <c r="AY63" s="12"/>
+      <c r="AZ63" s="12"/>
+      <c r="BA63" s="12"/>
+      <c r="BB63" s="25"/>
     </row>
     <row r="64" s="1" customFormat="1" ht="20.1" customHeight="1" spans="2:54">
       <c r="B64" s="16"/>
@@ -12412,28 +12766,28 @@
       <c r="AJ64" s="12"/>
       <c r="AK64" s="12"/>
       <c r="AL64" s="25"/>
-      <c r="AM64" s="16"/>
-      <c r="AN64" s="17"/>
-      <c r="AO64" s="17"/>
-      <c r="AP64" s="18"/>
-      <c r="AQ64" s="16"/>
-      <c r="AR64" s="17"/>
-      <c r="AS64" s="17"/>
-      <c r="AT64" s="18"/>
-      <c r="AU64" s="16"/>
-      <c r="AV64" s="17"/>
-      <c r="AW64" s="17"/>
-      <c r="AX64" s="18"/>
-      <c r="AY64" s="16"/>
-      <c r="AZ64" s="17"/>
-      <c r="BA64" s="17"/>
-      <c r="BB64" s="18"/>
+      <c r="AM64" s="32"/>
+      <c r="AN64" s="33"/>
+      <c r="AO64" s="33"/>
+      <c r="AP64" s="40"/>
+      <c r="AQ64" s="41"/>
+      <c r="AR64" s="33"/>
+      <c r="AS64" s="33"/>
+      <c r="AT64" s="40"/>
+      <c r="AU64" s="32"/>
+      <c r="AV64" s="33"/>
+      <c r="AW64" s="33"/>
+      <c r="AX64" s="40"/>
+      <c r="AY64" s="32"/>
+      <c r="AZ64" s="33"/>
+      <c r="BA64" s="33"/>
+      <c r="BB64" s="40"/>
     </row>
     <row r="65" s="1" customFormat="1" ht="20.1" customHeight="1" spans="2:54">
-      <c r="B65" s="19"/>
-      <c r="C65" s="12"/>
-      <c r="D65" s="12"/>
-      <c r="E65" s="12"/>
+      <c r="B65" s="16"/>
+      <c r="C65" s="17"/>
+      <c r="D65" s="18"/>
+      <c r="E65" s="11"/>
       <c r="F65" s="12"/>
       <c r="G65" s="12"/>
       <c r="H65" s="12"/>
@@ -12449,40 +12803,40 @@
       <c r="R65" s="12"/>
       <c r="S65" s="12"/>
       <c r="T65" s="12"/>
-      <c r="U65" s="12"/>
-      <c r="V65" s="12"/>
-      <c r="W65" s="12"/>
-      <c r="X65" s="12"/>
-      <c r="Y65" s="12"/>
-      <c r="Z65" s="12"/>
-      <c r="AA65" s="12"/>
-      <c r="AB65" s="12"/>
-      <c r="AC65" s="12"/>
-      <c r="AD65" s="12"/>
-      <c r="AE65" s="12"/>
-      <c r="AF65" s="12"/>
-      <c r="AG65" s="12"/>
-      <c r="AH65" s="12"/>
-      <c r="AI65" s="12"/>
-      <c r="AJ65" s="12"/>
-      <c r="AK65" s="12"/>
-      <c r="AL65" s="12"/>
-      <c r="AM65" s="12"/>
-      <c r="AN65" s="12"/>
-      <c r="AO65" s="12"/>
-      <c r="AP65" s="12"/>
-      <c r="AQ65" s="12"/>
-      <c r="AR65" s="12"/>
-      <c r="AS65" s="12"/>
-      <c r="AT65" s="12"/>
-      <c r="AU65" s="12"/>
-      <c r="AV65" s="12"/>
-      <c r="AW65" s="12"/>
-      <c r="AX65" s="12"/>
-      <c r="AY65" s="12"/>
-      <c r="AZ65" s="12"/>
-      <c r="BA65" s="12"/>
-      <c r="BB65" s="25"/>
+      <c r="U65" s="25"/>
+      <c r="V65" s="20"/>
+      <c r="W65" s="22"/>
+      <c r="X65" s="22"/>
+      <c r="Y65" s="22"/>
+      <c r="Z65" s="22"/>
+      <c r="AA65" s="22"/>
+      <c r="AB65" s="22"/>
+      <c r="AC65" s="22"/>
+      <c r="AD65" s="22"/>
+      <c r="AE65" s="22"/>
+      <c r="AF65" s="22"/>
+      <c r="AG65" s="22"/>
+      <c r="AH65" s="22"/>
+      <c r="AI65" s="22"/>
+      <c r="AJ65" s="22"/>
+      <c r="AK65" s="22"/>
+      <c r="AL65" s="26"/>
+      <c r="AM65" s="32"/>
+      <c r="AN65" s="33"/>
+      <c r="AO65" s="33"/>
+      <c r="AP65" s="40"/>
+      <c r="AQ65" s="41"/>
+      <c r="AR65" s="33"/>
+      <c r="AS65" s="33"/>
+      <c r="AT65" s="40"/>
+      <c r="AU65" s="32"/>
+      <c r="AV65" s="33"/>
+      <c r="AW65" s="33"/>
+      <c r="AX65" s="40"/>
+      <c r="AY65" s="32"/>
+      <c r="AZ65" s="33"/>
+      <c r="BA65" s="33"/>
+      <c r="BB65" s="40"/>
     </row>
     <row r="66" s="1" customFormat="1" ht="20.1" customHeight="1" spans="2:54">
       <c r="B66" s="16"/>
@@ -12505,23 +12859,23 @@
       <c r="S66" s="12"/>
       <c r="T66" s="12"/>
       <c r="U66" s="25"/>
-      <c r="V66" s="11"/>
-      <c r="W66" s="12"/>
-      <c r="X66" s="12"/>
-      <c r="Y66" s="12"/>
-      <c r="Z66" s="12"/>
-      <c r="AA66" s="12"/>
-      <c r="AB66" s="12"/>
-      <c r="AC66" s="12"/>
-      <c r="AD66" s="12"/>
-      <c r="AE66" s="12"/>
-      <c r="AF66" s="12"/>
-      <c r="AG66" s="12"/>
-      <c r="AH66" s="12"/>
-      <c r="AI66" s="12"/>
-      <c r="AJ66" s="12"/>
-      <c r="AK66" s="12"/>
-      <c r="AL66" s="25"/>
+      <c r="V66" s="20"/>
+      <c r="W66" s="22"/>
+      <c r="X66" s="22"/>
+      <c r="Y66" s="22"/>
+      <c r="Z66" s="22"/>
+      <c r="AA66" s="22"/>
+      <c r="AB66" s="22"/>
+      <c r="AC66" s="22"/>
+      <c r="AD66" s="22"/>
+      <c r="AE66" s="22"/>
+      <c r="AF66" s="22"/>
+      <c r="AG66" s="22"/>
+      <c r="AH66" s="22"/>
+      <c r="AI66" s="22"/>
+      <c r="AJ66" s="22"/>
+      <c r="AK66" s="22"/>
+      <c r="AL66" s="26"/>
       <c r="AM66" s="32"/>
       <c r="AN66" s="33"/>
       <c r="AO66" s="33"/>
@@ -12560,23 +12914,23 @@
       <c r="S67" s="12"/>
       <c r="T67" s="12"/>
       <c r="U67" s="25"/>
-      <c r="V67" s="11"/>
-      <c r="W67" s="12"/>
-      <c r="X67" s="12"/>
-      <c r="Y67" s="12"/>
-      <c r="Z67" s="12"/>
-      <c r="AA67" s="12"/>
-      <c r="AB67" s="12"/>
-      <c r="AC67" s="12"/>
-      <c r="AD67" s="12"/>
-      <c r="AE67" s="12"/>
-      <c r="AF67" s="12"/>
-      <c r="AG67" s="12"/>
-      <c r="AH67" s="12"/>
-      <c r="AI67" s="12"/>
-      <c r="AJ67" s="12"/>
-      <c r="AK67" s="12"/>
-      <c r="AL67" s="25"/>
+      <c r="V67" s="20"/>
+      <c r="W67" s="22"/>
+      <c r="X67" s="22"/>
+      <c r="Y67" s="22"/>
+      <c r="Z67" s="22"/>
+      <c r="AA67" s="22"/>
+      <c r="AB67" s="22"/>
+      <c r="AC67" s="22"/>
+      <c r="AD67" s="22"/>
+      <c r="AE67" s="22"/>
+      <c r="AF67" s="22"/>
+      <c r="AG67" s="22"/>
+      <c r="AH67" s="22"/>
+      <c r="AI67" s="22"/>
+      <c r="AJ67" s="22"/>
+      <c r="AK67" s="22"/>
+      <c r="AL67" s="26"/>
       <c r="AM67" s="32"/>
       <c r="AN67" s="33"/>
       <c r="AO67" s="33"/>
@@ -12632,28 +12986,28 @@
       <c r="AJ68" s="12"/>
       <c r="AK68" s="12"/>
       <c r="AL68" s="25"/>
-      <c r="AM68" s="34"/>
-      <c r="AN68" s="33"/>
-      <c r="AO68" s="33"/>
-      <c r="AP68" s="40"/>
-      <c r="AQ68" s="44"/>
-      <c r="AR68" s="33"/>
-      <c r="AS68" s="33"/>
-      <c r="AT68" s="40"/>
-      <c r="AU68" s="32"/>
-      <c r="AV68" s="33"/>
-      <c r="AW68" s="33"/>
-      <c r="AX68" s="40"/>
-      <c r="AY68" s="32"/>
-      <c r="AZ68" s="33"/>
-      <c r="BA68" s="33"/>
-      <c r="BB68" s="40"/>
+      <c r="AM68" s="16"/>
+      <c r="AN68" s="17"/>
+      <c r="AO68" s="17"/>
+      <c r="AP68" s="18"/>
+      <c r="AQ68" s="16"/>
+      <c r="AR68" s="17"/>
+      <c r="AS68" s="17"/>
+      <c r="AT68" s="18"/>
+      <c r="AU68" s="16"/>
+      <c r="AV68" s="17"/>
+      <c r="AW68" s="17"/>
+      <c r="AX68" s="18"/>
+      <c r="AY68" s="16"/>
+      <c r="AZ68" s="17"/>
+      <c r="BA68" s="17"/>
+      <c r="BB68" s="18"/>
     </row>
     <row r="69" s="1" customFormat="1" ht="20.1" customHeight="1" spans="2:54">
-      <c r="B69" s="16"/>
-      <c r="C69" s="17"/>
-      <c r="D69" s="18"/>
-      <c r="E69" s="11"/>
+      <c r="B69" s="20"/>
+      <c r="C69" s="12"/>
+      <c r="D69" s="12"/>
+      <c r="E69" s="12"/>
       <c r="F69" s="12"/>
       <c r="G69" s="12"/>
       <c r="H69" s="12"/>
@@ -12669,8 +13023,8 @@
       <c r="R69" s="12"/>
       <c r="S69" s="12"/>
       <c r="T69" s="12"/>
-      <c r="U69" s="25"/>
-      <c r="V69" s="11"/>
+      <c r="U69" s="12"/>
+      <c r="V69" s="12"/>
       <c r="W69" s="12"/>
       <c r="X69" s="12"/>
       <c r="Y69" s="12"/>
@@ -12686,23 +13040,23 @@
       <c r="AI69" s="12"/>
       <c r="AJ69" s="12"/>
       <c r="AK69" s="12"/>
-      <c r="AL69" s="25"/>
-      <c r="AM69" s="32"/>
-      <c r="AN69" s="33"/>
-      <c r="AO69" s="33"/>
-      <c r="AP69" s="40"/>
-      <c r="AQ69" s="41"/>
-      <c r="AR69" s="33"/>
-      <c r="AS69" s="33"/>
-      <c r="AT69" s="40"/>
-      <c r="AU69" s="32"/>
-      <c r="AV69" s="33"/>
-      <c r="AW69" s="33"/>
-      <c r="AX69" s="40"/>
-      <c r="AY69" s="32"/>
-      <c r="AZ69" s="33"/>
-      <c r="BA69" s="33"/>
-      <c r="BB69" s="40"/>
+      <c r="AL69" s="12"/>
+      <c r="AM69" s="12"/>
+      <c r="AN69" s="12"/>
+      <c r="AO69" s="12"/>
+      <c r="AP69" s="12"/>
+      <c r="AQ69" s="12"/>
+      <c r="AR69" s="12"/>
+      <c r="AS69" s="12"/>
+      <c r="AT69" s="12"/>
+      <c r="AU69" s="12"/>
+      <c r="AV69" s="12"/>
+      <c r="AW69" s="12"/>
+      <c r="AX69" s="12"/>
+      <c r="AY69" s="12"/>
+      <c r="AZ69" s="12"/>
+      <c r="BA69" s="12"/>
+      <c r="BB69" s="25"/>
     </row>
     <row r="70" s="1" customFormat="1" ht="20.1" customHeight="1" spans="2:54">
       <c r="B70" s="16"/>
@@ -12759,10 +13113,226 @@
       <c r="BA70" s="33"/>
       <c r="BB70" s="40"/>
     </row>
-    <row r="71" ht="20.1" customHeight="1"/>
-    <row r="72" ht="20.1" customHeight="1"/>
-    <row r="73" ht="20.1" customHeight="1"/>
-    <row r="74" ht="20.1" customHeight="1"/>
+    <row r="71" s="1" customFormat="1" ht="20.1" customHeight="1" spans="2:54">
+      <c r="B71" s="16"/>
+      <c r="C71" s="17"/>
+      <c r="D71" s="18"/>
+      <c r="E71" s="11"/>
+      <c r="F71" s="12"/>
+      <c r="G71" s="12"/>
+      <c r="H71" s="12"/>
+      <c r="I71" s="12"/>
+      <c r="J71" s="12"/>
+      <c r="K71" s="12"/>
+      <c r="L71" s="12"/>
+      <c r="M71" s="12"/>
+      <c r="N71" s="12"/>
+      <c r="O71" s="12"/>
+      <c r="P71" s="12"/>
+      <c r="Q71" s="12"/>
+      <c r="R71" s="12"/>
+      <c r="S71" s="12"/>
+      <c r="T71" s="12"/>
+      <c r="U71" s="25"/>
+      <c r="V71" s="11"/>
+      <c r="W71" s="12"/>
+      <c r="X71" s="12"/>
+      <c r="Y71" s="12"/>
+      <c r="Z71" s="12"/>
+      <c r="AA71" s="12"/>
+      <c r="AB71" s="12"/>
+      <c r="AC71" s="12"/>
+      <c r="AD71" s="12"/>
+      <c r="AE71" s="12"/>
+      <c r="AF71" s="12"/>
+      <c r="AG71" s="12"/>
+      <c r="AH71" s="12"/>
+      <c r="AI71" s="12"/>
+      <c r="AJ71" s="12"/>
+      <c r="AK71" s="12"/>
+      <c r="AL71" s="25"/>
+      <c r="AM71" s="32"/>
+      <c r="AN71" s="33"/>
+      <c r="AO71" s="33"/>
+      <c r="AP71" s="40"/>
+      <c r="AQ71" s="41"/>
+      <c r="AR71" s="33"/>
+      <c r="AS71" s="33"/>
+      <c r="AT71" s="40"/>
+      <c r="AU71" s="32"/>
+      <c r="AV71" s="33"/>
+      <c r="AW71" s="33"/>
+      <c r="AX71" s="40"/>
+      <c r="AY71" s="32"/>
+      <c r="AZ71" s="33"/>
+      <c r="BA71" s="33"/>
+      <c r="BB71" s="40"/>
+    </row>
+    <row r="72" s="1" customFormat="1" ht="20.1" customHeight="1" spans="2:54">
+      <c r="B72" s="16"/>
+      <c r="C72" s="17"/>
+      <c r="D72" s="18"/>
+      <c r="E72" s="11"/>
+      <c r="F72" s="12"/>
+      <c r="G72" s="12"/>
+      <c r="H72" s="12"/>
+      <c r="I72" s="12"/>
+      <c r="J72" s="12"/>
+      <c r="K72" s="12"/>
+      <c r="L72" s="12"/>
+      <c r="M72" s="12"/>
+      <c r="N72" s="12"/>
+      <c r="O72" s="12"/>
+      <c r="P72" s="12"/>
+      <c r="Q72" s="12"/>
+      <c r="R72" s="12"/>
+      <c r="S72" s="12"/>
+      <c r="T72" s="12"/>
+      <c r="U72" s="25"/>
+      <c r="V72" s="11"/>
+      <c r="W72" s="12"/>
+      <c r="X72" s="12"/>
+      <c r="Y72" s="12"/>
+      <c r="Z72" s="12"/>
+      <c r="AA72" s="12"/>
+      <c r="AB72" s="12"/>
+      <c r="AC72" s="12"/>
+      <c r="AD72" s="12"/>
+      <c r="AE72" s="12"/>
+      <c r="AF72" s="12"/>
+      <c r="AG72" s="12"/>
+      <c r="AH72" s="12"/>
+      <c r="AI72" s="12"/>
+      <c r="AJ72" s="12"/>
+      <c r="AK72" s="12"/>
+      <c r="AL72" s="25"/>
+      <c r="AM72" s="34"/>
+      <c r="AN72" s="33"/>
+      <c r="AO72" s="33"/>
+      <c r="AP72" s="40"/>
+      <c r="AQ72" s="42"/>
+      <c r="AR72" s="33"/>
+      <c r="AS72" s="33"/>
+      <c r="AT72" s="40"/>
+      <c r="AU72" s="32"/>
+      <c r="AV72" s="33"/>
+      <c r="AW72" s="33"/>
+      <c r="AX72" s="40"/>
+      <c r="AY72" s="32"/>
+      <c r="AZ72" s="33"/>
+      <c r="BA72" s="33"/>
+      <c r="BB72" s="40"/>
+    </row>
+    <row r="73" s="1" customFormat="1" ht="20.1" customHeight="1" spans="2:54">
+      <c r="B73" s="16"/>
+      <c r="C73" s="17"/>
+      <c r="D73" s="18"/>
+      <c r="E73" s="11"/>
+      <c r="F73" s="12"/>
+      <c r="G73" s="12"/>
+      <c r="H73" s="12"/>
+      <c r="I73" s="12"/>
+      <c r="J73" s="12"/>
+      <c r="K73" s="12"/>
+      <c r="L73" s="12"/>
+      <c r="M73" s="12"/>
+      <c r="N73" s="12"/>
+      <c r="O73" s="12"/>
+      <c r="P73" s="12"/>
+      <c r="Q73" s="12"/>
+      <c r="R73" s="12"/>
+      <c r="S73" s="12"/>
+      <c r="T73" s="12"/>
+      <c r="U73" s="25"/>
+      <c r="V73" s="11"/>
+      <c r="W73" s="12"/>
+      <c r="X73" s="12"/>
+      <c r="Y73" s="12"/>
+      <c r="Z73" s="12"/>
+      <c r="AA73" s="12"/>
+      <c r="AB73" s="12"/>
+      <c r="AC73" s="12"/>
+      <c r="AD73" s="12"/>
+      <c r="AE73" s="12"/>
+      <c r="AF73" s="12"/>
+      <c r="AG73" s="12"/>
+      <c r="AH73" s="12"/>
+      <c r="AI73" s="12"/>
+      <c r="AJ73" s="12"/>
+      <c r="AK73" s="12"/>
+      <c r="AL73" s="25"/>
+      <c r="AM73" s="32"/>
+      <c r="AN73" s="33"/>
+      <c r="AO73" s="33"/>
+      <c r="AP73" s="40"/>
+      <c r="AQ73" s="41"/>
+      <c r="AR73" s="33"/>
+      <c r="AS73" s="33"/>
+      <c r="AT73" s="40"/>
+      <c r="AU73" s="32"/>
+      <c r="AV73" s="33"/>
+      <c r="AW73" s="33"/>
+      <c r="AX73" s="40"/>
+      <c r="AY73" s="32"/>
+      <c r="AZ73" s="33"/>
+      <c r="BA73" s="33"/>
+      <c r="BB73" s="40"/>
+    </row>
+    <row r="74" s="1" customFormat="1" ht="20.1" customHeight="1" spans="2:54">
+      <c r="B74" s="16"/>
+      <c r="C74" s="17"/>
+      <c r="D74" s="18"/>
+      <c r="E74" s="11"/>
+      <c r="F74" s="12"/>
+      <c r="G74" s="12"/>
+      <c r="H74" s="12"/>
+      <c r="I74" s="12"/>
+      <c r="J74" s="12"/>
+      <c r="K74" s="12"/>
+      <c r="L74" s="12"/>
+      <c r="M74" s="12"/>
+      <c r="N74" s="12"/>
+      <c r="O74" s="12"/>
+      <c r="P74" s="12"/>
+      <c r="Q74" s="12"/>
+      <c r="R74" s="12"/>
+      <c r="S74" s="12"/>
+      <c r="T74" s="12"/>
+      <c r="U74" s="25"/>
+      <c r="V74" s="11"/>
+      <c r="W74" s="12"/>
+      <c r="X74" s="12"/>
+      <c r="Y74" s="12"/>
+      <c r="Z74" s="12"/>
+      <c r="AA74" s="12"/>
+      <c r="AB74" s="12"/>
+      <c r="AC74" s="12"/>
+      <c r="AD74" s="12"/>
+      <c r="AE74" s="12"/>
+      <c r="AF74" s="12"/>
+      <c r="AG74" s="12"/>
+      <c r="AH74" s="12"/>
+      <c r="AI74" s="12"/>
+      <c r="AJ74" s="12"/>
+      <c r="AK74" s="12"/>
+      <c r="AL74" s="25"/>
+      <c r="AM74" s="32"/>
+      <c r="AN74" s="33"/>
+      <c r="AO74" s="33"/>
+      <c r="AP74" s="40"/>
+      <c r="AQ74" s="41"/>
+      <c r="AR74" s="33"/>
+      <c r="AS74" s="33"/>
+      <c r="AT74" s="40"/>
+      <c r="AU74" s="32"/>
+      <c r="AV74" s="33"/>
+      <c r="AW74" s="33"/>
+      <c r="AX74" s="40"/>
+      <c r="AY74" s="32"/>
+      <c r="AZ74" s="33"/>
+      <c r="BA74" s="33"/>
+      <c r="BB74" s="40"/>
+    </row>
     <row r="75" ht="20.1" customHeight="1"/>
     <row r="76" ht="20.1" customHeight="1"/>
     <row r="77" ht="20.1" customHeight="1"/>
@@ -12898,8 +13468,12 @@
     <row r="207" ht="20.1" customHeight="1"/>
     <row r="208" ht="20.1" customHeight="1"/>
     <row r="209" ht="20.1" customHeight="1"/>
+    <row r="210" ht="20.1" customHeight="1"/>
+    <row r="211" ht="20.1" customHeight="1"/>
+    <row r="212" ht="20.1" customHeight="1"/>
+    <row r="213" ht="20.1" customHeight="1"/>
   </sheetData>
-  <mergeCells count="399">
+  <mergeCells count="426">
     <mergeCell ref="B1:BA1"/>
     <mergeCell ref="X2:BB2"/>
     <mergeCell ref="E3:R3"/>
@@ -12923,7 +13497,12 @@
     <mergeCell ref="AQ6:AT6"/>
     <mergeCell ref="AU6:AX6"/>
     <mergeCell ref="AY6:BB6"/>
+    <mergeCell ref="B7:D7"/>
     <mergeCell ref="E7:U7"/>
+    <mergeCell ref="V7:AL7"/>
+    <mergeCell ref="AM7:AP7"/>
+    <mergeCell ref="AQ7:AT7"/>
+    <mergeCell ref="AU7:AX7"/>
     <mergeCell ref="B8:D8"/>
     <mergeCell ref="E8:U8"/>
     <mergeCell ref="V8:AL8"/>
@@ -12961,14 +13540,14 @@
     <mergeCell ref="AQ14:AT14"/>
     <mergeCell ref="AU14:AX14"/>
     <mergeCell ref="AY14:BB14"/>
-    <mergeCell ref="B15:BB15"/>
-    <mergeCell ref="B16:D16"/>
-    <mergeCell ref="E16:U16"/>
-    <mergeCell ref="V16:AL16"/>
-    <mergeCell ref="AM16:AP16"/>
-    <mergeCell ref="AQ16:AT16"/>
-    <mergeCell ref="AU16:AX16"/>
-    <mergeCell ref="AY16:BB16"/>
+    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="E15:U15"/>
+    <mergeCell ref="V15:AL15"/>
+    <mergeCell ref="AM15:AP15"/>
+    <mergeCell ref="AQ15:AT15"/>
+    <mergeCell ref="AU15:AX15"/>
+    <mergeCell ref="AY15:BB15"/>
+    <mergeCell ref="B16:BB16"/>
     <mergeCell ref="B17:D17"/>
     <mergeCell ref="E17:U17"/>
     <mergeCell ref="V17:AL17"/>
@@ -12997,13 +13576,7 @@
     <mergeCell ref="AQ20:AT20"/>
     <mergeCell ref="AU20:AX20"/>
     <mergeCell ref="AY20:BB20"/>
-    <mergeCell ref="B21:D21"/>
-    <mergeCell ref="E21:U21"/>
-    <mergeCell ref="V21:AL21"/>
-    <mergeCell ref="AM21:AP21"/>
-    <mergeCell ref="AQ21:AT21"/>
-    <mergeCell ref="AU21:AX21"/>
-    <mergeCell ref="AY21:BB21"/>
+    <mergeCell ref="B21:BB21"/>
     <mergeCell ref="B22:D22"/>
     <mergeCell ref="E22:U22"/>
     <mergeCell ref="V22:AL22"/>
@@ -13011,7 +13584,13 @@
     <mergeCell ref="AQ22:AT22"/>
     <mergeCell ref="AU22:AX22"/>
     <mergeCell ref="AY22:BB22"/>
-    <mergeCell ref="B23:BB23"/>
+    <mergeCell ref="B23:D23"/>
+    <mergeCell ref="E23:U23"/>
+    <mergeCell ref="V23:AL23"/>
+    <mergeCell ref="AM23:AP23"/>
+    <mergeCell ref="AQ23:AT23"/>
+    <mergeCell ref="AU23:AX23"/>
+    <mergeCell ref="AY23:BB23"/>
     <mergeCell ref="B24:D24"/>
     <mergeCell ref="E24:U24"/>
     <mergeCell ref="V24:AL24"/>
@@ -13083,14 +13662,14 @@
     <mergeCell ref="AQ34:AT34"/>
     <mergeCell ref="AU34:AX34"/>
     <mergeCell ref="AY34:BB34"/>
-    <mergeCell ref="B35:D35"/>
-    <mergeCell ref="E35:U35"/>
-    <mergeCell ref="V35:AL35"/>
-    <mergeCell ref="AM35:AP35"/>
-    <mergeCell ref="AQ35:AT35"/>
-    <mergeCell ref="AU35:AX35"/>
-    <mergeCell ref="AY35:BB35"/>
-    <mergeCell ref="B36:BB36"/>
+    <mergeCell ref="B35:BB35"/>
+    <mergeCell ref="B36:D36"/>
+    <mergeCell ref="E36:U36"/>
+    <mergeCell ref="V36:AL36"/>
+    <mergeCell ref="AM36:AP36"/>
+    <mergeCell ref="AQ36:AT36"/>
+    <mergeCell ref="AU36:AX36"/>
+    <mergeCell ref="AY36:BB36"/>
     <mergeCell ref="B37:D37"/>
     <mergeCell ref="E37:U37"/>
     <mergeCell ref="V37:AL37"/>
@@ -13112,13 +13691,7 @@
     <mergeCell ref="AQ39:AT39"/>
     <mergeCell ref="AU39:AX39"/>
     <mergeCell ref="AY39:BB39"/>
-    <mergeCell ref="B40:D40"/>
-    <mergeCell ref="E40:U40"/>
-    <mergeCell ref="V40:AL40"/>
-    <mergeCell ref="AM40:AP40"/>
-    <mergeCell ref="AQ40:AT40"/>
-    <mergeCell ref="AU40:AX40"/>
-    <mergeCell ref="AY40:BB40"/>
+    <mergeCell ref="B40:BB40"/>
     <mergeCell ref="B41:D41"/>
     <mergeCell ref="E41:U41"/>
     <mergeCell ref="V41:AL41"/>
@@ -13126,7 +13699,13 @@
     <mergeCell ref="AQ41:AT41"/>
     <mergeCell ref="AU41:AX41"/>
     <mergeCell ref="AY41:BB41"/>
-    <mergeCell ref="B42:BB42"/>
+    <mergeCell ref="B42:D42"/>
+    <mergeCell ref="E42:U42"/>
+    <mergeCell ref="V42:AL42"/>
+    <mergeCell ref="AM42:AP42"/>
+    <mergeCell ref="AQ42:AT42"/>
+    <mergeCell ref="AU42:AX42"/>
+    <mergeCell ref="AY42:BB42"/>
     <mergeCell ref="B43:D43"/>
     <mergeCell ref="E43:U43"/>
     <mergeCell ref="V43:AL43"/>
@@ -13148,13 +13727,7 @@
     <mergeCell ref="AQ45:AT45"/>
     <mergeCell ref="AU45:AX45"/>
     <mergeCell ref="AY45:BB45"/>
-    <mergeCell ref="B46:D46"/>
-    <mergeCell ref="E46:U46"/>
-    <mergeCell ref="V46:AL46"/>
-    <mergeCell ref="AM46:AP46"/>
-    <mergeCell ref="AQ46:AT46"/>
-    <mergeCell ref="AU46:AX46"/>
-    <mergeCell ref="AY46:BB46"/>
+    <mergeCell ref="B46:BB46"/>
     <mergeCell ref="B47:D47"/>
     <mergeCell ref="E47:U47"/>
     <mergeCell ref="V47:AL47"/>
@@ -13176,7 +13749,13 @@
     <mergeCell ref="AQ49:AT49"/>
     <mergeCell ref="AU49:AX49"/>
     <mergeCell ref="AY49:BB49"/>
-    <mergeCell ref="B50:BB50"/>
+    <mergeCell ref="B50:D50"/>
+    <mergeCell ref="E50:U50"/>
+    <mergeCell ref="V50:AL50"/>
+    <mergeCell ref="AM50:AP50"/>
+    <mergeCell ref="AQ50:AT50"/>
+    <mergeCell ref="AU50:AX50"/>
+    <mergeCell ref="AY50:BB50"/>
     <mergeCell ref="B51:D51"/>
     <mergeCell ref="E51:U51"/>
     <mergeCell ref="V51:AL51"/>
@@ -13220,14 +13799,14 @@
     <mergeCell ref="AQ57:AT57"/>
     <mergeCell ref="AU57:AX57"/>
     <mergeCell ref="AY57:BB57"/>
-    <mergeCell ref="B58:D58"/>
-    <mergeCell ref="E58:U58"/>
-    <mergeCell ref="V58:AL58"/>
-    <mergeCell ref="AM58:AP58"/>
-    <mergeCell ref="AQ58:AT58"/>
-    <mergeCell ref="AU58:AX58"/>
-    <mergeCell ref="AY58:BB58"/>
-    <mergeCell ref="B59:BB59"/>
+    <mergeCell ref="B58:BB58"/>
+    <mergeCell ref="B59:D59"/>
+    <mergeCell ref="E59:U59"/>
+    <mergeCell ref="V59:AL59"/>
+    <mergeCell ref="AM59:AP59"/>
+    <mergeCell ref="AQ59:AT59"/>
+    <mergeCell ref="AU59:AX59"/>
+    <mergeCell ref="AY59:BB59"/>
     <mergeCell ref="B60:D60"/>
     <mergeCell ref="E60:U60"/>
     <mergeCell ref="V60:AL60"/>
@@ -13249,13 +13828,7 @@
     <mergeCell ref="AQ62:AT62"/>
     <mergeCell ref="AU62:AX62"/>
     <mergeCell ref="AY62:BB62"/>
-    <mergeCell ref="B63:D63"/>
-    <mergeCell ref="E63:U63"/>
-    <mergeCell ref="V63:AL63"/>
-    <mergeCell ref="AM63:AP63"/>
-    <mergeCell ref="AQ63:AT63"/>
-    <mergeCell ref="AU63:AX63"/>
-    <mergeCell ref="AY63:BB63"/>
+    <mergeCell ref="B63:BB63"/>
     <mergeCell ref="B64:D64"/>
     <mergeCell ref="E64:U64"/>
     <mergeCell ref="V64:AL64"/>
@@ -13263,7 +13836,13 @@
     <mergeCell ref="AQ64:AT64"/>
     <mergeCell ref="AU64:AX64"/>
     <mergeCell ref="AY64:BB64"/>
-    <mergeCell ref="B65:BB65"/>
+    <mergeCell ref="B65:D65"/>
+    <mergeCell ref="E65:U65"/>
+    <mergeCell ref="V65:AL65"/>
+    <mergeCell ref="AM65:AP65"/>
+    <mergeCell ref="AQ65:AT65"/>
+    <mergeCell ref="AU65:AX65"/>
+    <mergeCell ref="AY65:BB65"/>
     <mergeCell ref="B66:D66"/>
     <mergeCell ref="E66:U66"/>
     <mergeCell ref="V66:AL66"/>
@@ -13285,13 +13864,7 @@
     <mergeCell ref="AQ68:AT68"/>
     <mergeCell ref="AU68:AX68"/>
     <mergeCell ref="AY68:BB68"/>
-    <mergeCell ref="B69:D69"/>
-    <mergeCell ref="E69:U69"/>
-    <mergeCell ref="V69:AL69"/>
-    <mergeCell ref="AM69:AP69"/>
-    <mergeCell ref="AQ69:AT69"/>
-    <mergeCell ref="AU69:AX69"/>
-    <mergeCell ref="AY69:BB69"/>
+    <mergeCell ref="B69:BB69"/>
     <mergeCell ref="B70:D70"/>
     <mergeCell ref="E70:U70"/>
     <mergeCell ref="V70:AL70"/>
@@ -13299,6 +13872,34 @@
     <mergeCell ref="AQ70:AT70"/>
     <mergeCell ref="AU70:AX70"/>
     <mergeCell ref="AY70:BB70"/>
+    <mergeCell ref="B71:D71"/>
+    <mergeCell ref="E71:U71"/>
+    <mergeCell ref="V71:AL71"/>
+    <mergeCell ref="AM71:AP71"/>
+    <mergeCell ref="AQ71:AT71"/>
+    <mergeCell ref="AU71:AX71"/>
+    <mergeCell ref="AY71:BB71"/>
+    <mergeCell ref="B72:D72"/>
+    <mergeCell ref="E72:U72"/>
+    <mergeCell ref="V72:AL72"/>
+    <mergeCell ref="AM72:AP72"/>
+    <mergeCell ref="AQ72:AT72"/>
+    <mergeCell ref="AU72:AX72"/>
+    <mergeCell ref="AY72:BB72"/>
+    <mergeCell ref="B73:D73"/>
+    <mergeCell ref="E73:U73"/>
+    <mergeCell ref="V73:AL73"/>
+    <mergeCell ref="AM73:AP73"/>
+    <mergeCell ref="AQ73:AT73"/>
+    <mergeCell ref="AU73:AX73"/>
+    <mergeCell ref="AY73:BB73"/>
+    <mergeCell ref="B74:D74"/>
+    <mergeCell ref="E74:U74"/>
+    <mergeCell ref="V74:AL74"/>
+    <mergeCell ref="AM74:AP74"/>
+    <mergeCell ref="AQ74:AT74"/>
+    <mergeCell ref="AU74:AX74"/>
+    <mergeCell ref="AY74:BB74"/>
   </mergeCells>
   <pageMargins left="0.393700787401575" right="0.196850393700787" top="0.590551181102362" bottom="0.590551181102362" header="0.393700787401575" footer="0.393700787401575"/>
   <pageSetup paperSize="9" scale="97" orientation="landscape"/>

--- a/resources/单体测试书.xlsx
+++ b/resources/单体测试书.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23040" windowHeight="11580" tabRatio="680" activeTab="1"/>
+    <workbookView windowWidth="24750" windowHeight="12080" tabRatio="680" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="封面" sheetId="23" r:id="rId1"/>
@@ -101,12 +101,25 @@
     <definedName name="质量保证计划">#REF!</definedName>
     <definedName name="子活动类型名">#REF!</definedName>
   </definedNames>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="74">
   <si>
     <t xml:space="preserve">东软机密 </t>
   </si>
@@ -117,10 +130,10 @@
     <t>文档编号：D0000-PPC-项目编号-PUT-年份</t>
   </si>
   <si>
-    <t>项目名称（项目编号）</t>
+    <t>悦居-智能家居控制系统</t>
   </si>
   <si>
-    <t>单体测试式样书</t>
+    <t>单体测试设计</t>
   </si>
   <si>
     <t>东软初级人才培养中心</t>
@@ -172,6 +185,9 @@
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
+  </si>
+  <si>
+    <t>匡子晗</t>
   </si>
   <si>
     <r>
@@ -234,52 +250,148 @@
     <t>错误编号</t>
   </si>
   <si>
-    <t>注册功能中用户名有效性</t>
+    <t>注册功能中用户名和密码有效性</t>
   </si>
   <si>
-    <t>打开注册页面，自动聚焦到用户名字段组件，输入 “13899999999”，切换焦点组件</t>
+    <t>在用户名输入 “kkk”，密码输入123456</t>
   </si>
   <si>
-    <t>恭喜您，可以注册</t>
+    <t>注册成功</t>
   </si>
   <si>
-    <t>打开注册页面，自动聚焦到用户名字段组件，输入已存在的手机号码 “13899999999”，切换焦点组件</t>
+    <t>YES</t>
   </si>
   <si>
-    <t>手机号码已被注册，找回密码</t>
+    <t>在用户名输入 “k k k”，密码输入123456</t>
   </si>
   <si>
-    <t>打开注册页面，自动聚焦到用户名字段组件，输入 “110”，切换焦点组件</t>
+    <t>用户名格式不符合规范</t>
   </si>
   <si>
-    <t>提示手机号码不正确</t>
+    <t>在用户名输入 “kkk”，密码输入1 23456</t>
   </si>
   <si>
-    <t>输入年龄值</t>
+    <t>请输入有效的用户名和密码</t>
   </si>
   <si>
-    <t>输入0</t>
+    <t>登录功能中用户名和密码验证</t>
   </si>
   <si>
-    <t>输入数据越界</t>
+    <t>登陆成功</t>
   </si>
   <si>
-    <t>输入1</t>
+    <t>在用户名输入 “kkk”，密码输入1234567</t>
   </si>
   <si>
-    <t>恭喜</t>
+    <t>登陆失败</t>
   </si>
   <si>
-    <t>输入 130</t>
+    <t>输入空调温度</t>
   </si>
   <si>
-    <t>输入 131</t>
+    <t>输入 0</t>
+  </si>
+  <si>
+    <t>设置失败，自动设置为28度</t>
+  </si>
+  <si>
+    <t>输入 28</t>
+  </si>
+  <si>
+    <t>设置成功</t>
+  </si>
+  <si>
+    <t>输入 35</t>
+  </si>
+  <si>
+    <t>灯-设备控制页面</t>
+  </si>
+  <si>
+    <t>点击选择模式框，点击暖光灯按钮</t>
+  </si>
+  <si>
+    <t>弹窗显示成功</t>
+  </si>
+  <si>
+    <t>点击选择模式框，点击冷光灯按钮</t>
+  </si>
+  <si>
+    <t>关灯情况下，点击开关按钮</t>
+  </si>
+  <si>
+    <t>弹窗显示灯已打开</t>
+  </si>
+  <si>
+    <t>开灯情况下，点击开关按钮</t>
+  </si>
+  <si>
+    <t>弹窗显示灯已关闭</t>
+  </si>
+  <si>
+    <t>空调-设备控制页面</t>
+  </si>
+  <si>
+    <t>点击选择模式框，点击制热按钮</t>
+  </si>
+  <si>
+    <t>点击选择模式框，点击制冷按钮</t>
+  </si>
+  <si>
+    <t>点击选择模式框，点击除湿按钮</t>
+  </si>
+  <si>
+    <t>点击选择模式框，点击送风按钮</t>
+  </si>
+  <si>
+    <t>点击选择模式框，点击睡眠按钮</t>
+  </si>
+  <si>
+    <t>关空调情况下，点击开关按钮</t>
+  </si>
+  <si>
+    <t>弹窗显示空调已打开</t>
+  </si>
+  <si>
+    <t>开空调情况下，点击开关按钮</t>
+  </si>
+  <si>
+    <t>弹窗显示空调已关闭</t>
+  </si>
+  <si>
+    <t>空调开启情况下，在定时界面选择一分钟</t>
+  </si>
+  <si>
+    <t>一分钟后，空调自动关闭</t>
+  </si>
+  <si>
+    <t>空调关闭情况下，在定时界面选择一分钟</t>
+  </si>
+  <si>
+    <t>一分钟后，空调自动开启</t>
+  </si>
+  <si>
+    <t>加湿器-设备控制页面</t>
+  </si>
+  <si>
+    <t>调整湿度至0-100</t>
+  </si>
+  <si>
+    <t>关加湿器情况下，点击开关按钮</t>
+  </si>
+  <si>
+    <t>弹窗显示加湿器已打开</t>
+  </si>
+  <si>
+    <t>开加湿器情况下，点击开关按钮</t>
+  </si>
+  <si>
+    <t>弹窗显示加湿器已关闭</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
   <numFmts count="9">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
@@ -420,34 +532,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -461,14 +545,6 @@
       <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -511,9 +587,19 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <name val="ＭＳ Ｐゴシック"/>
+      <color theme="3"/>
+      <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <b/>
@@ -522,11 +608,6 @@
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="8"/>
-      <name val="Times New Roman"/>
-      <charset val="134"/>
     </font>
     <font>
       <b/>
@@ -568,10 +649,41 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Times New Roman"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="10"/>
@@ -636,55 +748,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -702,31 +772,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -750,6 +808,18 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -762,7 +832,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -786,7 +880,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -805,6 +911,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -892,21 +1004,6 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
@@ -935,6 +1032,21 @@
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1004,156 +1116,156 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="23" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="23" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="23" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="9" fontId="23" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="41" fontId="23" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="23" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="23" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="4" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="23" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="9" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="5" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="6" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="6" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="7" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="6" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="27" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="13" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="39" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="14" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="0"/>
+    <xf numFmtId="177" fontId="43" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="24" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="15" fontId="45" fillId="0" borderId="0"/>
@@ -1163,11 +1275,11 @@
     <xf numFmtId="0" fontId="46" fillId="0" borderId="3">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="47" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
@@ -1183,20 +1295,20 @@
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="50" fillId="0" borderId="0"/>
-    <xf numFmtId="178" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="178" fontId="43" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="51" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="179" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="180" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="179" fontId="43" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="180" fontId="43" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="88">
+  <cellXfs count="87">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="62" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="22" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="50" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="62" applyFont="1" applyAlignment="1">
@@ -1206,10 +1318,10 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="62" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="22" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="50" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="22" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="50" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="62" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1245,11 +1357,11 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="62" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="62" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="62" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -1257,10 +1369,10 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="62" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="22" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="50" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="22" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="50" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="62" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1277,13 +1389,13 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="22" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="50" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="22" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="50" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="22" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="50" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="61" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1299,16 +1411,16 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="22" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="50" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="2" xfId="22" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="2" xfId="50" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="3" xfId="22" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="3" xfId="50" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="4" xfId="22" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="4" xfId="50" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="61" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1317,28 +1429,22 @@
     <xf numFmtId="14" fontId="1" fillId="0" borderId="2" xfId="61" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="3" xfId="61" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="4" xfId="61" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="2" xfId="61" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="2" xfId="62" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="22" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="50" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="2" xfId="22" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="2" xfId="50" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="3" xfId="22" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="3" xfId="50" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="4" xfId="22" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="4" xfId="50" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1354,7 +1460,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="66" applyFill="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="41" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="53" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="65" applyFont="1" applyAlignment="1">
@@ -1363,50 +1469,50 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="65" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="43" applyFont="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="54" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="43" applyFont="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="54" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="43" applyFont="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="54" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="63" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="43" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="54" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="43" applyFont="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="54" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="43" applyFont="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="54" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="43" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="54" applyFont="1" applyAlignment="1">
       <alignment horizontal="centerContinuous" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="43" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="54" applyFont="1" applyAlignment="1">
       <alignment horizontal="centerContinuous" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="41" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="53" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="41" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="53" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="41" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="53" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="41" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="53" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="43" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="54" applyFont="1" applyAlignment="1">
       <alignment horizontal="centerContinuous" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="43" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="54" applyFont="1" applyAlignment="1">
       <alignment horizontal="centerContinuous" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="12" fillId="0" borderId="0" xfId="43" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="12" fillId="0" borderId="0" xfId="54" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="centerContinuous" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="65" applyFont="1" applyAlignment="1">
@@ -1436,78 +1542,81 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="5" xfId="65" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="distributed" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="14" fontId="8" fillId="0" borderId="5" xfId="65" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="65" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="43" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="54" applyFont="1" applyAlignment="1">
       <alignment horizontal="centerContinuous" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="43" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="54" applyFont="1" applyAlignment="1">
       <alignment horizontal="centerContinuous" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="43" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="54" applyFont="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="43" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="54" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="77">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
+    <cellStyle name="货币" xfId="2" builtinId="4"/>
+    <cellStyle name="百分比" xfId="3" builtinId="5"/>
+    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
+    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
+    <cellStyle name="超链接" xfId="6" builtinId="8"/>
+    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
+    <cellStyle name="注释" xfId="8" builtinId="10"/>
+    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
+    <cellStyle name="标题" xfId="10" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
+    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
     <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="Calc Currency (0)" xfId="18"/>
-    <cellStyle name="解释性文本" xfId="19" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="20" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="21" builtinId="17"/>
-    <cellStyle name="標準_00 クラス一覧(アプリケーション)_【36G3C9-002】メーター詳細設計書　Rev1.0_メーター単体試験仕様書_２．１０初期設定データクラス（CCSvShoKiSetti）コピー" xfId="22"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="23" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="24" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="25" builtinId="44"/>
-    <cellStyle name="输出" xfId="26" builtinId="21"/>
-    <cellStyle name="Normal_#10-Headcount" xfId="27"/>
-    <cellStyle name="计算" xfId="28" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="29" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="30" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="31" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="32" builtinId="24"/>
-    <cellStyle name="汇总" xfId="33" builtinId="25"/>
-    <cellStyle name="好" xfId="34" builtinId="26"/>
-    <cellStyle name="适中" xfId="35" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="36" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="37" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="38" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="39" builtinId="31"/>
-    <cellStyle name="桁区切り_(D)日程計画" xfId="40"/>
-    <cellStyle name="常规_SEP裁剪工作表" xfId="41"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="42" builtinId="34"/>
-    <cellStyle name="常规_封页" xfId="43"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="44" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="45" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="46" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="47" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="48" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="49" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="50" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="51" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="52" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="53" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="54" builtinId="52"/>
+    <cellStyle name="输入" xfId="16" builtinId="20"/>
+    <cellStyle name="输出" xfId="17" builtinId="21"/>
+    <cellStyle name="计算" xfId="18" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
+    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="好" xfId="22" builtinId="26"/>
+    <cellStyle name="差" xfId="23" builtinId="27"/>
+    <cellStyle name="适中" xfId="24" builtinId="28"/>
+    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
+    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
+    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
+    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
+    <cellStyle name="Calc Currency (0)" xfId="49"/>
+    <cellStyle name="標準_00 クラス一覧(アプリケーション)_【36G3C9-002】メーター詳細設計書　Rev1.0_メーター単体試験仕様書_２．１０初期設定データクラス（CCSvShoKiSetti）コピー" xfId="50"/>
+    <cellStyle name="Normal_#10-Headcount" xfId="51"/>
+    <cellStyle name="桁区切り_(D)日程計画" xfId="52"/>
+    <cellStyle name="常规_SEP裁剪工作表" xfId="53"/>
+    <cellStyle name="常规_封页" xfId="54"/>
     <cellStyle name="Date" xfId="55"/>
     <cellStyle name="Header1" xfId="56"/>
     <cellStyle name="Header2" xfId="57"/>
@@ -1564,8 +1673,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="4404360" y="266700"/>
-          <a:ext cx="1573530" cy="304800"/>
+          <a:off x="4288155" y="266700"/>
+          <a:ext cx="1543685" cy="304800"/>
           <a:chOff x="2352" y="4130"/>
           <a:chExt cx="2399" cy="459"/>
         </a:xfrm>
@@ -8011,8 +8120,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8166100" y="142875"/>
-          <a:ext cx="1682115" cy="381000"/>
+          <a:off x="7953375" y="142875"/>
+          <a:ext cx="1636395" cy="381000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -8470,332 +8579,342 @@
   <sheetPr/>
   <dimension ref="A1:I56"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A17" workbookViewId="0">
-      <selection activeCell="K33" sqref="K33"/>
+    <sheetView showGridLines="0" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="E37" sqref="E37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8" defaultRowHeight="15.35"/>
+  <sheetFormatPr defaultColWidth="8" defaultRowHeight="15.5"/>
   <cols>
-    <col min="1" max="1" width="9.2212389380531" style="58" customWidth="1"/>
-    <col min="2" max="4" width="9.66371681415929" style="58" customWidth="1"/>
-    <col min="5" max="5" width="13.1061946902655" style="58" customWidth="1"/>
-    <col min="6" max="6" width="9.66371681415929" style="58" customWidth="1"/>
-    <col min="7" max="7" width="15.5575221238938" style="58" customWidth="1"/>
-    <col min="8" max="8" width="12.3362831858407" style="58" customWidth="1"/>
-    <col min="9" max="16384" width="8" style="58"/>
+    <col min="1" max="1" width="9.21818181818182" style="56" customWidth="1"/>
+    <col min="2" max="4" width="9.66363636363636" style="56" customWidth="1"/>
+    <col min="5" max="5" width="13.1090909090909" style="56" customWidth="1"/>
+    <col min="6" max="6" width="9.66363636363636" style="56" customWidth="1"/>
+    <col min="7" max="7" width="15.5545454545455" style="56" customWidth="1"/>
+    <col min="8" max="8" width="12.3363636363636" style="56" customWidth="1"/>
+    <col min="9" max="16384" width="8" style="56"/>
   </cols>
   <sheetData>
     <row r="1" ht="22.5" spans="1:1">
-      <c r="A1" s="59"/>
+      <c r="A1" s="57"/>
     </row>
     <row r="2" ht="25.5" customHeight="1" spans="1:1">
-      <c r="A2" s="60" t="s">
+      <c r="A2" s="58" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" s="54" customFormat="1" ht="22.5" spans="1:9">
-      <c r="A3" s="61" t="s">
+    <row r="3" s="52" customFormat="1" ht="22.5" spans="1:9">
+      <c r="A3" s="59" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="62"/>
-      <c r="C3" s="61"/>
-      <c r="D3" s="62"/>
-      <c r="E3" s="62"/>
-      <c r="F3" s="62"/>
-      <c r="G3" s="62"/>
-      <c r="H3" s="62"/>
-      <c r="I3" s="62"/>
+      <c r="B3" s="60"/>
+      <c r="C3" s="59"/>
+      <c r="D3" s="60"/>
+      <c r="E3" s="60"/>
+      <c r="F3" s="60"/>
+      <c r="G3" s="60"/>
+      <c r="H3" s="60"/>
+      <c r="I3" s="60"/>
     </row>
-    <row r="4" ht="17.6" spans="1:1">
-      <c r="A4" s="63" t="s">
+    <row r="4" ht="17.5" spans="1:1">
+      <c r="A4" s="61" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="5" ht="17.6" spans="1:1">
-      <c r="A5" s="64"/>
+    <row r="5" ht="18" spans="1:1">
+      <c r="A5" s="62"/>
     </row>
-    <row r="6" ht="17.6" spans="1:1">
-      <c r="A6" s="64"/>
+    <row r="6" ht="18" spans="1:1">
+      <c r="A6" s="62"/>
     </row>
-    <row r="7" ht="17.6" spans="1:1">
-      <c r="A7" s="64"/>
+    <row r="7" ht="18" spans="1:1">
+      <c r="A7" s="62"/>
     </row>
-    <row r="8" ht="17.6" spans="1:1">
-      <c r="A8" s="64"/>
+    <row r="8" ht="18" spans="1:1">
+      <c r="A8" s="62"/>
     </row>
     <row r="9" ht="9.75" customHeight="1" spans="1:1">
-      <c r="A9" s="64"/>
+      <c r="A9" s="62"/>
     </row>
-    <row r="10" ht="17.6" spans="1:1">
-      <c r="A10" s="64"/>
+    <row r="10" ht="18" spans="1:1">
+      <c r="A10" s="62"/>
     </row>
-    <row r="11" ht="17.6" spans="1:1">
-      <c r="A11" s="64"/>
+    <row r="11" ht="18" spans="1:1">
+      <c r="A11" s="62"/>
     </row>
-    <row r="12" ht="17.6" spans="1:1">
-      <c r="A12" s="64"/>
+    <row r="12" ht="18" spans="1:1">
+      <c r="A12" s="62"/>
     </row>
-    <row r="13" ht="17.6" spans="1:1">
-      <c r="A13" s="64"/>
+    <row r="13" ht="18" spans="1:1">
+      <c r="A13" s="62"/>
     </row>
-    <row r="14" ht="17.6" spans="1:1">
-      <c r="A14" s="64"/>
+    <row r="14" ht="18" spans="1:1">
+      <c r="A14" s="62"/>
     </row>
-    <row r="15" ht="17.6" spans="1:8">
-      <c r="A15" s="65"/>
-      <c r="B15" s="66"/>
-      <c r="C15" s="66"/>
-      <c r="D15" s="66"/>
-      <c r="E15" s="66"/>
-      <c r="F15" s="66"/>
-      <c r="G15" s="66"/>
-      <c r="H15" s="66"/>
+    <row r="15" ht="18" spans="1:8">
+      <c r="A15" s="63"/>
+      <c r="B15" s="64"/>
+      <c r="C15" s="64"/>
+      <c r="D15" s="64"/>
+      <c r="E15" s="64"/>
+      <c r="F15" s="64"/>
+      <c r="G15" s="64"/>
+      <c r="H15" s="64"/>
     </row>
-    <row r="16" s="55" customFormat="1" ht="46.1" spans="1:8">
-      <c r="A16" s="67" t="s">
+    <row r="16" s="53" customFormat="1" ht="45.5" spans="1:8">
+      <c r="A16" s="65" t="s">
         <v>3</v>
       </c>
-      <c r="B16" s="67"/>
-      <c r="C16" s="67"/>
-      <c r="D16" s="67"/>
-      <c r="E16" s="67"/>
-      <c r="F16" s="67"/>
-      <c r="G16" s="67"/>
-      <c r="H16" s="67"/>
+      <c r="B16" s="65"/>
+      <c r="C16" s="65"/>
+      <c r="D16" s="65"/>
+      <c r="E16" s="65"/>
+      <c r="F16" s="65"/>
+      <c r="G16" s="65"/>
+      <c r="H16" s="65"/>
     </row>
-    <row r="17" s="55" customFormat="1" ht="15.75" spans="1:8">
-      <c r="A17" s="68"/>
-      <c r="B17" s="69"/>
-      <c r="C17" s="70"/>
-      <c r="D17" s="70"/>
-      <c r="E17" s="70"/>
-      <c r="F17" s="70"/>
-      <c r="G17" s="70"/>
-      <c r="H17" s="70"/>
+    <row r="17" s="53" customFormat="1" spans="1:8">
+      <c r="A17" s="66"/>
+      <c r="B17" s="67"/>
+      <c r="C17" s="68"/>
+      <c r="D17" s="68"/>
+      <c r="E17" s="68"/>
+      <c r="F17" s="68"/>
+      <c r="G17" s="68"/>
+      <c r="H17" s="68"/>
     </row>
-    <row r="18" ht="53.6" spans="1:8">
-      <c r="A18" s="71" t="s">
+    <row r="18" ht="53.5" spans="1:8">
+      <c r="A18" s="69" t="s">
         <v>4</v>
       </c>
-      <c r="B18" s="66"/>
-      <c r="C18" s="66"/>
-      <c r="D18" s="66"/>
-      <c r="E18" s="66"/>
-      <c r="F18" s="66"/>
-      <c r="G18" s="66"/>
-      <c r="H18" s="66"/>
+      <c r="B18" s="64"/>
+      <c r="C18" s="64"/>
+      <c r="D18" s="64"/>
+      <c r="E18" s="64"/>
+      <c r="F18" s="64"/>
+      <c r="G18" s="64"/>
+      <c r="H18" s="64"/>
     </row>
-    <row r="19" ht="17.6" spans="1:8">
-      <c r="A19" s="65"/>
-      <c r="B19" s="66"/>
-      <c r="C19" s="66"/>
-      <c r="D19" s="66"/>
-      <c r="E19" s="66"/>
-      <c r="F19" s="66"/>
-      <c r="G19" s="66"/>
-      <c r="H19" s="66"/>
+    <row r="19" ht="18" spans="1:8">
+      <c r="A19" s="63"/>
+      <c r="B19" s="64"/>
+      <c r="C19" s="64"/>
+      <c r="D19" s="64"/>
+      <c r="E19" s="64"/>
+      <c r="F19" s="64"/>
+      <c r="G19" s="64"/>
+      <c r="H19" s="64"/>
     </row>
-    <row r="20" ht="45.75" spans="1:8">
-      <c r="A20" s="72"/>
-      <c r="B20" s="66"/>
-      <c r="C20" s="66"/>
-      <c r="D20" s="66"/>
-      <c r="E20" s="66"/>
-      <c r="F20" s="66"/>
-      <c r="G20" s="66"/>
-      <c r="H20" s="66"/>
+    <row r="20" ht="46" spans="1:8">
+      <c r="A20" s="70"/>
+      <c r="B20" s="64"/>
+      <c r="C20" s="64"/>
+      <c r="D20" s="64"/>
+      <c r="E20" s="64"/>
+      <c r="F20" s="64"/>
+      <c r="G20" s="64"/>
+      <c r="H20" s="64"/>
     </row>
-    <row r="21" ht="17.6" spans="1:8">
-      <c r="A21" s="73"/>
-      <c r="B21" s="66"/>
-      <c r="C21" s="66"/>
-      <c r="D21" s="66"/>
-      <c r="E21" s="66"/>
-      <c r="F21" s="66"/>
-      <c r="G21" s="66"/>
-      <c r="H21" s="66"/>
+    <row r="21" ht="18" spans="1:8">
+      <c r="A21" s="71"/>
+      <c r="B21" s="64"/>
+      <c r="C21" s="64"/>
+      <c r="D21" s="64"/>
+      <c r="E21" s="64"/>
+      <c r="F21" s="64"/>
+      <c r="G21" s="64"/>
+      <c r="H21" s="64"/>
     </row>
     <row r="22" ht="22.2" customHeight="1" spans="1:8">
-      <c r="A22" s="74" t="s">
+      <c r="A22" s="72" t="s">
         <v>5</v>
       </c>
-      <c r="B22" s="75"/>
-      <c r="C22" s="75"/>
-      <c r="D22" s="75"/>
-      <c r="E22" s="75"/>
-      <c r="F22" s="75"/>
-      <c r="G22" s="75"/>
-      <c r="H22" s="75"/>
+      <c r="B22" s="73"/>
+      <c r="C22" s="73"/>
+      <c r="D22" s="73"/>
+      <c r="E22" s="73"/>
+      <c r="F22" s="73"/>
+      <c r="G22" s="73"/>
+      <c r="H22" s="73"/>
     </row>
-    <row r="23" ht="17.6" spans="1:8">
-      <c r="A23" s="65"/>
-      <c r="B23" s="66"/>
-      <c r="C23" s="66"/>
-      <c r="D23" s="66"/>
-      <c r="E23" s="66"/>
-      <c r="F23" s="66"/>
-      <c r="G23" s="66"/>
-      <c r="H23" s="66"/>
+    <row r="23" ht="18" spans="1:8">
+      <c r="A23" s="63"/>
+      <c r="B23" s="64"/>
+      <c r="C23" s="64"/>
+      <c r="D23" s="64"/>
+      <c r="E23" s="64"/>
+      <c r="F23" s="64"/>
+      <c r="G23" s="64"/>
+      <c r="H23" s="64"/>
     </row>
     <row r="24" ht="18" customHeight="1" spans="1:8">
-      <c r="A24" s="65"/>
-      <c r="B24" s="66"/>
-      <c r="C24" s="66"/>
-      <c r="D24" s="66"/>
-      <c r="E24" s="66"/>
-      <c r="F24" s="66"/>
-      <c r="G24" s="66"/>
-      <c r="H24" s="66"/>
+      <c r="A24" s="63"/>
+      <c r="B24" s="64"/>
+      <c r="C24" s="64"/>
+      <c r="D24" s="64"/>
+      <c r="E24" s="64"/>
+      <c r="F24" s="64"/>
+      <c r="G24" s="64"/>
+      <c r="H24" s="64"/>
     </row>
     <row r="25" ht="18" customHeight="1" spans="1:8">
-      <c r="A25" s="65"/>
-      <c r="B25" s="66"/>
-      <c r="C25" s="66"/>
-      <c r="D25" s="66"/>
-      <c r="E25" s="66"/>
-      <c r="F25" s="66"/>
-      <c r="G25" s="66"/>
-      <c r="H25" s="66"/>
+      <c r="A25" s="63"/>
+      <c r="B25" s="64"/>
+      <c r="C25" s="64"/>
+      <c r="D25" s="64"/>
+      <c r="E25" s="64"/>
+      <c r="F25" s="64"/>
+      <c r="G25" s="64"/>
+      <c r="H25" s="64"/>
     </row>
     <row r="26" ht="18" customHeight="1" spans="1:8">
-      <c r="A26" s="65"/>
-      <c r="B26" s="66"/>
-      <c r="C26" s="66"/>
-      <c r="D26" s="66"/>
-      <c r="E26" s="66"/>
-      <c r="F26" s="66"/>
-      <c r="G26" s="66"/>
-      <c r="H26" s="66"/>
+      <c r="A26" s="63"/>
+      <c r="B26" s="64"/>
+      <c r="C26" s="64"/>
+      <c r="D26" s="64"/>
+      <c r="E26" s="64"/>
+      <c r="F26" s="64"/>
+      <c r="G26" s="64"/>
+      <c r="H26" s="64"/>
     </row>
     <row r="27" ht="18" customHeight="1" spans="1:8">
-      <c r="A27" s="65"/>
-      <c r="B27" s="66"/>
-      <c r="C27" s="66"/>
-      <c r="D27" s="66"/>
-      <c r="E27" s="66"/>
-      <c r="F27" s="66"/>
-      <c r="G27" s="66"/>
-      <c r="H27" s="66"/>
+      <c r="A27" s="63"/>
+      <c r="B27" s="64"/>
+      <c r="C27" s="64"/>
+      <c r="D27" s="64"/>
+      <c r="E27" s="64"/>
+      <c r="F27" s="64"/>
+      <c r="G27" s="64"/>
+      <c r="H27" s="64"/>
     </row>
     <row r="28" ht="18" customHeight="1" spans="1:8">
-      <c r="A28" s="65"/>
-      <c r="B28" s="66"/>
-      <c r="C28" s="66"/>
-      <c r="D28" s="66"/>
-      <c r="E28" s="66"/>
-      <c r="F28" s="66"/>
-      <c r="G28" s="66"/>
-      <c r="H28" s="66"/>
+      <c r="A28" s="63"/>
+      <c r="B28" s="64"/>
+      <c r="C28" s="64"/>
+      <c r="D28" s="64"/>
+      <c r="E28" s="64"/>
+      <c r="F28" s="64"/>
+      <c r="G28" s="64"/>
+      <c r="H28" s="64"/>
     </row>
-    <row r="29" s="56" customFormat="1" ht="22.2" customHeight="1" spans="1:8">
-      <c r="A29" s="76" t="s">
+    <row r="29" s="54" customFormat="1" ht="22.2" customHeight="1" spans="1:8">
+      <c r="A29" s="74" t="s">
         <v>6</v>
       </c>
-      <c r="B29" s="77"/>
-      <c r="C29" s="77"/>
-      <c r="D29" s="77"/>
-      <c r="E29" s="77"/>
-      <c r="F29" s="77"/>
-      <c r="G29" s="77"/>
-      <c r="H29" s="77"/>
+      <c r="B29" s="75"/>
+      <c r="C29" s="75"/>
+      <c r="D29" s="75"/>
+      <c r="E29" s="75"/>
+      <c r="F29" s="75"/>
+      <c r="G29" s="75"/>
+      <c r="H29" s="75"/>
     </row>
-    <row r="30" s="56" customFormat="1" spans="1:8">
-      <c r="A30" s="78"/>
-      <c r="B30" s="57"/>
-      <c r="C30" s="57"/>
-      <c r="D30" s="57"/>
-      <c r="E30" s="57"/>
-      <c r="F30" s="57"/>
-      <c r="G30" s="57"/>
-      <c r="H30" s="57"/>
+    <row r="30" s="54" customFormat="1" spans="1:8">
+      <c r="A30" s="76"/>
+      <c r="B30" s="55"/>
+      <c r="C30" s="55"/>
+      <c r="D30" s="55"/>
+      <c r="E30" s="55"/>
+      <c r="F30" s="55"/>
+      <c r="G30" s="55"/>
+      <c r="H30" s="55"/>
     </row>
-    <row r="31" s="56" customFormat="1" spans="1:8">
-      <c r="A31" s="78"/>
-      <c r="B31" s="57"/>
-      <c r="C31" s="57"/>
-      <c r="D31" s="57"/>
-      <c r="E31" s="57"/>
-      <c r="F31" s="57"/>
-      <c r="G31" s="57"/>
-      <c r="H31" s="57"/>
+    <row r="31" s="54" customFormat="1" spans="1:8">
+      <c r="A31" s="76"/>
+      <c r="B31" s="55"/>
+      <c r="C31" s="55"/>
+      <c r="D31" s="55"/>
+      <c r="E31" s="55"/>
+      <c r="F31" s="55"/>
+      <c r="G31" s="55"/>
+      <c r="H31" s="55"/>
     </row>
-    <row r="32" s="56" customFormat="1" spans="1:8">
-      <c r="A32" s="78"/>
-      <c r="B32" s="57"/>
-      <c r="C32" s="57"/>
-      <c r="D32" s="57"/>
-      <c r="E32" s="57"/>
-      <c r="F32" s="57"/>
-      <c r="G32" s="57"/>
-      <c r="H32" s="57"/>
+    <row r="32" s="54" customFormat="1" spans="1:8">
+      <c r="A32" s="76"/>
+      <c r="B32" s="55"/>
+      <c r="C32" s="55"/>
+      <c r="D32" s="55"/>
+      <c r="E32" s="55"/>
+      <c r="F32" s="55"/>
+      <c r="G32" s="55"/>
+      <c r="H32" s="55"/>
     </row>
-    <row r="33" s="57" customFormat="1" ht="30" customHeight="1" spans="1:8">
-      <c r="A33" s="79" t="s">
+    <row r="33" s="55" customFormat="1" ht="30" customHeight="1" spans="1:8">
+      <c r="A33" s="77" t="s">
         <v>7</v>
       </c>
-      <c r="B33" s="80"/>
-      <c r="C33" s="79" t="s">
+      <c r="B33" s="78">
+        <v>1</v>
+      </c>
+      <c r="C33" s="77" t="s">
         <v>8</v>
       </c>
-      <c r="D33" s="80"/>
-      <c r="E33" s="79" t="s">
+      <c r="D33" s="78">
+        <v>1</v>
+      </c>
+      <c r="E33" s="77" t="s">
         <v>9</v>
       </c>
-      <c r="F33" s="81"/>
-      <c r="G33" s="82" t="s">
+      <c r="F33" s="79">
+        <v>0</v>
+      </c>
+      <c r="G33" s="80" t="s">
         <v>10</v>
       </c>
-      <c r="H33" s="80"/>
+      <c r="H33" s="81">
+        <v>45155</v>
+      </c>
     </row>
-    <row r="34" s="57" customFormat="1" ht="29.25" customHeight="1" spans="1:8">
-      <c r="A34" s="79" t="s">
+    <row r="34" s="55" customFormat="1" ht="29.25" customHeight="1" spans="1:8">
+      <c r="A34" s="77" t="s">
         <v>11</v>
       </c>
-      <c r="B34" s="83"/>
-      <c r="C34" s="80"/>
-      <c r="D34" s="80"/>
-      <c r="E34" s="79" t="s">
+      <c r="B34" s="82" t="s">
         <v>12</v>
       </c>
-      <c r="F34" s="83"/>
-      <c r="G34" s="80"/>
-      <c r="H34" s="80"/>
+      <c r="C34" s="78"/>
+      <c r="D34" s="78"/>
+      <c r="E34" s="77" t="s">
+        <v>13</v>
+      </c>
+      <c r="F34" s="82"/>
+      <c r="G34" s="78"/>
+      <c r="H34" s="78"/>
     </row>
-    <row r="35" ht="17.6" spans="1:8">
-      <c r="A35" s="65"/>
-      <c r="B35" s="66"/>
-      <c r="C35" s="66"/>
-      <c r="D35" s="66"/>
-      <c r="E35" s="66"/>
-      <c r="F35" s="66"/>
-      <c r="G35" s="66"/>
-      <c r="H35" s="66"/>
+    <row r="35" ht="18" spans="1:8">
+      <c r="A35" s="63"/>
+      <c r="B35" s="64"/>
+      <c r="C35" s="64"/>
+      <c r="D35" s="64"/>
+      <c r="E35" s="64"/>
+      <c r="F35" s="64"/>
+      <c r="G35" s="64"/>
+      <c r="H35" s="64"/>
     </row>
-    <row r="36" ht="19.1" spans="1:8">
-      <c r="A36" s="84"/>
-      <c r="B36" s="66"/>
-      <c r="C36" s="66"/>
-      <c r="D36" s="66"/>
-      <c r="E36" s="66"/>
-      <c r="F36" s="66"/>
-      <c r="G36" s="66"/>
-      <c r="H36" s="66"/>
+    <row r="36" ht="19" spans="1:8">
+      <c r="A36" s="83"/>
+      <c r="B36" s="64"/>
+      <c r="C36" s="64"/>
+      <c r="D36" s="64"/>
+      <c r="E36" s="64"/>
+      <c r="F36" s="64"/>
+      <c r="G36" s="64"/>
+      <c r="H36" s="64"/>
     </row>
-    <row r="37" ht="18.75" spans="1:8">
-      <c r="A37" s="85"/>
-      <c r="B37" s="66"/>
-      <c r="C37" s="66"/>
-      <c r="D37" s="66"/>
-      <c r="E37" s="66"/>
-      <c r="F37" s="66"/>
-      <c r="G37" s="66"/>
-      <c r="H37" s="66"/>
+    <row r="37" ht="19" spans="1:8">
+      <c r="A37" s="84"/>
+      <c r="B37" s="64"/>
+      <c r="C37" s="64"/>
+      <c r="D37" s="64"/>
+      <c r="E37" s="64"/>
+      <c r="F37" s="64"/>
+      <c r="G37" s="64"/>
+      <c r="H37" s="64"/>
     </row>
-    <row r="55" ht="13.1" spans="1:1">
-      <c r="A55" s="86"/>
+    <row r="55" ht="13.5" spans="1:1">
+      <c r="A55" s="85"/>
     </row>
     <row r="56" ht="13.5" spans="1:1">
-      <c r="A56" s="87"/>
+      <c r="A56" s="86"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -8813,24 +8932,24 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="B1:BB209"/>
+  <dimension ref="B1:BB213"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="4" topLeftCell="A38" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="AM6" sqref="AM6:AP6"/>
+      <selection pane="bottomLeft" activeCell="AU34" sqref="AU34:AX34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="2.66371681415929" defaultRowHeight="12"/>
+  <sheetFormatPr defaultColWidth="2.66363636363636" defaultRowHeight="12"/>
   <cols>
-    <col min="1" max="20" width="2.66371681415929" style="4" customWidth="1"/>
-    <col min="21" max="21" width="2.33628318584071" style="4" customWidth="1"/>
-    <col min="22" max="16384" width="2.66371681415929" style="4"/>
+    <col min="1" max="20" width="2.66363636363636" style="4" customWidth="1"/>
+    <col min="21" max="21" width="2.33636363636364" style="4" customWidth="1"/>
+    <col min="22" max="16384" width="2.66363636363636" style="4"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" ht="45" customHeight="1" spans="2:53">
       <c r="B1" s="5" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C1" s="5"/>
       <c r="D1" s="5"/>
@@ -8886,7 +9005,7 @@
     </row>
     <row r="2" s="2" customFormat="1" ht="20.1" customHeight="1" spans="2:54">
       <c r="B2" s="6" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C2" s="7"/>
       <c r="D2" s="7"/>
@@ -8905,14 +9024,14 @@
       <c r="Q2" s="7"/>
       <c r="R2" s="7"/>
       <c r="S2" s="6" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="T2" s="7"/>
       <c r="U2" s="7"/>
       <c r="V2" s="7"/>
       <c r="W2" s="23"/>
       <c r="X2" s="24" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="Y2" s="29"/>
       <c r="Z2" s="29"/>
@@ -8943,11 +9062,11 @@
       <c r="AY2" s="29"/>
       <c r="AZ2" s="29"/>
       <c r="BA2" s="29"/>
-      <c r="BB2" s="46"/>
+      <c r="BB2" s="44"/>
     </row>
     <row r="3" s="3" customFormat="1" ht="20.1" customHeight="1" spans="2:54">
       <c r="B3" s="8" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C3" s="9"/>
       <c r="D3" s="10"/>
@@ -8966,7 +9085,7 @@
       <c r="Q3" s="12"/>
       <c r="R3" s="25"/>
       <c r="S3" s="8" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="T3" s="9"/>
       <c r="U3" s="10"/>
@@ -8988,7 +9107,7 @@
       <c r="AK3" s="17"/>
       <c r="AL3" s="18"/>
       <c r="AM3" s="30" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AN3" s="31"/>
       <c r="AO3" s="31"/>
@@ -8998,24 +9117,24 @@
       <c r="AS3" s="38"/>
       <c r="AT3" s="39"/>
       <c r="AU3" s="30" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AV3" s="31"/>
       <c r="AW3" s="31"/>
       <c r="AX3" s="36"/>
-      <c r="AY3" s="47"/>
-      <c r="AZ3" s="48"/>
-      <c r="BA3" s="48"/>
-      <c r="BB3" s="49"/>
+      <c r="AY3" s="45"/>
+      <c r="AZ3" s="46"/>
+      <c r="BA3" s="46"/>
+      <c r="BB3" s="47"/>
     </row>
     <row r="4" s="1" customFormat="1" ht="20.1" customHeight="1" spans="2:54">
       <c r="B4" s="13" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C4" s="14"/>
       <c r="D4" s="15"/>
       <c r="E4" s="13" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F4" s="14"/>
       <c r="G4" s="14"/>
@@ -9034,7 +9153,7 @@
       <c r="T4" s="14"/>
       <c r="U4" s="15"/>
       <c r="V4" s="13" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="W4" s="14"/>
       <c r="X4" s="14"/>
@@ -9053,25 +9172,25 @@
       <c r="AK4" s="14"/>
       <c r="AL4" s="15"/>
       <c r="AM4" s="30" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AN4" s="31"/>
       <c r="AO4" s="31"/>
       <c r="AP4" s="36"/>
       <c r="AQ4" s="30" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AR4" s="31"/>
       <c r="AS4" s="31"/>
       <c r="AT4" s="36"/>
       <c r="AU4" s="30" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AV4" s="31"/>
       <c r="AW4" s="31"/>
       <c r="AX4" s="36"/>
       <c r="AY4" s="31" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AZ4" s="31"/>
       <c r="BA4" s="31"/>
@@ -9079,7 +9198,7 @@
     </row>
     <row r="5" s="1" customFormat="1" ht="20.1" customHeight="1" spans="2:54">
       <c r="B5" s="11" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C5" s="12"/>
       <c r="D5" s="12"/>
@@ -9141,7 +9260,7 @@
       <c r="C6" s="17"/>
       <c r="D6" s="18"/>
       <c r="E6" s="11" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F6" s="12"/>
       <c r="G6" s="12"/>
@@ -9160,7 +9279,7 @@
       <c r="T6" s="12"/>
       <c r="U6" s="25"/>
       <c r="V6" s="11" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="W6" s="12"/>
       <c r="X6" s="12"/>
@@ -9178,11 +9297,15 @@
       <c r="AJ6" s="12"/>
       <c r="AK6" s="12"/>
       <c r="AL6" s="25"/>
-      <c r="AM6" s="32"/>
+      <c r="AM6" s="32" t="s">
+        <v>31</v>
+      </c>
       <c r="AN6" s="33"/>
       <c r="AO6" s="33"/>
       <c r="AP6" s="40"/>
-      <c r="AQ6" s="41"/>
+      <c r="AQ6" s="41">
+        <v>45155</v>
+      </c>
       <c r="AR6" s="33"/>
       <c r="AS6" s="33"/>
       <c r="AT6" s="40"/>
@@ -9196,11 +9319,13 @@
       <c r="BB6" s="18"/>
     </row>
     <row r="7" s="1" customFormat="1" ht="18.75" customHeight="1" spans="2:54">
-      <c r="B7" s="16"/>
+      <c r="B7" s="16">
+        <v>2</v>
+      </c>
       <c r="C7" s="17"/>
       <c r="D7" s="18"/>
       <c r="E7" s="11" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="F7" s="12"/>
       <c r="G7" s="12"/>
@@ -9219,7 +9344,7 @@
       <c r="T7" s="12"/>
       <c r="U7" s="25"/>
       <c r="V7" s="11" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="W7" s="12"/>
       <c r="X7" s="12"/>
@@ -9237,11 +9362,15 @@
       <c r="AJ7" s="12"/>
       <c r="AK7" s="12"/>
       <c r="AL7" s="25"/>
-      <c r="AM7" s="32"/>
+      <c r="AM7" s="32" t="s">
+        <v>31</v>
+      </c>
       <c r="AN7" s="33"/>
       <c r="AO7" s="33"/>
       <c r="AP7" s="40"/>
-      <c r="AQ7" s="41"/>
+      <c r="AQ7" s="41">
+        <v>45155</v>
+      </c>
       <c r="AR7" s="33"/>
       <c r="AS7" s="33"/>
       <c r="AT7" s="40"/>
@@ -9256,12 +9385,12 @@
     </row>
     <row r="8" s="1" customFormat="1" ht="20.1" customHeight="1" spans="2:54">
       <c r="B8" s="16">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C8" s="17"/>
       <c r="D8" s="18"/>
       <c r="E8" s="11" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="F8" s="12"/>
       <c r="G8" s="12"/>
@@ -9280,7 +9409,7 @@
       <c r="T8" s="12"/>
       <c r="U8" s="25"/>
       <c r="V8" s="11" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="W8" s="12"/>
       <c r="X8" s="12"/>
@@ -9298,11 +9427,15 @@
       <c r="AJ8" s="12"/>
       <c r="AK8" s="12"/>
       <c r="AL8" s="25"/>
-      <c r="AM8" s="32"/>
+      <c r="AM8" s="32" t="s">
+        <v>31</v>
+      </c>
       <c r="AN8" s="33"/>
       <c r="AO8" s="33"/>
       <c r="AP8" s="40"/>
-      <c r="AQ8" s="41"/>
+      <c r="AQ8" s="41">
+        <v>45155</v>
+      </c>
       <c r="AR8" s="33"/>
       <c r="AS8" s="33"/>
       <c r="AT8" s="40"/>
@@ -9316,8 +9449,8 @@
       <c r="BB8" s="18"/>
     </row>
     <row r="9" s="1" customFormat="1" ht="20.1" customHeight="1" spans="2:54">
-      <c r="B9" s="19" t="s">
-        <v>34</v>
+      <c r="B9" s="11" t="s">
+        <v>36</v>
       </c>
       <c r="C9" s="12"/>
       <c r="D9" s="12"/>
@@ -9374,12 +9507,12 @@
     </row>
     <row r="10" s="1" customFormat="1" ht="20.1" customHeight="1" spans="2:54">
       <c r="B10" s="16">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C10" s="17"/>
       <c r="D10" s="18"/>
       <c r="E10" s="11" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="F10" s="12"/>
       <c r="G10" s="12"/>
@@ -9398,7 +9531,7 @@
       <c r="T10" s="12"/>
       <c r="U10" s="25"/>
       <c r="V10" s="11" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="W10" s="12"/>
       <c r="X10" s="12"/>
@@ -9416,11 +9549,15 @@
       <c r="AJ10" s="12"/>
       <c r="AK10" s="12"/>
       <c r="AL10" s="25"/>
-      <c r="AM10" s="32"/>
+      <c r="AM10" s="32" t="s">
+        <v>31</v>
+      </c>
       <c r="AN10" s="33"/>
       <c r="AO10" s="33"/>
       <c r="AP10" s="40"/>
-      <c r="AQ10" s="41"/>
+      <c r="AQ10" s="41">
+        <v>45155</v>
+      </c>
       <c r="AR10" s="33"/>
       <c r="AS10" s="33"/>
       <c r="AT10" s="40"/>
@@ -9435,12 +9572,12 @@
     </row>
     <row r="11" s="1" customFormat="1" ht="20.1" customHeight="1" spans="2:54">
       <c r="B11" s="16">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C11" s="17"/>
       <c r="D11" s="18"/>
       <c r="E11" s="11" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F11" s="12"/>
       <c r="G11" s="12"/>
@@ -9459,7 +9596,7 @@
       <c r="T11" s="12"/>
       <c r="U11" s="25"/>
       <c r="V11" s="11" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="W11" s="12"/>
       <c r="X11" s="12"/>
@@ -9477,11 +9614,15 @@
       <c r="AJ11" s="12"/>
       <c r="AK11" s="12"/>
       <c r="AL11" s="25"/>
-      <c r="AM11" s="32"/>
+      <c r="AM11" s="32" t="s">
+        <v>31</v>
+      </c>
       <c r="AN11" s="33"/>
       <c r="AO11" s="33"/>
       <c r="AP11" s="40"/>
-      <c r="AQ11" s="41"/>
+      <c r="AQ11" s="41">
+        <v>45155</v>
+      </c>
       <c r="AR11" s="33"/>
       <c r="AS11" s="33"/>
       <c r="AT11" s="40"/>
@@ -9495,59 +9636,61 @@
       <c r="BB11" s="18"/>
     </row>
     <row r="12" s="1" customFormat="1" ht="20.1" customHeight="1" spans="2:54">
-      <c r="B12" s="11"/>
+      <c r="B12" s="11" t="s">
+        <v>40</v>
+      </c>
       <c r="C12" s="12"/>
       <c r="D12" s="12"/>
-      <c r="E12" s="20"/>
-      <c r="F12" s="20"/>
-      <c r="G12" s="20"/>
-      <c r="H12" s="20"/>
-      <c r="I12" s="20"/>
-      <c r="J12" s="20"/>
-      <c r="K12" s="20"/>
-      <c r="L12" s="20"/>
-      <c r="M12" s="20"/>
-      <c r="N12" s="20"/>
-      <c r="O12" s="20"/>
-      <c r="P12" s="20"/>
-      <c r="Q12" s="20"/>
-      <c r="R12" s="20"/>
-      <c r="S12" s="20"/>
-      <c r="T12" s="20"/>
-      <c r="U12" s="20"/>
-      <c r="V12" s="20"/>
-      <c r="W12" s="20"/>
-      <c r="X12" s="20"/>
-      <c r="Y12" s="20"/>
-      <c r="Z12" s="20"/>
-      <c r="AA12" s="20"/>
-      <c r="AB12" s="20"/>
-      <c r="AC12" s="20"/>
-      <c r="AD12" s="20"/>
-      <c r="AE12" s="20"/>
-      <c r="AF12" s="20"/>
-      <c r="AG12" s="20"/>
-      <c r="AH12" s="20"/>
-      <c r="AI12" s="20"/>
-      <c r="AJ12" s="20"/>
-      <c r="AK12" s="20"/>
-      <c r="AL12" s="20"/>
-      <c r="AM12" s="20"/>
-      <c r="AN12" s="20"/>
-      <c r="AO12" s="20"/>
-      <c r="AP12" s="20"/>
-      <c r="AQ12" s="20"/>
-      <c r="AR12" s="20"/>
-      <c r="AS12" s="20"/>
-      <c r="AT12" s="20"/>
-      <c r="AU12" s="20"/>
-      <c r="AV12" s="20"/>
-      <c r="AW12" s="20"/>
-      <c r="AX12" s="20"/>
-      <c r="AY12" s="20"/>
-      <c r="AZ12" s="20"/>
-      <c r="BA12" s="20"/>
-      <c r="BB12" s="50"/>
+      <c r="E12" s="19"/>
+      <c r="F12" s="19"/>
+      <c r="G12" s="19"/>
+      <c r="H12" s="19"/>
+      <c r="I12" s="19"/>
+      <c r="J12" s="19"/>
+      <c r="K12" s="19"/>
+      <c r="L12" s="19"/>
+      <c r="M12" s="19"/>
+      <c r="N12" s="19"/>
+      <c r="O12" s="19"/>
+      <c r="P12" s="19"/>
+      <c r="Q12" s="19"/>
+      <c r="R12" s="19"/>
+      <c r="S12" s="19"/>
+      <c r="T12" s="19"/>
+      <c r="U12" s="19"/>
+      <c r="V12" s="19"/>
+      <c r="W12" s="19"/>
+      <c r="X12" s="19"/>
+      <c r="Y12" s="19"/>
+      <c r="Z12" s="19"/>
+      <c r="AA12" s="19"/>
+      <c r="AB12" s="19"/>
+      <c r="AC12" s="19"/>
+      <c r="AD12" s="19"/>
+      <c r="AE12" s="19"/>
+      <c r="AF12" s="19"/>
+      <c r="AG12" s="19"/>
+      <c r="AH12" s="19"/>
+      <c r="AI12" s="19"/>
+      <c r="AJ12" s="19"/>
+      <c r="AK12" s="19"/>
+      <c r="AL12" s="19"/>
+      <c r="AM12" s="19"/>
+      <c r="AN12" s="19"/>
+      <c r="AO12" s="19"/>
+      <c r="AP12" s="19"/>
+      <c r="AQ12" s="19"/>
+      <c r="AR12" s="19"/>
+      <c r="AS12" s="19"/>
+      <c r="AT12" s="19"/>
+      <c r="AU12" s="19"/>
+      <c r="AV12" s="19"/>
+      <c r="AW12" s="19"/>
+      <c r="AX12" s="19"/>
+      <c r="AY12" s="19"/>
+      <c r="AZ12" s="19"/>
+      <c r="BA12" s="19"/>
+      <c r="BB12" s="48"/>
     </row>
     <row r="13" s="1" customFormat="1" ht="20.1" customHeight="1" spans="2:54">
       <c r="B13" s="16">
@@ -9556,7 +9699,7 @@
       <c r="C13" s="17"/>
       <c r="D13" s="18"/>
       <c r="E13" s="11" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="F13" s="12"/>
       <c r="G13" s="12"/>
@@ -9575,7 +9718,7 @@
       <c r="T13" s="12"/>
       <c r="U13" s="25"/>
       <c r="V13" s="11" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="W13" s="12"/>
       <c r="X13" s="12"/>
@@ -9593,11 +9736,15 @@
       <c r="AJ13" s="12"/>
       <c r="AK13" s="12"/>
       <c r="AL13" s="25"/>
-      <c r="AM13" s="32"/>
+      <c r="AM13" s="32" t="s">
+        <v>31</v>
+      </c>
       <c r="AN13" s="33"/>
       <c r="AO13" s="33"/>
       <c r="AP13" s="40"/>
-      <c r="AQ13" s="41"/>
+      <c r="AQ13" s="41">
+        <v>45155</v>
+      </c>
       <c r="AR13" s="33"/>
       <c r="AS13" s="33"/>
       <c r="AT13" s="40"/>
@@ -9617,7 +9764,7 @@
       <c r="C14" s="17"/>
       <c r="D14" s="18"/>
       <c r="E14" s="11" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="F14" s="12"/>
       <c r="G14" s="12"/>
@@ -9636,7 +9783,7 @@
       <c r="T14" s="12"/>
       <c r="U14" s="25"/>
       <c r="V14" s="11" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="W14" s="12"/>
       <c r="X14" s="12"/>
@@ -9654,11 +9801,15 @@
       <c r="AJ14" s="12"/>
       <c r="AK14" s="12"/>
       <c r="AL14" s="25"/>
-      <c r="AM14" s="32"/>
+      <c r="AM14" s="32" t="s">
+        <v>31</v>
+      </c>
       <c r="AN14" s="33"/>
       <c r="AO14" s="33"/>
       <c r="AP14" s="40"/>
-      <c r="AQ14" s="41"/>
+      <c r="AQ14" s="41">
+        <v>45155</v>
+      </c>
       <c r="AR14" s="33"/>
       <c r="AS14" s="33"/>
       <c r="AT14" s="40"/>
@@ -9672,10 +9823,14 @@
       <c r="BB14" s="18"/>
     </row>
     <row r="15" s="1" customFormat="1" ht="20.1" customHeight="1" spans="2:54">
-      <c r="B15" s="11"/>
-      <c r="C15" s="12"/>
-      <c r="D15" s="12"/>
-      <c r="E15" s="12"/>
+      <c r="B15" s="16">
+        <v>7</v>
+      </c>
+      <c r="C15" s="17"/>
+      <c r="D15" s="18"/>
+      <c r="E15" s="11" t="s">
+        <v>45</v>
+      </c>
       <c r="F15" s="12"/>
       <c r="G15" s="12"/>
       <c r="H15" s="12"/>
@@ -9691,8 +9846,10 @@
       <c r="R15" s="12"/>
       <c r="S15" s="12"/>
       <c r="T15" s="12"/>
-      <c r="U15" s="12"/>
-      <c r="V15" s="12"/>
+      <c r="U15" s="25"/>
+      <c r="V15" s="11" t="s">
+        <v>42</v>
+      </c>
       <c r="W15" s="12"/>
       <c r="X15" s="12"/>
       <c r="Y15" s="12"/>
@@ -9708,31 +9865,35 @@
       <c r="AI15" s="12"/>
       <c r="AJ15" s="12"/>
       <c r="AK15" s="12"/>
-      <c r="AL15" s="12"/>
-      <c r="AM15" s="12"/>
-      <c r="AN15" s="12"/>
-      <c r="AO15" s="12"/>
-      <c r="AP15" s="12"/>
-      <c r="AQ15" s="12"/>
-      <c r="AR15" s="12"/>
-      <c r="AS15" s="12"/>
-      <c r="AT15" s="12"/>
-      <c r="AU15" s="12"/>
-      <c r="AV15" s="12"/>
-      <c r="AW15" s="12"/>
-      <c r="AX15" s="12"/>
-      <c r="AY15" s="12"/>
-      <c r="AZ15" s="12"/>
-      <c r="BA15" s="12"/>
-      <c r="BB15" s="25"/>
+      <c r="AL15" s="25"/>
+      <c r="AM15" s="32" t="s">
+        <v>31</v>
+      </c>
+      <c r="AN15" s="33"/>
+      <c r="AO15" s="33"/>
+      <c r="AP15" s="40"/>
+      <c r="AQ15" s="41">
+        <v>45155</v>
+      </c>
+      <c r="AR15" s="33"/>
+      <c r="AS15" s="33"/>
+      <c r="AT15" s="40"/>
+      <c r="AU15" s="32"/>
+      <c r="AV15" s="33"/>
+      <c r="AW15" s="33"/>
+      <c r="AX15" s="40"/>
+      <c r="AY15" s="16"/>
+      <c r="AZ15" s="17"/>
+      <c r="BA15" s="17"/>
+      <c r="BB15" s="18"/>
     </row>
-    <row r="16" s="1" customFormat="1" ht="38.25" customHeight="1" spans="2:54">
-      <c r="B16" s="16">
-        <v>7</v>
-      </c>
-      <c r="C16" s="17"/>
-      <c r="D16" s="18"/>
-      <c r="E16" s="11"/>
+    <row r="16" s="1" customFormat="1" ht="19" customHeight="1" spans="2:54">
+      <c r="B16" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="C16" s="12"/>
+      <c r="D16" s="12"/>
+      <c r="E16" s="12"/>
       <c r="F16" s="12"/>
       <c r="G16" s="12"/>
       <c r="H16" s="12"/>
@@ -9748,8 +9909,8 @@
       <c r="R16" s="12"/>
       <c r="S16" s="12"/>
       <c r="T16" s="12"/>
-      <c r="U16" s="25"/>
-      <c r="V16" s="11"/>
+      <c r="U16" s="12"/>
+      <c r="V16" s="12"/>
       <c r="W16" s="12"/>
       <c r="X16" s="12"/>
       <c r="Y16" s="12"/>
@@ -9765,31 +9926,33 @@
       <c r="AI16" s="12"/>
       <c r="AJ16" s="12"/>
       <c r="AK16" s="12"/>
-      <c r="AL16" s="25"/>
-      <c r="AM16" s="32"/>
-      <c r="AN16" s="33"/>
-      <c r="AO16" s="33"/>
-      <c r="AP16" s="40"/>
-      <c r="AQ16" s="41"/>
-      <c r="AR16" s="33"/>
-      <c r="AS16" s="33"/>
-      <c r="AT16" s="40"/>
-      <c r="AU16" s="32"/>
-      <c r="AV16" s="33"/>
-      <c r="AW16" s="33"/>
-      <c r="AX16" s="40"/>
-      <c r="AY16" s="51"/>
-      <c r="AZ16" s="52"/>
-      <c r="BA16" s="52"/>
-      <c r="BB16" s="53"/>
+      <c r="AL16" s="12"/>
+      <c r="AM16" s="12"/>
+      <c r="AN16" s="12"/>
+      <c r="AO16" s="12"/>
+      <c r="AP16" s="12"/>
+      <c r="AQ16" s="12"/>
+      <c r="AR16" s="12"/>
+      <c r="AS16" s="12"/>
+      <c r="AT16" s="12"/>
+      <c r="AU16" s="12"/>
+      <c r="AV16" s="12"/>
+      <c r="AW16" s="12"/>
+      <c r="AX16" s="12"/>
+      <c r="AY16" s="12"/>
+      <c r="AZ16" s="12"/>
+      <c r="BA16" s="12"/>
+      <c r="BB16" s="25"/>
     </row>
-    <row r="17" s="1" customFormat="1" ht="20.1" customHeight="1" spans="2:54">
+    <row r="17" s="1" customFormat="1" ht="24" customHeight="1" spans="2:54">
       <c r="B17" s="16">
         <v>8</v>
       </c>
       <c r="C17" s="17"/>
       <c r="D17" s="18"/>
-      <c r="E17" s="11"/>
+      <c r="E17" s="11" t="s">
+        <v>47</v>
+      </c>
       <c r="F17" s="12"/>
       <c r="G17" s="12"/>
       <c r="H17" s="12"/>
@@ -9806,7 +9969,9 @@
       <c r="S17" s="12"/>
       <c r="T17" s="12"/>
       <c r="U17" s="25"/>
-      <c r="V17" s="11"/>
+      <c r="V17" s="11" t="s">
+        <v>48</v>
+      </c>
       <c r="W17" s="12"/>
       <c r="X17" s="12"/>
       <c r="Y17" s="12"/>
@@ -9823,11 +9988,15 @@
       <c r="AJ17" s="12"/>
       <c r="AK17" s="12"/>
       <c r="AL17" s="25"/>
-      <c r="AM17" s="32"/>
+      <c r="AM17" s="32" t="s">
+        <v>31</v>
+      </c>
       <c r="AN17" s="33"/>
       <c r="AO17" s="33"/>
       <c r="AP17" s="40"/>
-      <c r="AQ17" s="41"/>
+      <c r="AQ17" s="41">
+        <v>45155</v>
+      </c>
       <c r="AR17" s="33"/>
       <c r="AS17" s="33"/>
       <c r="AT17" s="40"/>
@@ -9835,10 +10004,10 @@
       <c r="AV17" s="33"/>
       <c r="AW17" s="33"/>
       <c r="AX17" s="40"/>
-      <c r="AY17" s="16"/>
-      <c r="AZ17" s="17"/>
-      <c r="BA17" s="17"/>
-      <c r="BB17" s="18"/>
+      <c r="AY17" s="49"/>
+      <c r="AZ17" s="50"/>
+      <c r="BA17" s="50"/>
+      <c r="BB17" s="51"/>
     </row>
     <row r="18" s="1" customFormat="1" ht="20.1" customHeight="1" spans="2:54">
       <c r="B18" s="16">
@@ -9846,7 +10015,9 @@
       </c>
       <c r="C18" s="17"/>
       <c r="D18" s="18"/>
-      <c r="E18" s="11"/>
+      <c r="E18" s="11" t="s">
+        <v>49</v>
+      </c>
       <c r="F18" s="12"/>
       <c r="G18" s="12"/>
       <c r="H18" s="12"/>
@@ -9863,7 +10034,9 @@
       <c r="S18" s="12"/>
       <c r="T18" s="12"/>
       <c r="U18" s="25"/>
-      <c r="V18" s="11"/>
+      <c r="V18" s="11" t="s">
+        <v>48</v>
+      </c>
       <c r="W18" s="12"/>
       <c r="X18" s="12"/>
       <c r="Y18" s="12"/>
@@ -9880,11 +10053,15 @@
       <c r="AJ18" s="12"/>
       <c r="AK18" s="12"/>
       <c r="AL18" s="25"/>
-      <c r="AM18" s="32"/>
+      <c r="AM18" s="32" t="s">
+        <v>31</v>
+      </c>
       <c r="AN18" s="33"/>
       <c r="AO18" s="33"/>
       <c r="AP18" s="40"/>
-      <c r="AQ18" s="41"/>
+      <c r="AQ18" s="41">
+        <v>45155</v>
+      </c>
       <c r="AR18" s="33"/>
       <c r="AS18" s="33"/>
       <c r="AT18" s="40"/>
@@ -9903,7 +10080,9 @@
       </c>
       <c r="C19" s="17"/>
       <c r="D19" s="18"/>
-      <c r="E19" s="11"/>
+      <c r="E19" s="11" t="s">
+        <v>50</v>
+      </c>
       <c r="F19" s="12"/>
       <c r="G19" s="12"/>
       <c r="H19" s="12"/>
@@ -9920,7 +10099,9 @@
       <c r="S19" s="12"/>
       <c r="T19" s="12"/>
       <c r="U19" s="25"/>
-      <c r="V19" s="11"/>
+      <c r="V19" s="11" t="s">
+        <v>51</v>
+      </c>
       <c r="W19" s="12"/>
       <c r="X19" s="12"/>
       <c r="Y19" s="12"/>
@@ -9937,14 +10118,18 @@
       <c r="AJ19" s="12"/>
       <c r="AK19" s="12"/>
       <c r="AL19" s="25"/>
-      <c r="AM19" s="32"/>
+      <c r="AM19" s="32" t="s">
+        <v>31</v>
+      </c>
       <c r="AN19" s="33"/>
       <c r="AO19" s="33"/>
       <c r="AP19" s="40"/>
-      <c r="AQ19" s="41"/>
-      <c r="AR19" s="42"/>
-      <c r="AS19" s="42"/>
-      <c r="AT19" s="43"/>
+      <c r="AQ19" s="41">
+        <v>45155</v>
+      </c>
+      <c r="AR19" s="33"/>
+      <c r="AS19" s="33"/>
+      <c r="AT19" s="40"/>
       <c r="AU19" s="32"/>
       <c r="AV19" s="33"/>
       <c r="AW19" s="33"/>
@@ -9955,10 +10140,14 @@
       <c r="BB19" s="18"/>
     </row>
     <row r="20" s="1" customFormat="1" ht="20.1" customHeight="1" spans="2:54">
-      <c r="B20" s="16"/>
+      <c r="B20" s="16">
+        <v>11</v>
+      </c>
       <c r="C20" s="17"/>
       <c r="D20" s="18"/>
-      <c r="E20" s="11"/>
+      <c r="E20" s="11" t="s">
+        <v>52</v>
+      </c>
       <c r="F20" s="12"/>
       <c r="G20" s="12"/>
       <c r="H20" s="12"/>
@@ -9975,7 +10164,9 @@
       <c r="S20" s="12"/>
       <c r="T20" s="12"/>
       <c r="U20" s="25"/>
-      <c r="V20" s="11"/>
+      <c r="V20" s="11" t="s">
+        <v>53</v>
+      </c>
       <c r="W20" s="12"/>
       <c r="X20" s="12"/>
       <c r="Y20" s="12"/>
@@ -9992,11 +10183,15 @@
       <c r="AJ20" s="12"/>
       <c r="AK20" s="12"/>
       <c r="AL20" s="25"/>
-      <c r="AM20" s="32"/>
+      <c r="AM20" s="32" t="s">
+        <v>31</v>
+      </c>
       <c r="AN20" s="33"/>
       <c r="AO20" s="33"/>
       <c r="AP20" s="40"/>
-      <c r="AQ20" s="41"/>
+      <c r="AQ20" s="41">
+        <v>45155</v>
+      </c>
       <c r="AR20" s="33"/>
       <c r="AS20" s="33"/>
       <c r="AT20" s="40"/>
@@ -10010,10 +10205,12 @@
       <c r="BB20" s="18"/>
     </row>
     <row r="21" s="1" customFormat="1" ht="20.1" customHeight="1" spans="2:54">
-      <c r="B21" s="16"/>
-      <c r="C21" s="17"/>
-      <c r="D21" s="18"/>
-      <c r="E21" s="11"/>
+      <c r="B21" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="C21" s="12"/>
+      <c r="D21" s="12"/>
+      <c r="E21" s="12"/>
       <c r="F21" s="12"/>
       <c r="G21" s="12"/>
       <c r="H21" s="12"/>
@@ -10029,8 +10226,8 @@
       <c r="R21" s="12"/>
       <c r="S21" s="12"/>
       <c r="T21" s="12"/>
-      <c r="U21" s="25"/>
-      <c r="V21" s="11"/>
+      <c r="U21" s="12"/>
+      <c r="V21" s="12"/>
       <c r="W21" s="12"/>
       <c r="X21" s="12"/>
       <c r="Y21" s="12"/>
@@ -10046,29 +10243,33 @@
       <c r="AI21" s="12"/>
       <c r="AJ21" s="12"/>
       <c r="AK21" s="12"/>
-      <c r="AL21" s="25"/>
-      <c r="AM21" s="32"/>
-      <c r="AN21" s="33"/>
-      <c r="AO21" s="33"/>
-      <c r="AP21" s="40"/>
-      <c r="AQ21" s="41"/>
-      <c r="AR21" s="33"/>
-      <c r="AS21" s="33"/>
-      <c r="AT21" s="40"/>
-      <c r="AU21" s="32"/>
-      <c r="AV21" s="33"/>
-      <c r="AW21" s="33"/>
-      <c r="AX21" s="40"/>
-      <c r="AY21" s="16"/>
-      <c r="AZ21" s="17"/>
-      <c r="BA21" s="17"/>
-      <c r="BB21" s="18"/>
+      <c r="AL21" s="12"/>
+      <c r="AM21" s="12"/>
+      <c r="AN21" s="12"/>
+      <c r="AO21" s="12"/>
+      <c r="AP21" s="12"/>
+      <c r="AQ21" s="12"/>
+      <c r="AR21" s="12"/>
+      <c r="AS21" s="12"/>
+      <c r="AT21" s="12"/>
+      <c r="AU21" s="12"/>
+      <c r="AV21" s="12"/>
+      <c r="AW21" s="12"/>
+      <c r="AX21" s="12"/>
+      <c r="AY21" s="12"/>
+      <c r="AZ21" s="12"/>
+      <c r="BA21" s="12"/>
+      <c r="BB21" s="25"/>
     </row>
     <row r="22" s="1" customFormat="1" ht="20.1" customHeight="1" spans="2:54">
-      <c r="B22" s="16"/>
+      <c r="B22" s="16">
+        <v>12</v>
+      </c>
       <c r="C22" s="17"/>
       <c r="D22" s="18"/>
-      <c r="E22" s="11"/>
+      <c r="E22" s="11" t="s">
+        <v>55</v>
+      </c>
       <c r="F22" s="12"/>
       <c r="G22" s="12"/>
       <c r="H22" s="12"/>
@@ -10085,7 +10286,9 @@
       <c r="S22" s="12"/>
       <c r="T22" s="12"/>
       <c r="U22" s="25"/>
-      <c r="V22" s="11"/>
+      <c r="V22" s="11" t="s">
+        <v>48</v>
+      </c>
       <c r="W22" s="12"/>
       <c r="X22" s="12"/>
       <c r="Y22" s="12"/>
@@ -10102,28 +10305,36 @@
       <c r="AJ22" s="12"/>
       <c r="AK22" s="12"/>
       <c r="AL22" s="25"/>
-      <c r="AM22" s="16"/>
-      <c r="AN22" s="17"/>
-      <c r="AO22" s="17"/>
-      <c r="AP22" s="18"/>
-      <c r="AQ22" s="16"/>
-      <c r="AR22" s="17"/>
-      <c r="AS22" s="17"/>
-      <c r="AT22" s="18"/>
-      <c r="AU22" s="16"/>
-      <c r="AV22" s="17"/>
-      <c r="AW22" s="17"/>
-      <c r="AX22" s="18"/>
+      <c r="AM22" s="32" t="s">
+        <v>31</v>
+      </c>
+      <c r="AN22" s="33"/>
+      <c r="AO22" s="33"/>
+      <c r="AP22" s="40"/>
+      <c r="AQ22" s="41">
+        <v>45155</v>
+      </c>
+      <c r="AR22" s="33"/>
+      <c r="AS22" s="33"/>
+      <c r="AT22" s="40"/>
+      <c r="AU22" s="32"/>
+      <c r="AV22" s="33"/>
+      <c r="AW22" s="33"/>
+      <c r="AX22" s="40"/>
       <c r="AY22" s="16"/>
       <c r="AZ22" s="17"/>
       <c r="BA22" s="17"/>
       <c r="BB22" s="18"/>
     </row>
     <row r="23" s="1" customFormat="1" ht="20.1" customHeight="1" spans="2:54">
-      <c r="B23" s="11"/>
-      <c r="C23" s="12"/>
-      <c r="D23" s="12"/>
-      <c r="E23" s="12"/>
+      <c r="B23" s="16">
+        <v>13</v>
+      </c>
+      <c r="C23" s="17"/>
+      <c r="D23" s="18"/>
+      <c r="E23" s="11" t="s">
+        <v>56</v>
+      </c>
       <c r="F23" s="12"/>
       <c r="G23" s="12"/>
       <c r="H23" s="12"/>
@@ -10139,8 +10350,10 @@
       <c r="R23" s="12"/>
       <c r="S23" s="12"/>
       <c r="T23" s="12"/>
-      <c r="U23" s="12"/>
-      <c r="V23" s="12"/>
+      <c r="U23" s="25"/>
+      <c r="V23" s="11" t="s">
+        <v>48</v>
+      </c>
       <c r="W23" s="12"/>
       <c r="X23" s="12"/>
       <c r="Y23" s="12"/>
@@ -10156,29 +10369,37 @@
       <c r="AI23" s="12"/>
       <c r="AJ23" s="12"/>
       <c r="AK23" s="12"/>
-      <c r="AL23" s="12"/>
-      <c r="AM23" s="12"/>
-      <c r="AN23" s="12"/>
-      <c r="AO23" s="12"/>
-      <c r="AP23" s="12"/>
-      <c r="AQ23" s="12"/>
-      <c r="AR23" s="12"/>
-      <c r="AS23" s="12"/>
-      <c r="AT23" s="12"/>
-      <c r="AU23" s="12"/>
-      <c r="AV23" s="12"/>
-      <c r="AW23" s="12"/>
-      <c r="AX23" s="12"/>
-      <c r="AY23" s="12"/>
-      <c r="AZ23" s="12"/>
-      <c r="BA23" s="12"/>
-      <c r="BB23" s="25"/>
+      <c r="AL23" s="25"/>
+      <c r="AM23" s="32" t="s">
+        <v>31</v>
+      </c>
+      <c r="AN23" s="33"/>
+      <c r="AO23" s="33"/>
+      <c r="AP23" s="40"/>
+      <c r="AQ23" s="41">
+        <v>45155</v>
+      </c>
+      <c r="AR23" s="33"/>
+      <c r="AS23" s="33"/>
+      <c r="AT23" s="40"/>
+      <c r="AU23" s="32"/>
+      <c r="AV23" s="33"/>
+      <c r="AW23" s="33"/>
+      <c r="AX23" s="40"/>
+      <c r="AY23" s="16"/>
+      <c r="AZ23" s="17"/>
+      <c r="BA23" s="17"/>
+      <c r="BB23" s="18"/>
     </row>
     <row r="24" s="1" customFormat="1" ht="20.1" customHeight="1" spans="2:54">
-      <c r="B24" s="16"/>
+      <c r="B24" s="16">
+        <v>14</v>
+      </c>
       <c r="C24" s="17"/>
       <c r="D24" s="18"/>
-      <c r="E24" s="11"/>
+      <c r="E24" s="11" t="s">
+        <v>57</v>
+      </c>
       <c r="F24" s="12"/>
       <c r="G24" s="12"/>
       <c r="H24" s="12"/>
@@ -10195,7 +10416,9 @@
       <c r="S24" s="12"/>
       <c r="T24" s="12"/>
       <c r="U24" s="25"/>
-      <c r="V24" s="11"/>
+      <c r="V24" s="11" t="s">
+        <v>48</v>
+      </c>
       <c r="W24" s="12"/>
       <c r="X24" s="12"/>
       <c r="Y24" s="12"/>
@@ -10212,11 +10435,15 @@
       <c r="AJ24" s="12"/>
       <c r="AK24" s="12"/>
       <c r="AL24" s="25"/>
-      <c r="AM24" s="32"/>
+      <c r="AM24" s="32" t="s">
+        <v>31</v>
+      </c>
       <c r="AN24" s="33"/>
       <c r="AO24" s="33"/>
       <c r="AP24" s="40"/>
-      <c r="AQ24" s="41"/>
+      <c r="AQ24" s="41">
+        <v>45155</v>
+      </c>
       <c r="AR24" s="33"/>
       <c r="AS24" s="33"/>
       <c r="AT24" s="40"/>
@@ -10224,16 +10451,20 @@
       <c r="AV24" s="33"/>
       <c r="AW24" s="33"/>
       <c r="AX24" s="40"/>
-      <c r="AY24" s="32"/>
-      <c r="AZ24" s="33"/>
-      <c r="BA24" s="33"/>
-      <c r="BB24" s="40"/>
+      <c r="AY24" s="16"/>
+      <c r="AZ24" s="17"/>
+      <c r="BA24" s="17"/>
+      <c r="BB24" s="18"/>
     </row>
     <row r="25" s="1" customFormat="1" ht="20.1" customHeight="1" spans="2:54">
-      <c r="B25" s="16"/>
+      <c r="B25" s="16">
+        <v>15</v>
+      </c>
       <c r="C25" s="17"/>
       <c r="D25" s="18"/>
-      <c r="E25" s="11"/>
+      <c r="E25" s="11" t="s">
+        <v>58</v>
+      </c>
       <c r="F25" s="12"/>
       <c r="G25" s="12"/>
       <c r="H25" s="12"/>
@@ -10250,7 +10481,9 @@
       <c r="S25" s="12"/>
       <c r="T25" s="12"/>
       <c r="U25" s="25"/>
-      <c r="V25" s="11"/>
+      <c r="V25" s="11" t="s">
+        <v>48</v>
+      </c>
       <c r="W25" s="12"/>
       <c r="X25" s="12"/>
       <c r="Y25" s="12"/>
@@ -10267,11 +10500,15 @@
       <c r="AJ25" s="12"/>
       <c r="AK25" s="12"/>
       <c r="AL25" s="25"/>
-      <c r="AM25" s="32"/>
+      <c r="AM25" s="32" t="s">
+        <v>31</v>
+      </c>
       <c r="AN25" s="33"/>
       <c r="AO25" s="33"/>
       <c r="AP25" s="40"/>
-      <c r="AQ25" s="41"/>
+      <c r="AQ25" s="41">
+        <v>45155</v>
+      </c>
       <c r="AR25" s="33"/>
       <c r="AS25" s="33"/>
       <c r="AT25" s="40"/>
@@ -10279,16 +10516,20 @@
       <c r="AV25" s="33"/>
       <c r="AW25" s="33"/>
       <c r="AX25" s="40"/>
-      <c r="AY25" s="32"/>
-      <c r="AZ25" s="33"/>
-      <c r="BA25" s="33"/>
-      <c r="BB25" s="40"/>
+      <c r="AY25" s="16"/>
+      <c r="AZ25" s="17"/>
+      <c r="BA25" s="17"/>
+      <c r="BB25" s="18"/>
     </row>
     <row r="26" s="1" customFormat="1" ht="20.1" customHeight="1" spans="2:54">
-      <c r="B26" s="16"/>
+      <c r="B26" s="16">
+        <v>16</v>
+      </c>
       <c r="C26" s="17"/>
       <c r="D26" s="18"/>
-      <c r="E26" s="11"/>
+      <c r="E26" s="11" t="s">
+        <v>59</v>
+      </c>
       <c r="F26" s="12"/>
       <c r="G26" s="12"/>
       <c r="H26" s="12"/>
@@ -10305,7 +10546,9 @@
       <c r="S26" s="12"/>
       <c r="T26" s="12"/>
       <c r="U26" s="25"/>
-      <c r="V26" s="11"/>
+      <c r="V26" s="11" t="s">
+        <v>48</v>
+      </c>
       <c r="W26" s="12"/>
       <c r="X26" s="12"/>
       <c r="Y26" s="12"/>
@@ -10322,11 +10565,15 @@
       <c r="AJ26" s="12"/>
       <c r="AK26" s="12"/>
       <c r="AL26" s="25"/>
-      <c r="AM26" s="32"/>
+      <c r="AM26" s="32" t="s">
+        <v>31</v>
+      </c>
       <c r="AN26" s="33"/>
       <c r="AO26" s="33"/>
       <c r="AP26" s="40"/>
-      <c r="AQ26" s="41"/>
+      <c r="AQ26" s="41">
+        <v>45155</v>
+      </c>
       <c r="AR26" s="33"/>
       <c r="AS26" s="33"/>
       <c r="AT26" s="40"/>
@@ -10334,16 +10581,20 @@
       <c r="AV26" s="33"/>
       <c r="AW26" s="33"/>
       <c r="AX26" s="40"/>
-      <c r="AY26" s="32"/>
-      <c r="AZ26" s="33"/>
-      <c r="BA26" s="33"/>
-      <c r="BB26" s="40"/>
+      <c r="AY26" s="16"/>
+      <c r="AZ26" s="17"/>
+      <c r="BA26" s="17"/>
+      <c r="BB26" s="18"/>
     </row>
     <row r="27" s="1" customFormat="1" ht="20.1" customHeight="1" spans="2:54">
-      <c r="B27" s="16"/>
+      <c r="B27" s="16">
+        <v>17</v>
+      </c>
       <c r="C27" s="17"/>
       <c r="D27" s="18"/>
-      <c r="E27" s="11"/>
+      <c r="E27" s="11" t="s">
+        <v>60</v>
+      </c>
       <c r="F27" s="12"/>
       <c r="G27" s="12"/>
       <c r="H27" s="12"/>
@@ -10360,7 +10611,9 @@
       <c r="S27" s="12"/>
       <c r="T27" s="12"/>
       <c r="U27" s="25"/>
-      <c r="V27" s="11"/>
+      <c r="V27" s="11" t="s">
+        <v>61</v>
+      </c>
       <c r="W27" s="12"/>
       <c r="X27" s="12"/>
       <c r="Y27" s="12"/>
@@ -10377,11 +10630,15 @@
       <c r="AJ27" s="12"/>
       <c r="AK27" s="12"/>
       <c r="AL27" s="25"/>
-      <c r="AM27" s="34"/>
+      <c r="AM27" s="32" t="s">
+        <v>31</v>
+      </c>
       <c r="AN27" s="33"/>
       <c r="AO27" s="33"/>
       <c r="AP27" s="40"/>
-      <c r="AQ27" s="44"/>
+      <c r="AQ27" s="41">
+        <v>45155</v>
+      </c>
       <c r="AR27" s="33"/>
       <c r="AS27" s="33"/>
       <c r="AT27" s="40"/>
@@ -10389,16 +10646,20 @@
       <c r="AV27" s="33"/>
       <c r="AW27" s="33"/>
       <c r="AX27" s="40"/>
-      <c r="AY27" s="32"/>
-      <c r="AZ27" s="33"/>
-      <c r="BA27" s="33"/>
-      <c r="BB27" s="40"/>
+      <c r="AY27" s="16"/>
+      <c r="AZ27" s="17"/>
+      <c r="BA27" s="17"/>
+      <c r="BB27" s="18"/>
     </row>
     <row r="28" s="1" customFormat="1" ht="20.1" customHeight="1" spans="2:54">
-      <c r="B28" s="16"/>
+      <c r="B28" s="16">
+        <v>18</v>
+      </c>
       <c r="C28" s="17"/>
       <c r="D28" s="18"/>
-      <c r="E28" s="11"/>
+      <c r="E28" s="11" t="s">
+        <v>62</v>
+      </c>
       <c r="F28" s="12"/>
       <c r="G28" s="12"/>
       <c r="H28" s="12"/>
@@ -10415,7 +10676,9 @@
       <c r="S28" s="12"/>
       <c r="T28" s="12"/>
       <c r="U28" s="25"/>
-      <c r="V28" s="11"/>
+      <c r="V28" s="11" t="s">
+        <v>63</v>
+      </c>
       <c r="W28" s="12"/>
       <c r="X28" s="12"/>
       <c r="Y28" s="12"/>
@@ -10432,11 +10695,15 @@
       <c r="AJ28" s="12"/>
       <c r="AK28" s="12"/>
       <c r="AL28" s="25"/>
-      <c r="AM28" s="32"/>
+      <c r="AM28" s="32" t="s">
+        <v>31</v>
+      </c>
       <c r="AN28" s="33"/>
       <c r="AO28" s="33"/>
       <c r="AP28" s="40"/>
-      <c r="AQ28" s="41"/>
+      <c r="AQ28" s="41">
+        <v>45155</v>
+      </c>
       <c r="AR28" s="33"/>
       <c r="AS28" s="33"/>
       <c r="AT28" s="40"/>
@@ -10450,10 +10717,14 @@
       <c r="BB28" s="40"/>
     </row>
     <row r="29" s="1" customFormat="1" ht="20.1" customHeight="1" spans="2:54">
-      <c r="B29" s="16"/>
+      <c r="B29" s="16">
+        <v>19</v>
+      </c>
       <c r="C29" s="17"/>
       <c r="D29" s="18"/>
-      <c r="E29" s="11"/>
+      <c r="E29" s="11" t="s">
+        <v>64</v>
+      </c>
       <c r="F29" s="12"/>
       <c r="G29" s="12"/>
       <c r="H29" s="12"/>
@@ -10470,7 +10741,9 @@
       <c r="S29" s="12"/>
       <c r="T29" s="12"/>
       <c r="U29" s="25"/>
-      <c r="V29" s="11"/>
+      <c r="V29" s="11" t="s">
+        <v>65</v>
+      </c>
       <c r="W29" s="12"/>
       <c r="X29" s="12"/>
       <c r="Y29" s="12"/>
@@ -10487,11 +10760,15 @@
       <c r="AJ29" s="12"/>
       <c r="AK29" s="12"/>
       <c r="AL29" s="25"/>
-      <c r="AM29" s="32"/>
+      <c r="AM29" s="32" t="s">
+        <v>31</v>
+      </c>
       <c r="AN29" s="33"/>
       <c r="AO29" s="33"/>
       <c r="AP29" s="40"/>
-      <c r="AQ29" s="41"/>
+      <c r="AQ29" s="41">
+        <v>45155</v>
+      </c>
       <c r="AR29" s="33"/>
       <c r="AS29" s="33"/>
       <c r="AT29" s="40"/>
@@ -10505,10 +10782,14 @@
       <c r="BB29" s="40"/>
     </row>
     <row r="30" s="1" customFormat="1" ht="20.1" customHeight="1" spans="2:54">
-      <c r="B30" s="16"/>
+      <c r="B30" s="16">
+        <v>20</v>
+      </c>
       <c r="C30" s="17"/>
       <c r="D30" s="18"/>
-      <c r="E30" s="11"/>
+      <c r="E30" s="11" t="s">
+        <v>66</v>
+      </c>
       <c r="F30" s="12"/>
       <c r="G30" s="12"/>
       <c r="H30" s="12"/>
@@ -10525,7 +10806,9 @@
       <c r="S30" s="12"/>
       <c r="T30" s="12"/>
       <c r="U30" s="25"/>
-      <c r="V30" s="11"/>
+      <c r="V30" s="11" t="s">
+        <v>67</v>
+      </c>
       <c r="W30" s="12"/>
       <c r="X30" s="12"/>
       <c r="Y30" s="12"/>
@@ -10542,11 +10825,15 @@
       <c r="AJ30" s="12"/>
       <c r="AK30" s="12"/>
       <c r="AL30" s="25"/>
-      <c r="AM30" s="32"/>
+      <c r="AM30" s="32" t="s">
+        <v>31</v>
+      </c>
       <c r="AN30" s="33"/>
       <c r="AO30" s="33"/>
       <c r="AP30" s="40"/>
-      <c r="AQ30" s="41"/>
+      <c r="AQ30" s="41">
+        <v>45155</v>
+      </c>
       <c r="AR30" s="33"/>
       <c r="AS30" s="33"/>
       <c r="AT30" s="40"/>
@@ -10560,7 +10847,9 @@
       <c r="BB30" s="40"/>
     </row>
     <row r="31" s="1" customFormat="1" ht="20.1" customHeight="1" spans="2:54">
-      <c r="B31" s="19"/>
+      <c r="B31" s="11" t="s">
+        <v>68</v>
+      </c>
       <c r="C31" s="12"/>
       <c r="D31" s="12"/>
       <c r="E31" s="12"/>
@@ -10615,10 +10904,14 @@
       <c r="BB31" s="25"/>
     </row>
     <row r="32" s="1" customFormat="1" ht="20.1" customHeight="1" spans="2:54">
-      <c r="B32" s="16"/>
+      <c r="B32" s="16">
+        <v>21</v>
+      </c>
       <c r="C32" s="17"/>
       <c r="D32" s="18"/>
-      <c r="E32" s="11"/>
+      <c r="E32" s="11" t="s">
+        <v>69</v>
+      </c>
       <c r="F32" s="12"/>
       <c r="G32" s="12"/>
       <c r="H32" s="12"/>
@@ -10635,7 +10928,9 @@
       <c r="S32" s="12"/>
       <c r="T32" s="12"/>
       <c r="U32" s="25"/>
-      <c r="V32" s="11"/>
+      <c r="V32" s="11" t="s">
+        <v>48</v>
+      </c>
       <c r="W32" s="12"/>
       <c r="X32" s="12"/>
       <c r="Y32" s="12"/>
@@ -10652,11 +10947,15 @@
       <c r="AJ32" s="12"/>
       <c r="AK32" s="12"/>
       <c r="AL32" s="25"/>
-      <c r="AM32" s="32"/>
+      <c r="AM32" s="32" t="s">
+        <v>31</v>
+      </c>
       <c r="AN32" s="33"/>
       <c r="AO32" s="33"/>
       <c r="AP32" s="40"/>
-      <c r="AQ32" s="41"/>
+      <c r="AQ32" s="41">
+        <v>45155</v>
+      </c>
       <c r="AR32" s="33"/>
       <c r="AS32" s="33"/>
       <c r="AT32" s="40"/>
@@ -10670,10 +10969,14 @@
       <c r="BB32" s="40"/>
     </row>
     <row r="33" s="1" customFormat="1" ht="20.1" customHeight="1" spans="2:54">
-      <c r="B33" s="16"/>
+      <c r="B33" s="16">
+        <v>22</v>
+      </c>
       <c r="C33" s="17"/>
       <c r="D33" s="18"/>
-      <c r="E33" s="11"/>
+      <c r="E33" s="11" t="s">
+        <v>70</v>
+      </c>
       <c r="F33" s="12"/>
       <c r="G33" s="12"/>
       <c r="H33" s="12"/>
@@ -10690,7 +10993,9 @@
       <c r="S33" s="12"/>
       <c r="T33" s="12"/>
       <c r="U33" s="25"/>
-      <c r="V33" s="11"/>
+      <c r="V33" s="11" t="s">
+        <v>71</v>
+      </c>
       <c r="W33" s="12"/>
       <c r="X33" s="12"/>
       <c r="Y33" s="12"/>
@@ -10707,11 +11012,15 @@
       <c r="AJ33" s="12"/>
       <c r="AK33" s="12"/>
       <c r="AL33" s="25"/>
-      <c r="AM33" s="32"/>
+      <c r="AM33" s="32" t="s">
+        <v>31</v>
+      </c>
       <c r="AN33" s="33"/>
       <c r="AO33" s="33"/>
       <c r="AP33" s="40"/>
-      <c r="AQ33" s="41"/>
+      <c r="AQ33" s="41">
+        <v>45155</v>
+      </c>
       <c r="AR33" s="33"/>
       <c r="AS33" s="33"/>
       <c r="AT33" s="40"/>
@@ -10725,10 +11034,14 @@
       <c r="BB33" s="40"/>
     </row>
     <row r="34" s="1" customFormat="1" ht="20.1" customHeight="1" spans="2:54">
-      <c r="B34" s="16"/>
+      <c r="B34" s="16">
+        <v>23</v>
+      </c>
       <c r="C34" s="17"/>
       <c r="D34" s="18"/>
-      <c r="E34" s="11"/>
+      <c r="E34" s="11" t="s">
+        <v>72</v>
+      </c>
       <c r="F34" s="12"/>
       <c r="G34" s="12"/>
       <c r="H34" s="12"/>
@@ -10745,7 +11058,9 @@
       <c r="S34" s="12"/>
       <c r="T34" s="12"/>
       <c r="U34" s="25"/>
-      <c r="V34" s="11"/>
+      <c r="V34" s="11" t="s">
+        <v>73</v>
+      </c>
       <c r="W34" s="12"/>
       <c r="X34" s="12"/>
       <c r="Y34" s="12"/>
@@ -10762,11 +11077,15 @@
       <c r="AJ34" s="12"/>
       <c r="AK34" s="12"/>
       <c r="AL34" s="25"/>
-      <c r="AM34" s="32"/>
+      <c r="AM34" s="32" t="s">
+        <v>31</v>
+      </c>
       <c r="AN34" s="33"/>
       <c r="AO34" s="33"/>
       <c r="AP34" s="40"/>
-      <c r="AQ34" s="41"/>
+      <c r="AQ34" s="41">
+        <v>45155</v>
+      </c>
       <c r="AR34" s="33"/>
       <c r="AS34" s="33"/>
       <c r="AT34" s="40"/>
@@ -10780,10 +11099,10 @@
       <c r="BB34" s="40"/>
     </row>
     <row r="35" s="1" customFormat="1" ht="20.1" customHeight="1" spans="2:54">
-      <c r="B35" s="16"/>
-      <c r="C35" s="17"/>
-      <c r="D35" s="18"/>
-      <c r="E35" s="11"/>
+      <c r="B35" s="20"/>
+      <c r="C35" s="12"/>
+      <c r="D35" s="12"/>
+      <c r="E35" s="12"/>
       <c r="F35" s="12"/>
       <c r="G35" s="12"/>
       <c r="H35" s="12"/>
@@ -10799,8 +11118,8 @@
       <c r="R35" s="12"/>
       <c r="S35" s="12"/>
       <c r="T35" s="12"/>
-      <c r="U35" s="25"/>
-      <c r="V35" s="11"/>
+      <c r="U35" s="12"/>
+      <c r="V35" s="12"/>
       <c r="W35" s="12"/>
       <c r="X35" s="12"/>
       <c r="Y35" s="12"/>
@@ -10816,29 +11135,29 @@
       <c r="AI35" s="12"/>
       <c r="AJ35" s="12"/>
       <c r="AK35" s="12"/>
-      <c r="AL35" s="25"/>
-      <c r="AM35" s="16"/>
-      <c r="AN35" s="17"/>
-      <c r="AO35" s="17"/>
-      <c r="AP35" s="18"/>
-      <c r="AQ35" s="16"/>
-      <c r="AR35" s="17"/>
-      <c r="AS35" s="17"/>
-      <c r="AT35" s="18"/>
-      <c r="AU35" s="16"/>
-      <c r="AV35" s="17"/>
-      <c r="AW35" s="17"/>
-      <c r="AX35" s="18"/>
-      <c r="AY35" s="16"/>
-      <c r="AZ35" s="17"/>
-      <c r="BA35" s="17"/>
-      <c r="BB35" s="18"/>
+      <c r="AL35" s="12"/>
+      <c r="AM35" s="12"/>
+      <c r="AN35" s="12"/>
+      <c r="AO35" s="12"/>
+      <c r="AP35" s="12"/>
+      <c r="AQ35" s="12"/>
+      <c r="AR35" s="12"/>
+      <c r="AS35" s="12"/>
+      <c r="AT35" s="12"/>
+      <c r="AU35" s="12"/>
+      <c r="AV35" s="12"/>
+      <c r="AW35" s="12"/>
+      <c r="AX35" s="12"/>
+      <c r="AY35" s="12"/>
+      <c r="AZ35" s="12"/>
+      <c r="BA35" s="12"/>
+      <c r="BB35" s="25"/>
     </row>
     <row r="36" s="1" customFormat="1" ht="20.1" customHeight="1" spans="2:54">
-      <c r="B36" s="19"/>
-      <c r="C36" s="12"/>
-      <c r="D36" s="12"/>
-      <c r="E36" s="12"/>
+      <c r="B36" s="16"/>
+      <c r="C36" s="17"/>
+      <c r="D36" s="18"/>
+      <c r="E36" s="11"/>
       <c r="F36" s="12"/>
       <c r="G36" s="12"/>
       <c r="H36" s="12"/>
@@ -10854,8 +11173,8 @@
       <c r="R36" s="12"/>
       <c r="S36" s="12"/>
       <c r="T36" s="12"/>
-      <c r="U36" s="12"/>
-      <c r="V36" s="12"/>
+      <c r="U36" s="25"/>
+      <c r="V36" s="11"/>
       <c r="W36" s="12"/>
       <c r="X36" s="12"/>
       <c r="Y36" s="12"/>
@@ -10871,23 +11190,23 @@
       <c r="AI36" s="12"/>
       <c r="AJ36" s="12"/>
       <c r="AK36" s="12"/>
-      <c r="AL36" s="12"/>
-      <c r="AM36" s="12"/>
-      <c r="AN36" s="12"/>
-      <c r="AO36" s="12"/>
-      <c r="AP36" s="12"/>
-      <c r="AQ36" s="12"/>
-      <c r="AR36" s="12"/>
-      <c r="AS36" s="12"/>
-      <c r="AT36" s="12"/>
-      <c r="AU36" s="12"/>
-      <c r="AV36" s="12"/>
-      <c r="AW36" s="12"/>
-      <c r="AX36" s="12"/>
-      <c r="AY36" s="12"/>
-      <c r="AZ36" s="12"/>
-      <c r="BA36" s="12"/>
-      <c r="BB36" s="25"/>
+      <c r="AL36" s="25"/>
+      <c r="AM36" s="32"/>
+      <c r="AN36" s="33"/>
+      <c r="AO36" s="33"/>
+      <c r="AP36" s="40"/>
+      <c r="AQ36" s="41"/>
+      <c r="AR36" s="33"/>
+      <c r="AS36" s="33"/>
+      <c r="AT36" s="40"/>
+      <c r="AU36" s="32"/>
+      <c r="AV36" s="33"/>
+      <c r="AW36" s="33"/>
+      <c r="AX36" s="40"/>
+      <c r="AY36" s="32"/>
+      <c r="AZ36" s="33"/>
+      <c r="BA36" s="33"/>
+      <c r="BB36" s="40"/>
     </row>
     <row r="37" s="1" customFormat="1" ht="20.1" customHeight="1" spans="2:54">
       <c r="B37" s="16"/>
@@ -11037,28 +11356,28 @@
       <c r="AJ39" s="12"/>
       <c r="AK39" s="12"/>
       <c r="AL39" s="25"/>
-      <c r="AM39" s="32"/>
-      <c r="AN39" s="33"/>
-      <c r="AO39" s="33"/>
-      <c r="AP39" s="40"/>
-      <c r="AQ39" s="41"/>
-      <c r="AR39" s="33"/>
-      <c r="AS39" s="33"/>
-      <c r="AT39" s="40"/>
-      <c r="AU39" s="32"/>
-      <c r="AV39" s="33"/>
-      <c r="AW39" s="33"/>
-      <c r="AX39" s="40"/>
-      <c r="AY39" s="32"/>
-      <c r="AZ39" s="33"/>
-      <c r="BA39" s="33"/>
-      <c r="BB39" s="40"/>
+      <c r="AM39" s="16"/>
+      <c r="AN39" s="17"/>
+      <c r="AO39" s="17"/>
+      <c r="AP39" s="18"/>
+      <c r="AQ39" s="16"/>
+      <c r="AR39" s="17"/>
+      <c r="AS39" s="17"/>
+      <c r="AT39" s="18"/>
+      <c r="AU39" s="16"/>
+      <c r="AV39" s="17"/>
+      <c r="AW39" s="17"/>
+      <c r="AX39" s="18"/>
+      <c r="AY39" s="16"/>
+      <c r="AZ39" s="17"/>
+      <c r="BA39" s="17"/>
+      <c r="BB39" s="18"/>
     </row>
     <row r="40" s="1" customFormat="1" ht="20.1" customHeight="1" spans="2:54">
-      <c r="B40" s="16"/>
-      <c r="C40" s="17"/>
-      <c r="D40" s="18"/>
-      <c r="E40" s="11"/>
+      <c r="B40" s="20"/>
+      <c r="C40" s="12"/>
+      <c r="D40" s="12"/>
+      <c r="E40" s="12"/>
       <c r="F40" s="12"/>
       <c r="G40" s="12"/>
       <c r="H40" s="12"/>
@@ -11074,8 +11393,8 @@
       <c r="R40" s="12"/>
       <c r="S40" s="12"/>
       <c r="T40" s="12"/>
-      <c r="U40" s="25"/>
-      <c r="V40" s="11"/>
+      <c r="U40" s="12"/>
+      <c r="V40" s="12"/>
       <c r="W40" s="12"/>
       <c r="X40" s="12"/>
       <c r="Y40" s="12"/>
@@ -11091,23 +11410,23 @@
       <c r="AI40" s="12"/>
       <c r="AJ40" s="12"/>
       <c r="AK40" s="12"/>
-      <c r="AL40" s="25"/>
-      <c r="AM40" s="32"/>
-      <c r="AN40" s="33"/>
-      <c r="AO40" s="33"/>
-      <c r="AP40" s="40"/>
-      <c r="AQ40" s="41"/>
-      <c r="AR40" s="33"/>
-      <c r="AS40" s="33"/>
-      <c r="AT40" s="40"/>
-      <c r="AU40" s="32"/>
-      <c r="AV40" s="33"/>
-      <c r="AW40" s="33"/>
-      <c r="AX40" s="40"/>
-      <c r="AY40" s="32"/>
-      <c r="AZ40" s="33"/>
-      <c r="BA40" s="33"/>
-      <c r="BB40" s="40"/>
+      <c r="AL40" s="12"/>
+      <c r="AM40" s="12"/>
+      <c r="AN40" s="12"/>
+      <c r="AO40" s="12"/>
+      <c r="AP40" s="12"/>
+      <c r="AQ40" s="12"/>
+      <c r="AR40" s="12"/>
+      <c r="AS40" s="12"/>
+      <c r="AT40" s="12"/>
+      <c r="AU40" s="12"/>
+      <c r="AV40" s="12"/>
+      <c r="AW40" s="12"/>
+      <c r="AX40" s="12"/>
+      <c r="AY40" s="12"/>
+      <c r="AZ40" s="12"/>
+      <c r="BA40" s="12"/>
+      <c r="BB40" s="25"/>
     </row>
     <row r="41" s="1" customFormat="1" ht="20.1" customHeight="1" spans="2:54">
       <c r="B41" s="16"/>
@@ -11147,77 +11466,77 @@
       <c r="AJ41" s="12"/>
       <c r="AK41" s="12"/>
       <c r="AL41" s="25"/>
-      <c r="AM41" s="16"/>
-      <c r="AN41" s="17"/>
-      <c r="AO41" s="17"/>
-      <c r="AP41" s="18"/>
-      <c r="AQ41" s="16"/>
-      <c r="AR41" s="17"/>
-      <c r="AS41" s="17"/>
-      <c r="AT41" s="18"/>
-      <c r="AU41" s="16"/>
-      <c r="AV41" s="17"/>
-      <c r="AW41" s="17"/>
-      <c r="AX41" s="18"/>
-      <c r="AY41" s="16"/>
-      <c r="AZ41" s="17"/>
-      <c r="BA41" s="17"/>
-      <c r="BB41" s="18"/>
+      <c r="AM41" s="32"/>
+      <c r="AN41" s="33"/>
+      <c r="AO41" s="33"/>
+      <c r="AP41" s="40"/>
+      <c r="AQ41" s="41"/>
+      <c r="AR41" s="33"/>
+      <c r="AS41" s="33"/>
+      <c r="AT41" s="40"/>
+      <c r="AU41" s="32"/>
+      <c r="AV41" s="33"/>
+      <c r="AW41" s="33"/>
+      <c r="AX41" s="40"/>
+      <c r="AY41" s="32"/>
+      <c r="AZ41" s="33"/>
+      <c r="BA41" s="33"/>
+      <c r="BB41" s="40"/>
     </row>
     <row r="42" s="1" customFormat="1" ht="20.1" customHeight="1" spans="2:54">
-      <c r="B42" s="21"/>
-      <c r="C42" s="20"/>
-      <c r="D42" s="20"/>
-      <c r="E42" s="20"/>
-      <c r="F42" s="20"/>
-      <c r="G42" s="20"/>
-      <c r="H42" s="20"/>
-      <c r="I42" s="20"/>
-      <c r="J42" s="20"/>
-      <c r="K42" s="20"/>
-      <c r="L42" s="20"/>
-      <c r="M42" s="20"/>
-      <c r="N42" s="20"/>
-      <c r="O42" s="20"/>
-      <c r="P42" s="20"/>
-      <c r="Q42" s="20"/>
-      <c r="R42" s="20"/>
-      <c r="S42" s="20"/>
-      <c r="T42" s="20"/>
-      <c r="U42" s="20"/>
-      <c r="V42" s="20"/>
-      <c r="W42" s="20"/>
-      <c r="X42" s="20"/>
-      <c r="Y42" s="20"/>
-      <c r="Z42" s="20"/>
-      <c r="AA42" s="20"/>
-      <c r="AB42" s="20"/>
-      <c r="AC42" s="20"/>
-      <c r="AD42" s="20"/>
-      <c r="AE42" s="20"/>
-      <c r="AF42" s="20"/>
-      <c r="AG42" s="20"/>
-      <c r="AH42" s="20"/>
-      <c r="AI42" s="20"/>
-      <c r="AJ42" s="20"/>
-      <c r="AK42" s="20"/>
-      <c r="AL42" s="20"/>
-      <c r="AM42" s="20"/>
-      <c r="AN42" s="20"/>
-      <c r="AO42" s="20"/>
-      <c r="AP42" s="20"/>
-      <c r="AQ42" s="20"/>
-      <c r="AR42" s="20"/>
-      <c r="AS42" s="20"/>
-      <c r="AT42" s="20"/>
-      <c r="AU42" s="20"/>
-      <c r="AV42" s="20"/>
-      <c r="AW42" s="20"/>
-      <c r="AX42" s="20"/>
-      <c r="AY42" s="20"/>
-      <c r="AZ42" s="20"/>
-      <c r="BA42" s="20"/>
-      <c r="BB42" s="50"/>
+      <c r="B42" s="16"/>
+      <c r="C42" s="17"/>
+      <c r="D42" s="18"/>
+      <c r="E42" s="11"/>
+      <c r="F42" s="12"/>
+      <c r="G42" s="12"/>
+      <c r="H42" s="12"/>
+      <c r="I42" s="12"/>
+      <c r="J42" s="12"/>
+      <c r="K42" s="12"/>
+      <c r="L42" s="12"/>
+      <c r="M42" s="12"/>
+      <c r="N42" s="12"/>
+      <c r="O42" s="12"/>
+      <c r="P42" s="12"/>
+      <c r="Q42" s="12"/>
+      <c r="R42" s="12"/>
+      <c r="S42" s="12"/>
+      <c r="T42" s="12"/>
+      <c r="U42" s="25"/>
+      <c r="V42" s="11"/>
+      <c r="W42" s="12"/>
+      <c r="X42" s="12"/>
+      <c r="Y42" s="12"/>
+      <c r="Z42" s="12"/>
+      <c r="AA42" s="12"/>
+      <c r="AB42" s="12"/>
+      <c r="AC42" s="12"/>
+      <c r="AD42" s="12"/>
+      <c r="AE42" s="12"/>
+      <c r="AF42" s="12"/>
+      <c r="AG42" s="12"/>
+      <c r="AH42" s="12"/>
+      <c r="AI42" s="12"/>
+      <c r="AJ42" s="12"/>
+      <c r="AK42" s="12"/>
+      <c r="AL42" s="25"/>
+      <c r="AM42" s="32"/>
+      <c r="AN42" s="33"/>
+      <c r="AO42" s="33"/>
+      <c r="AP42" s="40"/>
+      <c r="AQ42" s="41"/>
+      <c r="AR42" s="33"/>
+      <c r="AS42" s="33"/>
+      <c r="AT42" s="40"/>
+      <c r="AU42" s="32"/>
+      <c r="AV42" s="33"/>
+      <c r="AW42" s="33"/>
+      <c r="AX42" s="40"/>
+      <c r="AY42" s="32"/>
+      <c r="AZ42" s="33"/>
+      <c r="BA42" s="33"/>
+      <c r="BB42" s="40"/>
     </row>
     <row r="43" s="1" customFormat="1" ht="20.1" customHeight="1" spans="2:54">
       <c r="B43" s="16"/>
@@ -11312,11 +11631,11 @@
       <c r="AJ44" s="12"/>
       <c r="AK44" s="12"/>
       <c r="AL44" s="25"/>
-      <c r="AM44" s="34"/>
+      <c r="AM44" s="32"/>
       <c r="AN44" s="33"/>
       <c r="AO44" s="33"/>
       <c r="AP44" s="40"/>
-      <c r="AQ44" s="44"/>
+      <c r="AQ44" s="41"/>
       <c r="AR44" s="33"/>
       <c r="AS44" s="33"/>
       <c r="AT44" s="40"/>
@@ -11367,116 +11686,116 @@
       <c r="AJ45" s="12"/>
       <c r="AK45" s="12"/>
       <c r="AL45" s="25"/>
-      <c r="AM45" s="32"/>
-      <c r="AN45" s="33"/>
-      <c r="AO45" s="33"/>
-      <c r="AP45" s="40"/>
-      <c r="AQ45" s="41"/>
-      <c r="AR45" s="33"/>
-      <c r="AS45" s="33"/>
-      <c r="AT45" s="40"/>
-      <c r="AU45" s="32"/>
-      <c r="AV45" s="33"/>
-      <c r="AW45" s="33"/>
-      <c r="AX45" s="40"/>
-      <c r="AY45" s="32"/>
-      <c r="AZ45" s="33"/>
-      <c r="BA45" s="33"/>
-      <c r="BB45" s="40"/>
+      <c r="AM45" s="16"/>
+      <c r="AN45" s="17"/>
+      <c r="AO45" s="17"/>
+      <c r="AP45" s="18"/>
+      <c r="AQ45" s="16"/>
+      <c r="AR45" s="17"/>
+      <c r="AS45" s="17"/>
+      <c r="AT45" s="18"/>
+      <c r="AU45" s="16"/>
+      <c r="AV45" s="17"/>
+      <c r="AW45" s="17"/>
+      <c r="AX45" s="18"/>
+      <c r="AY45" s="16"/>
+      <c r="AZ45" s="17"/>
+      <c r="BA45" s="17"/>
+      <c r="BB45" s="18"/>
     </row>
     <row r="46" s="1" customFormat="1" ht="20.1" customHeight="1" spans="2:54">
-      <c r="B46" s="16"/>
-      <c r="C46" s="17"/>
-      <c r="D46" s="18"/>
+      <c r="B46" s="21"/>
+      <c r="C46" s="19"/>
+      <c r="D46" s="19"/>
       <c r="E46" s="19"/>
-      <c r="F46" s="22"/>
-      <c r="G46" s="22"/>
-      <c r="H46" s="22"/>
-      <c r="I46" s="22"/>
-      <c r="J46" s="22"/>
-      <c r="K46" s="22"/>
-      <c r="L46" s="22"/>
-      <c r="M46" s="22"/>
-      <c r="N46" s="22"/>
-      <c r="O46" s="22"/>
-      <c r="P46" s="22"/>
-      <c r="Q46" s="22"/>
-      <c r="R46" s="22"/>
-      <c r="S46" s="22"/>
-      <c r="T46" s="22"/>
-      <c r="U46" s="26"/>
-      <c r="V46" s="27"/>
-      <c r="W46" s="28"/>
-      <c r="X46" s="28"/>
-      <c r="Y46" s="28"/>
-      <c r="Z46" s="28"/>
-      <c r="AA46" s="28"/>
-      <c r="AB46" s="28"/>
-      <c r="AC46" s="28"/>
-      <c r="AD46" s="28"/>
-      <c r="AE46" s="28"/>
-      <c r="AF46" s="28"/>
-      <c r="AG46" s="28"/>
-      <c r="AH46" s="28"/>
-      <c r="AI46" s="28"/>
-      <c r="AJ46" s="28"/>
-      <c r="AK46" s="28"/>
-      <c r="AL46" s="35"/>
-      <c r="AM46" s="32"/>
-      <c r="AN46" s="33"/>
-      <c r="AO46" s="33"/>
-      <c r="AP46" s="40"/>
-      <c r="AQ46" s="41"/>
-      <c r="AR46" s="33"/>
-      <c r="AS46" s="33"/>
-      <c r="AT46" s="40"/>
-      <c r="AU46" s="32"/>
-      <c r="AV46" s="33"/>
-      <c r="AW46" s="33"/>
-      <c r="AX46" s="40"/>
-      <c r="AY46" s="32"/>
-      <c r="AZ46" s="33"/>
-      <c r="BA46" s="33"/>
-      <c r="BB46" s="40"/>
+      <c r="F46" s="19"/>
+      <c r="G46" s="19"/>
+      <c r="H46" s="19"/>
+      <c r="I46" s="19"/>
+      <c r="J46" s="19"/>
+      <c r="K46" s="19"/>
+      <c r="L46" s="19"/>
+      <c r="M46" s="19"/>
+      <c r="N46" s="19"/>
+      <c r="O46" s="19"/>
+      <c r="P46" s="19"/>
+      <c r="Q46" s="19"/>
+      <c r="R46" s="19"/>
+      <c r="S46" s="19"/>
+      <c r="T46" s="19"/>
+      <c r="U46" s="19"/>
+      <c r="V46" s="19"/>
+      <c r="W46" s="19"/>
+      <c r="X46" s="19"/>
+      <c r="Y46" s="19"/>
+      <c r="Z46" s="19"/>
+      <c r="AA46" s="19"/>
+      <c r="AB46" s="19"/>
+      <c r="AC46" s="19"/>
+      <c r="AD46" s="19"/>
+      <c r="AE46" s="19"/>
+      <c r="AF46" s="19"/>
+      <c r="AG46" s="19"/>
+      <c r="AH46" s="19"/>
+      <c r="AI46" s="19"/>
+      <c r="AJ46" s="19"/>
+      <c r="AK46" s="19"/>
+      <c r="AL46" s="19"/>
+      <c r="AM46" s="19"/>
+      <c r="AN46" s="19"/>
+      <c r="AO46" s="19"/>
+      <c r="AP46" s="19"/>
+      <c r="AQ46" s="19"/>
+      <c r="AR46" s="19"/>
+      <c r="AS46" s="19"/>
+      <c r="AT46" s="19"/>
+      <c r="AU46" s="19"/>
+      <c r="AV46" s="19"/>
+      <c r="AW46" s="19"/>
+      <c r="AX46" s="19"/>
+      <c r="AY46" s="19"/>
+      <c r="AZ46" s="19"/>
+      <c r="BA46" s="19"/>
+      <c r="BB46" s="48"/>
     </row>
     <row r="47" s="1" customFormat="1" ht="20.1" customHeight="1" spans="2:54">
       <c r="B47" s="16"/>
       <c r="C47" s="17"/>
       <c r="D47" s="18"/>
-      <c r="E47" s="19"/>
-      <c r="F47" s="22"/>
-      <c r="G47" s="22"/>
-      <c r="H47" s="22"/>
-      <c r="I47" s="22"/>
-      <c r="J47" s="22"/>
-      <c r="K47" s="22"/>
-      <c r="L47" s="22"/>
-      <c r="M47" s="22"/>
-      <c r="N47" s="22"/>
-      <c r="O47" s="22"/>
-      <c r="P47" s="22"/>
-      <c r="Q47" s="22"/>
-      <c r="R47" s="22"/>
-      <c r="S47" s="22"/>
-      <c r="T47" s="22"/>
-      <c r="U47" s="26"/>
-      <c r="V47" s="19"/>
-      <c r="W47" s="22"/>
-      <c r="X47" s="22"/>
-      <c r="Y47" s="22"/>
-      <c r="Z47" s="22"/>
-      <c r="AA47" s="22"/>
-      <c r="AB47" s="22"/>
-      <c r="AC47" s="22"/>
-      <c r="AD47" s="22"/>
-      <c r="AE47" s="22"/>
-      <c r="AF47" s="22"/>
-      <c r="AG47" s="22"/>
-      <c r="AH47" s="22"/>
-      <c r="AI47" s="22"/>
-      <c r="AJ47" s="22"/>
-      <c r="AK47" s="22"/>
-      <c r="AL47" s="26"/>
+      <c r="E47" s="11"/>
+      <c r="F47" s="12"/>
+      <c r="G47" s="12"/>
+      <c r="H47" s="12"/>
+      <c r="I47" s="12"/>
+      <c r="J47" s="12"/>
+      <c r="K47" s="12"/>
+      <c r="L47" s="12"/>
+      <c r="M47" s="12"/>
+      <c r="N47" s="12"/>
+      <c r="O47" s="12"/>
+      <c r="P47" s="12"/>
+      <c r="Q47" s="12"/>
+      <c r="R47" s="12"/>
+      <c r="S47" s="12"/>
+      <c r="T47" s="12"/>
+      <c r="U47" s="25"/>
+      <c r="V47" s="11"/>
+      <c r="W47" s="12"/>
+      <c r="X47" s="12"/>
+      <c r="Y47" s="12"/>
+      <c r="Z47" s="12"/>
+      <c r="AA47" s="12"/>
+      <c r="AB47" s="12"/>
+      <c r="AC47" s="12"/>
+      <c r="AD47" s="12"/>
+      <c r="AE47" s="12"/>
+      <c r="AF47" s="12"/>
+      <c r="AG47" s="12"/>
+      <c r="AH47" s="12"/>
+      <c r="AI47" s="12"/>
+      <c r="AJ47" s="12"/>
+      <c r="AK47" s="12"/>
+      <c r="AL47" s="25"/>
       <c r="AM47" s="32"/>
       <c r="AN47" s="33"/>
       <c r="AO47" s="33"/>
@@ -11515,28 +11834,28 @@
       <c r="S48" s="12"/>
       <c r="T48" s="12"/>
       <c r="U48" s="25"/>
-      <c r="V48" s="19"/>
-      <c r="W48" s="22"/>
-      <c r="X48" s="22"/>
-      <c r="Y48" s="22"/>
-      <c r="Z48" s="22"/>
-      <c r="AA48" s="22"/>
-      <c r="AB48" s="22"/>
-      <c r="AC48" s="22"/>
-      <c r="AD48" s="22"/>
-      <c r="AE48" s="22"/>
-      <c r="AF48" s="22"/>
-      <c r="AG48" s="22"/>
-      <c r="AH48" s="22"/>
-      <c r="AI48" s="22"/>
-      <c r="AJ48" s="22"/>
-      <c r="AK48" s="22"/>
-      <c r="AL48" s="26"/>
-      <c r="AM48" s="32"/>
+      <c r="V48" s="11"/>
+      <c r="W48" s="12"/>
+      <c r="X48" s="12"/>
+      <c r="Y48" s="12"/>
+      <c r="Z48" s="12"/>
+      <c r="AA48" s="12"/>
+      <c r="AB48" s="12"/>
+      <c r="AC48" s="12"/>
+      <c r="AD48" s="12"/>
+      <c r="AE48" s="12"/>
+      <c r="AF48" s="12"/>
+      <c r="AG48" s="12"/>
+      <c r="AH48" s="12"/>
+      <c r="AI48" s="12"/>
+      <c r="AJ48" s="12"/>
+      <c r="AK48" s="12"/>
+      <c r="AL48" s="25"/>
+      <c r="AM48" s="34"/>
       <c r="AN48" s="33"/>
       <c r="AO48" s="33"/>
       <c r="AP48" s="40"/>
-      <c r="AQ48" s="41"/>
+      <c r="AQ48" s="42"/>
       <c r="AR48" s="33"/>
       <c r="AS48" s="33"/>
       <c r="AT48" s="40"/>
@@ -11570,133 +11889,133 @@
       <c r="S49" s="12"/>
       <c r="T49" s="12"/>
       <c r="U49" s="25"/>
-      <c r="V49" s="19"/>
-      <c r="W49" s="22"/>
-      <c r="X49" s="22"/>
-      <c r="Y49" s="22"/>
-      <c r="Z49" s="22"/>
-      <c r="AA49" s="22"/>
-      <c r="AB49" s="22"/>
-      <c r="AC49" s="22"/>
-      <c r="AD49" s="22"/>
-      <c r="AE49" s="22"/>
-      <c r="AF49" s="22"/>
-      <c r="AG49" s="22"/>
-      <c r="AH49" s="22"/>
-      <c r="AI49" s="22"/>
-      <c r="AJ49" s="22"/>
-      <c r="AK49" s="22"/>
-      <c r="AL49" s="26"/>
-      <c r="AM49" s="16"/>
-      <c r="AN49" s="17"/>
-      <c r="AO49" s="17"/>
-      <c r="AP49" s="18"/>
-      <c r="AQ49" s="45"/>
-      <c r="AR49" s="17"/>
-      <c r="AS49" s="17"/>
-      <c r="AT49" s="18"/>
-      <c r="AU49" s="16"/>
-      <c r="AV49" s="17"/>
-      <c r="AW49" s="17"/>
-      <c r="AX49" s="18"/>
-      <c r="AY49" s="16"/>
-      <c r="AZ49" s="17"/>
-      <c r="BA49" s="17"/>
-      <c r="BB49" s="18"/>
+      <c r="V49" s="11"/>
+      <c r="W49" s="12"/>
+      <c r="X49" s="12"/>
+      <c r="Y49" s="12"/>
+      <c r="Z49" s="12"/>
+      <c r="AA49" s="12"/>
+      <c r="AB49" s="12"/>
+      <c r="AC49" s="12"/>
+      <c r="AD49" s="12"/>
+      <c r="AE49" s="12"/>
+      <c r="AF49" s="12"/>
+      <c r="AG49" s="12"/>
+      <c r="AH49" s="12"/>
+      <c r="AI49" s="12"/>
+      <c r="AJ49" s="12"/>
+      <c r="AK49" s="12"/>
+      <c r="AL49" s="25"/>
+      <c r="AM49" s="32"/>
+      <c r="AN49" s="33"/>
+      <c r="AO49" s="33"/>
+      <c r="AP49" s="40"/>
+      <c r="AQ49" s="41"/>
+      <c r="AR49" s="33"/>
+      <c r="AS49" s="33"/>
+      <c r="AT49" s="40"/>
+      <c r="AU49" s="32"/>
+      <c r="AV49" s="33"/>
+      <c r="AW49" s="33"/>
+      <c r="AX49" s="40"/>
+      <c r="AY49" s="32"/>
+      <c r="AZ49" s="33"/>
+      <c r="BA49" s="33"/>
+      <c r="BB49" s="40"/>
     </row>
     <row r="50" s="1" customFormat="1" ht="20.1" customHeight="1" spans="2:54">
-      <c r="B50" s="19"/>
-      <c r="C50" s="12"/>
-      <c r="D50" s="12"/>
-      <c r="E50" s="12"/>
-      <c r="F50" s="12"/>
-      <c r="G50" s="12"/>
-      <c r="H50" s="12"/>
-      <c r="I50" s="12"/>
-      <c r="J50" s="12"/>
-      <c r="K50" s="12"/>
-      <c r="L50" s="12"/>
-      <c r="M50" s="12"/>
-      <c r="N50" s="12"/>
-      <c r="O50" s="12"/>
-      <c r="P50" s="12"/>
-      <c r="Q50" s="12"/>
-      <c r="R50" s="12"/>
-      <c r="S50" s="12"/>
-      <c r="T50" s="12"/>
-      <c r="U50" s="12"/>
-      <c r="V50" s="12"/>
-      <c r="W50" s="12"/>
-      <c r="X50" s="12"/>
-      <c r="Y50" s="12"/>
-      <c r="Z50" s="12"/>
-      <c r="AA50" s="12"/>
-      <c r="AB50" s="12"/>
-      <c r="AC50" s="12"/>
-      <c r="AD50" s="12"/>
-      <c r="AE50" s="12"/>
-      <c r="AF50" s="12"/>
-      <c r="AG50" s="12"/>
-      <c r="AH50" s="12"/>
-      <c r="AI50" s="12"/>
-      <c r="AJ50" s="12"/>
-      <c r="AK50" s="12"/>
-      <c r="AL50" s="12"/>
-      <c r="AM50" s="12"/>
-      <c r="AN50" s="12"/>
-      <c r="AO50" s="12"/>
-      <c r="AP50" s="12"/>
-      <c r="AQ50" s="12"/>
-      <c r="AR50" s="12"/>
-      <c r="AS50" s="12"/>
-      <c r="AT50" s="12"/>
-      <c r="AU50" s="12"/>
-      <c r="AV50" s="12"/>
-      <c r="AW50" s="12"/>
-      <c r="AX50" s="12"/>
-      <c r="AY50" s="12"/>
-      <c r="AZ50" s="12"/>
-      <c r="BA50" s="12"/>
-      <c r="BB50" s="25"/>
+      <c r="B50" s="16"/>
+      <c r="C50" s="17"/>
+      <c r="D50" s="18"/>
+      <c r="E50" s="20"/>
+      <c r="F50" s="22"/>
+      <c r="G50" s="22"/>
+      <c r="H50" s="22"/>
+      <c r="I50" s="22"/>
+      <c r="J50" s="22"/>
+      <c r="K50" s="22"/>
+      <c r="L50" s="22"/>
+      <c r="M50" s="22"/>
+      <c r="N50" s="22"/>
+      <c r="O50" s="22"/>
+      <c r="P50" s="22"/>
+      <c r="Q50" s="22"/>
+      <c r="R50" s="22"/>
+      <c r="S50" s="22"/>
+      <c r="T50" s="22"/>
+      <c r="U50" s="26"/>
+      <c r="V50" s="27"/>
+      <c r="W50" s="28"/>
+      <c r="X50" s="28"/>
+      <c r="Y50" s="28"/>
+      <c r="Z50" s="28"/>
+      <c r="AA50" s="28"/>
+      <c r="AB50" s="28"/>
+      <c r="AC50" s="28"/>
+      <c r="AD50" s="28"/>
+      <c r="AE50" s="28"/>
+      <c r="AF50" s="28"/>
+      <c r="AG50" s="28"/>
+      <c r="AH50" s="28"/>
+      <c r="AI50" s="28"/>
+      <c r="AJ50" s="28"/>
+      <c r="AK50" s="28"/>
+      <c r="AL50" s="35"/>
+      <c r="AM50" s="32"/>
+      <c r="AN50" s="33"/>
+      <c r="AO50" s="33"/>
+      <c r="AP50" s="40"/>
+      <c r="AQ50" s="41"/>
+      <c r="AR50" s="33"/>
+      <c r="AS50" s="33"/>
+      <c r="AT50" s="40"/>
+      <c r="AU50" s="32"/>
+      <c r="AV50" s="33"/>
+      <c r="AW50" s="33"/>
+      <c r="AX50" s="40"/>
+      <c r="AY50" s="32"/>
+      <c r="AZ50" s="33"/>
+      <c r="BA50" s="33"/>
+      <c r="BB50" s="40"/>
     </row>
     <row r="51" s="1" customFormat="1" ht="20.1" customHeight="1" spans="2:54">
       <c r="B51" s="16"/>
       <c r="C51" s="17"/>
       <c r="D51" s="18"/>
-      <c r="E51" s="11"/>
-      <c r="F51" s="12"/>
-      <c r="G51" s="12"/>
-      <c r="H51" s="12"/>
-      <c r="I51" s="12"/>
-      <c r="J51" s="12"/>
-      <c r="K51" s="12"/>
-      <c r="L51" s="12"/>
-      <c r="M51" s="12"/>
-      <c r="N51" s="12"/>
-      <c r="O51" s="12"/>
-      <c r="P51" s="12"/>
-      <c r="Q51" s="12"/>
-      <c r="R51" s="12"/>
-      <c r="S51" s="12"/>
-      <c r="T51" s="12"/>
-      <c r="U51" s="25"/>
-      <c r="V51" s="11"/>
-      <c r="W51" s="12"/>
-      <c r="X51" s="12"/>
-      <c r="Y51" s="12"/>
-      <c r="Z51" s="12"/>
-      <c r="AA51" s="12"/>
-      <c r="AB51" s="12"/>
-      <c r="AC51" s="12"/>
-      <c r="AD51" s="12"/>
-      <c r="AE51" s="12"/>
-      <c r="AF51" s="12"/>
-      <c r="AG51" s="12"/>
-      <c r="AH51" s="12"/>
-      <c r="AI51" s="12"/>
-      <c r="AJ51" s="12"/>
-      <c r="AK51" s="12"/>
-      <c r="AL51" s="25"/>
+      <c r="E51" s="20"/>
+      <c r="F51" s="22"/>
+      <c r="G51" s="22"/>
+      <c r="H51" s="22"/>
+      <c r="I51" s="22"/>
+      <c r="J51" s="22"/>
+      <c r="K51" s="22"/>
+      <c r="L51" s="22"/>
+      <c r="M51" s="22"/>
+      <c r="N51" s="22"/>
+      <c r="O51" s="22"/>
+      <c r="P51" s="22"/>
+      <c r="Q51" s="22"/>
+      <c r="R51" s="22"/>
+      <c r="S51" s="22"/>
+      <c r="T51" s="22"/>
+      <c r="U51" s="26"/>
+      <c r="V51" s="20"/>
+      <c r="W51" s="22"/>
+      <c r="X51" s="22"/>
+      <c r="Y51" s="22"/>
+      <c r="Z51" s="22"/>
+      <c r="AA51" s="22"/>
+      <c r="AB51" s="22"/>
+      <c r="AC51" s="22"/>
+      <c r="AD51" s="22"/>
+      <c r="AE51" s="22"/>
+      <c r="AF51" s="22"/>
+      <c r="AG51" s="22"/>
+      <c r="AH51" s="22"/>
+      <c r="AI51" s="22"/>
+      <c r="AJ51" s="22"/>
+      <c r="AK51" s="22"/>
+      <c r="AL51" s="26"/>
       <c r="AM51" s="32"/>
       <c r="AN51" s="33"/>
       <c r="AO51" s="33"/>
@@ -11735,28 +12054,28 @@
       <c r="S52" s="12"/>
       <c r="T52" s="12"/>
       <c r="U52" s="25"/>
-      <c r="V52" s="11"/>
-      <c r="W52" s="12"/>
-      <c r="X52" s="12"/>
-      <c r="Y52" s="12"/>
-      <c r="Z52" s="12"/>
-      <c r="AA52" s="12"/>
-      <c r="AB52" s="12"/>
-      <c r="AC52" s="12"/>
-      <c r="AD52" s="12"/>
-      <c r="AE52" s="12"/>
-      <c r="AF52" s="12"/>
-      <c r="AG52" s="12"/>
-      <c r="AH52" s="12"/>
-      <c r="AI52" s="12"/>
-      <c r="AJ52" s="12"/>
-      <c r="AK52" s="12"/>
-      <c r="AL52" s="25"/>
-      <c r="AM52" s="34"/>
+      <c r="V52" s="20"/>
+      <c r="W52" s="22"/>
+      <c r="X52" s="22"/>
+      <c r="Y52" s="22"/>
+      <c r="Z52" s="22"/>
+      <c r="AA52" s="22"/>
+      <c r="AB52" s="22"/>
+      <c r="AC52" s="22"/>
+      <c r="AD52" s="22"/>
+      <c r="AE52" s="22"/>
+      <c r="AF52" s="22"/>
+      <c r="AG52" s="22"/>
+      <c r="AH52" s="22"/>
+      <c r="AI52" s="22"/>
+      <c r="AJ52" s="22"/>
+      <c r="AK52" s="22"/>
+      <c r="AL52" s="26"/>
+      <c r="AM52" s="32"/>
       <c r="AN52" s="33"/>
       <c r="AO52" s="33"/>
       <c r="AP52" s="40"/>
-      <c r="AQ52" s="44"/>
+      <c r="AQ52" s="41"/>
       <c r="AR52" s="33"/>
       <c r="AS52" s="33"/>
       <c r="AT52" s="40"/>
@@ -11790,28 +12109,28 @@
       <c r="S53" s="12"/>
       <c r="T53" s="12"/>
       <c r="U53" s="25"/>
-      <c r="V53" s="11"/>
-      <c r="W53" s="12"/>
-      <c r="X53" s="12"/>
-      <c r="Y53" s="12"/>
-      <c r="Z53" s="12"/>
-      <c r="AA53" s="12"/>
-      <c r="AB53" s="12"/>
-      <c r="AC53" s="12"/>
-      <c r="AD53" s="12"/>
-      <c r="AE53" s="12"/>
-      <c r="AF53" s="12"/>
-      <c r="AG53" s="12"/>
-      <c r="AH53" s="12"/>
-      <c r="AI53" s="12"/>
-      <c r="AJ53" s="12"/>
-      <c r="AK53" s="12"/>
-      <c r="AL53" s="25"/>
+      <c r="V53" s="20"/>
+      <c r="W53" s="22"/>
+      <c r="X53" s="22"/>
+      <c r="Y53" s="22"/>
+      <c r="Z53" s="22"/>
+      <c r="AA53" s="22"/>
+      <c r="AB53" s="22"/>
+      <c r="AC53" s="22"/>
+      <c r="AD53" s="22"/>
+      <c r="AE53" s="22"/>
+      <c r="AF53" s="22"/>
+      <c r="AG53" s="22"/>
+      <c r="AH53" s="22"/>
+      <c r="AI53" s="22"/>
+      <c r="AJ53" s="22"/>
+      <c r="AK53" s="22"/>
+      <c r="AL53" s="26"/>
       <c r="AM53" s="16"/>
       <c r="AN53" s="17"/>
       <c r="AO53" s="17"/>
       <c r="AP53" s="18"/>
-      <c r="AQ53" s="45"/>
+      <c r="AQ53" s="43"/>
       <c r="AR53" s="17"/>
       <c r="AS53" s="17"/>
       <c r="AT53" s="18"/>
@@ -11825,7 +12144,7 @@
       <c r="BB53" s="18"/>
     </row>
     <row r="54" s="1" customFormat="1" ht="20.1" customHeight="1" spans="2:54">
-      <c r="B54" s="11"/>
+      <c r="B54" s="20"/>
       <c r="C54" s="12"/>
       <c r="D54" s="12"/>
       <c r="E54" s="12"/>
@@ -11917,11 +12236,11 @@
       <c r="AJ55" s="12"/>
       <c r="AK55" s="12"/>
       <c r="AL55" s="25"/>
-      <c r="AM55" s="34"/>
+      <c r="AM55" s="32"/>
       <c r="AN55" s="33"/>
       <c r="AO55" s="33"/>
       <c r="AP55" s="40"/>
-      <c r="AQ55" s="44"/>
+      <c r="AQ55" s="41"/>
       <c r="AR55" s="33"/>
       <c r="AS55" s="33"/>
       <c r="AT55" s="40"/>
@@ -11972,11 +12291,11 @@
       <c r="AJ56" s="12"/>
       <c r="AK56" s="12"/>
       <c r="AL56" s="25"/>
-      <c r="AM56" s="32"/>
+      <c r="AM56" s="34"/>
       <c r="AN56" s="33"/>
       <c r="AO56" s="33"/>
       <c r="AP56" s="40"/>
-      <c r="AQ56" s="41"/>
+      <c r="AQ56" s="42"/>
       <c r="AR56" s="33"/>
       <c r="AS56" s="33"/>
       <c r="AT56" s="40"/>
@@ -12027,28 +12346,28 @@
       <c r="AJ57" s="12"/>
       <c r="AK57" s="12"/>
       <c r="AL57" s="25"/>
-      <c r="AM57" s="32"/>
-      <c r="AN57" s="33"/>
-      <c r="AO57" s="33"/>
-      <c r="AP57" s="40"/>
-      <c r="AQ57" s="41"/>
-      <c r="AR57" s="33"/>
-      <c r="AS57" s="33"/>
-      <c r="AT57" s="40"/>
-      <c r="AU57" s="32"/>
-      <c r="AV57" s="33"/>
-      <c r="AW57" s="33"/>
-      <c r="AX57" s="40"/>
-      <c r="AY57" s="32"/>
-      <c r="AZ57" s="33"/>
-      <c r="BA57" s="33"/>
-      <c r="BB57" s="40"/>
+      <c r="AM57" s="16"/>
+      <c r="AN57" s="17"/>
+      <c r="AO57" s="17"/>
+      <c r="AP57" s="18"/>
+      <c r="AQ57" s="43"/>
+      <c r="AR57" s="17"/>
+      <c r="AS57" s="17"/>
+      <c r="AT57" s="18"/>
+      <c r="AU57" s="16"/>
+      <c r="AV57" s="17"/>
+      <c r="AW57" s="17"/>
+      <c r="AX57" s="18"/>
+      <c r="AY57" s="16"/>
+      <c r="AZ57" s="17"/>
+      <c r="BA57" s="17"/>
+      <c r="BB57" s="18"/>
     </row>
     <row r="58" s="1" customFormat="1" ht="20.1" customHeight="1" spans="2:54">
-      <c r="B58" s="16"/>
-      <c r="C58" s="17"/>
-      <c r="D58" s="18"/>
-      <c r="E58" s="11"/>
+      <c r="B58" s="11"/>
+      <c r="C58" s="12"/>
+      <c r="D58" s="12"/>
+      <c r="E58" s="12"/>
       <c r="F58" s="12"/>
       <c r="G58" s="12"/>
       <c r="H58" s="12"/>
@@ -12064,8 +12383,8 @@
       <c r="R58" s="12"/>
       <c r="S58" s="12"/>
       <c r="T58" s="12"/>
-      <c r="U58" s="25"/>
-      <c r="V58" s="11"/>
+      <c r="U58" s="12"/>
+      <c r="V58" s="12"/>
       <c r="W58" s="12"/>
       <c r="X58" s="12"/>
       <c r="Y58" s="12"/>
@@ -12081,29 +12400,29 @@
       <c r="AI58" s="12"/>
       <c r="AJ58" s="12"/>
       <c r="AK58" s="12"/>
-      <c r="AL58" s="25"/>
-      <c r="AM58" s="16"/>
-      <c r="AN58" s="17"/>
-      <c r="AO58" s="17"/>
-      <c r="AP58" s="18"/>
-      <c r="AQ58" s="16"/>
-      <c r="AR58" s="17"/>
-      <c r="AS58" s="17"/>
-      <c r="AT58" s="18"/>
-      <c r="AU58" s="16"/>
-      <c r="AV58" s="17"/>
-      <c r="AW58" s="17"/>
-      <c r="AX58" s="18"/>
-      <c r="AY58" s="16"/>
-      <c r="AZ58" s="17"/>
-      <c r="BA58" s="17"/>
-      <c r="BB58" s="18"/>
+      <c r="AL58" s="12"/>
+      <c r="AM58" s="12"/>
+      <c r="AN58" s="12"/>
+      <c r="AO58" s="12"/>
+      <c r="AP58" s="12"/>
+      <c r="AQ58" s="12"/>
+      <c r="AR58" s="12"/>
+      <c r="AS58" s="12"/>
+      <c r="AT58" s="12"/>
+      <c r="AU58" s="12"/>
+      <c r="AV58" s="12"/>
+      <c r="AW58" s="12"/>
+      <c r="AX58" s="12"/>
+      <c r="AY58" s="12"/>
+      <c r="AZ58" s="12"/>
+      <c r="BA58" s="12"/>
+      <c r="BB58" s="25"/>
     </row>
     <row r="59" s="1" customFormat="1" ht="20.1" customHeight="1" spans="2:54">
-      <c r="B59" s="11"/>
-      <c r="C59" s="12"/>
-      <c r="D59" s="12"/>
-      <c r="E59" s="12"/>
+      <c r="B59" s="16"/>
+      <c r="C59" s="17"/>
+      <c r="D59" s="18"/>
+      <c r="E59" s="11"/>
       <c r="F59" s="12"/>
       <c r="G59" s="12"/>
       <c r="H59" s="12"/>
@@ -12119,8 +12438,8 @@
       <c r="R59" s="12"/>
       <c r="S59" s="12"/>
       <c r="T59" s="12"/>
-      <c r="U59" s="12"/>
-      <c r="V59" s="12"/>
+      <c r="U59" s="25"/>
+      <c r="V59" s="11"/>
       <c r="W59" s="12"/>
       <c r="X59" s="12"/>
       <c r="Y59" s="12"/>
@@ -12136,23 +12455,23 @@
       <c r="AI59" s="12"/>
       <c r="AJ59" s="12"/>
       <c r="AK59" s="12"/>
-      <c r="AL59" s="12"/>
-      <c r="AM59" s="12"/>
-      <c r="AN59" s="12"/>
-      <c r="AO59" s="12"/>
-      <c r="AP59" s="12"/>
-      <c r="AQ59" s="12"/>
-      <c r="AR59" s="12"/>
-      <c r="AS59" s="12"/>
-      <c r="AT59" s="12"/>
-      <c r="AU59" s="12"/>
-      <c r="AV59" s="12"/>
-      <c r="AW59" s="12"/>
-      <c r="AX59" s="12"/>
-      <c r="AY59" s="12"/>
-      <c r="AZ59" s="12"/>
-      <c r="BA59" s="12"/>
-      <c r="BB59" s="25"/>
+      <c r="AL59" s="25"/>
+      <c r="AM59" s="34"/>
+      <c r="AN59" s="33"/>
+      <c r="AO59" s="33"/>
+      <c r="AP59" s="40"/>
+      <c r="AQ59" s="42"/>
+      <c r="AR59" s="33"/>
+      <c r="AS59" s="33"/>
+      <c r="AT59" s="40"/>
+      <c r="AU59" s="32"/>
+      <c r="AV59" s="33"/>
+      <c r="AW59" s="33"/>
+      <c r="AX59" s="40"/>
+      <c r="AY59" s="32"/>
+      <c r="AZ59" s="33"/>
+      <c r="BA59" s="33"/>
+      <c r="BB59" s="40"/>
     </row>
     <row r="60" s="1" customFormat="1" ht="20.1" customHeight="1" spans="2:54">
       <c r="B60" s="16"/>
@@ -12230,23 +12549,23 @@
       <c r="S61" s="12"/>
       <c r="T61" s="12"/>
       <c r="U61" s="25"/>
-      <c r="V61" s="19"/>
-      <c r="W61" s="22"/>
-      <c r="X61" s="22"/>
-      <c r="Y61" s="22"/>
-      <c r="Z61" s="22"/>
-      <c r="AA61" s="22"/>
-      <c r="AB61" s="22"/>
-      <c r="AC61" s="22"/>
-      <c r="AD61" s="22"/>
-      <c r="AE61" s="22"/>
-      <c r="AF61" s="22"/>
-      <c r="AG61" s="22"/>
-      <c r="AH61" s="22"/>
-      <c r="AI61" s="22"/>
-      <c r="AJ61" s="22"/>
-      <c r="AK61" s="22"/>
-      <c r="AL61" s="26"/>
+      <c r="V61" s="11"/>
+      <c r="W61" s="12"/>
+      <c r="X61" s="12"/>
+      <c r="Y61" s="12"/>
+      <c r="Z61" s="12"/>
+      <c r="AA61" s="12"/>
+      <c r="AB61" s="12"/>
+      <c r="AC61" s="12"/>
+      <c r="AD61" s="12"/>
+      <c r="AE61" s="12"/>
+      <c r="AF61" s="12"/>
+      <c r="AG61" s="12"/>
+      <c r="AH61" s="12"/>
+      <c r="AI61" s="12"/>
+      <c r="AJ61" s="12"/>
+      <c r="AK61" s="12"/>
+      <c r="AL61" s="25"/>
       <c r="AM61" s="32"/>
       <c r="AN61" s="33"/>
       <c r="AO61" s="33"/>
@@ -12285,45 +12604,45 @@
       <c r="S62" s="12"/>
       <c r="T62" s="12"/>
       <c r="U62" s="25"/>
-      <c r="V62" s="19"/>
-      <c r="W62" s="22"/>
-      <c r="X62" s="22"/>
-      <c r="Y62" s="22"/>
-      <c r="Z62" s="22"/>
-      <c r="AA62" s="22"/>
-      <c r="AB62" s="22"/>
-      <c r="AC62" s="22"/>
-      <c r="AD62" s="22"/>
-      <c r="AE62" s="22"/>
-      <c r="AF62" s="22"/>
-      <c r="AG62" s="22"/>
-      <c r="AH62" s="22"/>
-      <c r="AI62" s="22"/>
-      <c r="AJ62" s="22"/>
-      <c r="AK62" s="22"/>
-      <c r="AL62" s="26"/>
-      <c r="AM62" s="32"/>
-      <c r="AN62" s="33"/>
-      <c r="AO62" s="33"/>
-      <c r="AP62" s="40"/>
-      <c r="AQ62" s="41"/>
-      <c r="AR62" s="33"/>
-      <c r="AS62" s="33"/>
-      <c r="AT62" s="40"/>
-      <c r="AU62" s="32"/>
-      <c r="AV62" s="33"/>
-      <c r="AW62" s="33"/>
-      <c r="AX62" s="40"/>
-      <c r="AY62" s="32"/>
-      <c r="AZ62" s="33"/>
-      <c r="BA62" s="33"/>
-      <c r="BB62" s="40"/>
+      <c r="V62" s="11"/>
+      <c r="W62" s="12"/>
+      <c r="X62" s="12"/>
+      <c r="Y62" s="12"/>
+      <c r="Z62" s="12"/>
+      <c r="AA62" s="12"/>
+      <c r="AB62" s="12"/>
+      <c r="AC62" s="12"/>
+      <c r="AD62" s="12"/>
+      <c r="AE62" s="12"/>
+      <c r="AF62" s="12"/>
+      <c r="AG62" s="12"/>
+      <c r="AH62" s="12"/>
+      <c r="AI62" s="12"/>
+      <c r="AJ62" s="12"/>
+      <c r="AK62" s="12"/>
+      <c r="AL62" s="25"/>
+      <c r="AM62" s="16"/>
+      <c r="AN62" s="17"/>
+      <c r="AO62" s="17"/>
+      <c r="AP62" s="18"/>
+      <c r="AQ62" s="16"/>
+      <c r="AR62" s="17"/>
+      <c r="AS62" s="17"/>
+      <c r="AT62" s="18"/>
+      <c r="AU62" s="16"/>
+      <c r="AV62" s="17"/>
+      <c r="AW62" s="17"/>
+      <c r="AX62" s="18"/>
+      <c r="AY62" s="16"/>
+      <c r="AZ62" s="17"/>
+      <c r="BA62" s="17"/>
+      <c r="BB62" s="18"/>
     </row>
     <row r="63" s="1" customFormat="1" ht="20.1" customHeight="1" spans="2:54">
-      <c r="B63" s="16"/>
-      <c r="C63" s="17"/>
-      <c r="D63" s="18"/>
-      <c r="E63" s="11"/>
+      <c r="B63" s="11"/>
+      <c r="C63" s="12"/>
+      <c r="D63" s="12"/>
+      <c r="E63" s="12"/>
       <c r="F63" s="12"/>
       <c r="G63" s="12"/>
       <c r="H63" s="12"/>
@@ -12339,40 +12658,40 @@
       <c r="R63" s="12"/>
       <c r="S63" s="12"/>
       <c r="T63" s="12"/>
-      <c r="U63" s="25"/>
-      <c r="V63" s="19"/>
-      <c r="W63" s="22"/>
-      <c r="X63" s="22"/>
-      <c r="Y63" s="22"/>
-      <c r="Z63" s="22"/>
-      <c r="AA63" s="22"/>
-      <c r="AB63" s="22"/>
-      <c r="AC63" s="22"/>
-      <c r="AD63" s="22"/>
-      <c r="AE63" s="22"/>
-      <c r="AF63" s="22"/>
-      <c r="AG63" s="22"/>
-      <c r="AH63" s="22"/>
-      <c r="AI63" s="22"/>
-      <c r="AJ63" s="22"/>
-      <c r="AK63" s="22"/>
-      <c r="AL63" s="26"/>
-      <c r="AM63" s="32"/>
-      <c r="AN63" s="33"/>
-      <c r="AO63" s="33"/>
-      <c r="AP63" s="40"/>
-      <c r="AQ63" s="41"/>
-      <c r="AR63" s="33"/>
-      <c r="AS63" s="33"/>
-      <c r="AT63" s="40"/>
-      <c r="AU63" s="32"/>
-      <c r="AV63" s="33"/>
-      <c r="AW63" s="33"/>
-      <c r="AX63" s="40"/>
-      <c r="AY63" s="32"/>
-      <c r="AZ63" s="33"/>
-      <c r="BA63" s="33"/>
-      <c r="BB63" s="40"/>
+      <c r="U63" s="12"/>
+      <c r="V63" s="12"/>
+      <c r="W63" s="12"/>
+      <c r="X63" s="12"/>
+      <c r="Y63" s="12"/>
+      <c r="Z63" s="12"/>
+      <c r="AA63" s="12"/>
+      <c r="AB63" s="12"/>
+      <c r="AC63" s="12"/>
+      <c r="AD63" s="12"/>
+      <c r="AE63" s="12"/>
+      <c r="AF63" s="12"/>
+      <c r="AG63" s="12"/>
+      <c r="AH63" s="12"/>
+      <c r="AI63" s="12"/>
+      <c r="AJ63" s="12"/>
+      <c r="AK63" s="12"/>
+      <c r="AL63" s="12"/>
+      <c r="AM63" s="12"/>
+      <c r="AN63" s="12"/>
+      <c r="AO63" s="12"/>
+      <c r="AP63" s="12"/>
+      <c r="AQ63" s="12"/>
+      <c r="AR63" s="12"/>
+      <c r="AS63" s="12"/>
+      <c r="AT63" s="12"/>
+      <c r="AU63" s="12"/>
+      <c r="AV63" s="12"/>
+      <c r="AW63" s="12"/>
+      <c r="AX63" s="12"/>
+      <c r="AY63" s="12"/>
+      <c r="AZ63" s="12"/>
+      <c r="BA63" s="12"/>
+      <c r="BB63" s="25"/>
     </row>
     <row r="64" s="1" customFormat="1" ht="20.1" customHeight="1" spans="2:54">
       <c r="B64" s="16"/>
@@ -12412,28 +12731,28 @@
       <c r="AJ64" s="12"/>
       <c r="AK64" s="12"/>
       <c r="AL64" s="25"/>
-      <c r="AM64" s="16"/>
-      <c r="AN64" s="17"/>
-      <c r="AO64" s="17"/>
-      <c r="AP64" s="18"/>
-      <c r="AQ64" s="16"/>
-      <c r="AR64" s="17"/>
-      <c r="AS64" s="17"/>
-      <c r="AT64" s="18"/>
-      <c r="AU64" s="16"/>
-      <c r="AV64" s="17"/>
-      <c r="AW64" s="17"/>
-      <c r="AX64" s="18"/>
-      <c r="AY64" s="16"/>
-      <c r="AZ64" s="17"/>
-      <c r="BA64" s="17"/>
-      <c r="BB64" s="18"/>
+      <c r="AM64" s="32"/>
+      <c r="AN64" s="33"/>
+      <c r="AO64" s="33"/>
+      <c r="AP64" s="40"/>
+      <c r="AQ64" s="41"/>
+      <c r="AR64" s="33"/>
+      <c r="AS64" s="33"/>
+      <c r="AT64" s="40"/>
+      <c r="AU64" s="32"/>
+      <c r="AV64" s="33"/>
+      <c r="AW64" s="33"/>
+      <c r="AX64" s="40"/>
+      <c r="AY64" s="32"/>
+      <c r="AZ64" s="33"/>
+      <c r="BA64" s="33"/>
+      <c r="BB64" s="40"/>
     </row>
     <row r="65" s="1" customFormat="1" ht="20.1" customHeight="1" spans="2:54">
-      <c r="B65" s="19"/>
-      <c r="C65" s="12"/>
-      <c r="D65" s="12"/>
-      <c r="E65" s="12"/>
+      <c r="B65" s="16"/>
+      <c r="C65" s="17"/>
+      <c r="D65" s="18"/>
+      <c r="E65" s="11"/>
       <c r="F65" s="12"/>
       <c r="G65" s="12"/>
       <c r="H65" s="12"/>
@@ -12449,40 +12768,40 @@
       <c r="R65" s="12"/>
       <c r="S65" s="12"/>
       <c r="T65" s="12"/>
-      <c r="U65" s="12"/>
-      <c r="V65" s="12"/>
-      <c r="W65" s="12"/>
-      <c r="X65" s="12"/>
-      <c r="Y65" s="12"/>
-      <c r="Z65" s="12"/>
-      <c r="AA65" s="12"/>
-      <c r="AB65" s="12"/>
-      <c r="AC65" s="12"/>
-      <c r="AD65" s="12"/>
-      <c r="AE65" s="12"/>
-      <c r="AF65" s="12"/>
-      <c r="AG65" s="12"/>
-      <c r="AH65" s="12"/>
-      <c r="AI65" s="12"/>
-      <c r="AJ65" s="12"/>
-      <c r="AK65" s="12"/>
-      <c r="AL65" s="12"/>
-      <c r="AM65" s="12"/>
-      <c r="AN65" s="12"/>
-      <c r="AO65" s="12"/>
-      <c r="AP65" s="12"/>
-      <c r="AQ65" s="12"/>
-      <c r="AR65" s="12"/>
-      <c r="AS65" s="12"/>
-      <c r="AT65" s="12"/>
-      <c r="AU65" s="12"/>
-      <c r="AV65" s="12"/>
-      <c r="AW65" s="12"/>
-      <c r="AX65" s="12"/>
-      <c r="AY65" s="12"/>
-      <c r="AZ65" s="12"/>
-      <c r="BA65" s="12"/>
-      <c r="BB65" s="25"/>
+      <c r="U65" s="25"/>
+      <c r="V65" s="20"/>
+      <c r="W65" s="22"/>
+      <c r="X65" s="22"/>
+      <c r="Y65" s="22"/>
+      <c r="Z65" s="22"/>
+      <c r="AA65" s="22"/>
+      <c r="AB65" s="22"/>
+      <c r="AC65" s="22"/>
+      <c r="AD65" s="22"/>
+      <c r="AE65" s="22"/>
+      <c r="AF65" s="22"/>
+      <c r="AG65" s="22"/>
+      <c r="AH65" s="22"/>
+      <c r="AI65" s="22"/>
+      <c r="AJ65" s="22"/>
+      <c r="AK65" s="22"/>
+      <c r="AL65" s="26"/>
+      <c r="AM65" s="32"/>
+      <c r="AN65" s="33"/>
+      <c r="AO65" s="33"/>
+      <c r="AP65" s="40"/>
+      <c r="AQ65" s="41"/>
+      <c r="AR65" s="33"/>
+      <c r="AS65" s="33"/>
+      <c r="AT65" s="40"/>
+      <c r="AU65" s="32"/>
+      <c r="AV65" s="33"/>
+      <c r="AW65" s="33"/>
+      <c r="AX65" s="40"/>
+      <c r="AY65" s="32"/>
+      <c r="AZ65" s="33"/>
+      <c r="BA65" s="33"/>
+      <c r="BB65" s="40"/>
     </row>
     <row r="66" s="1" customFormat="1" ht="20.1" customHeight="1" spans="2:54">
       <c r="B66" s="16"/>
@@ -12505,23 +12824,23 @@
       <c r="S66" s="12"/>
       <c r="T66" s="12"/>
       <c r="U66" s="25"/>
-      <c r="V66" s="11"/>
-      <c r="W66" s="12"/>
-      <c r="X66" s="12"/>
-      <c r="Y66" s="12"/>
-      <c r="Z66" s="12"/>
-      <c r="AA66" s="12"/>
-      <c r="AB66" s="12"/>
-      <c r="AC66" s="12"/>
-      <c r="AD66" s="12"/>
-      <c r="AE66" s="12"/>
-      <c r="AF66" s="12"/>
-      <c r="AG66" s="12"/>
-      <c r="AH66" s="12"/>
-      <c r="AI66" s="12"/>
-      <c r="AJ66" s="12"/>
-      <c r="AK66" s="12"/>
-      <c r="AL66" s="25"/>
+      <c r="V66" s="20"/>
+      <c r="W66" s="22"/>
+      <c r="X66" s="22"/>
+      <c r="Y66" s="22"/>
+      <c r="Z66" s="22"/>
+      <c r="AA66" s="22"/>
+      <c r="AB66" s="22"/>
+      <c r="AC66" s="22"/>
+      <c r="AD66" s="22"/>
+      <c r="AE66" s="22"/>
+      <c r="AF66" s="22"/>
+      <c r="AG66" s="22"/>
+      <c r="AH66" s="22"/>
+      <c r="AI66" s="22"/>
+      <c r="AJ66" s="22"/>
+      <c r="AK66" s="22"/>
+      <c r="AL66" s="26"/>
       <c r="AM66" s="32"/>
       <c r="AN66" s="33"/>
       <c r="AO66" s="33"/>
@@ -12560,23 +12879,23 @@
       <c r="S67" s="12"/>
       <c r="T67" s="12"/>
       <c r="U67" s="25"/>
-      <c r="V67" s="11"/>
-      <c r="W67" s="12"/>
-      <c r="X67" s="12"/>
-      <c r="Y67" s="12"/>
-      <c r="Z67" s="12"/>
-      <c r="AA67" s="12"/>
-      <c r="AB67" s="12"/>
-      <c r="AC67" s="12"/>
-      <c r="AD67" s="12"/>
-      <c r="AE67" s="12"/>
-      <c r="AF67" s="12"/>
-      <c r="AG67" s="12"/>
-      <c r="AH67" s="12"/>
-      <c r="AI67" s="12"/>
-      <c r="AJ67" s="12"/>
-      <c r="AK67" s="12"/>
-      <c r="AL67" s="25"/>
+      <c r="V67" s="20"/>
+      <c r="W67" s="22"/>
+      <c r="X67" s="22"/>
+      <c r="Y67" s="22"/>
+      <c r="Z67" s="22"/>
+      <c r="AA67" s="22"/>
+      <c r="AB67" s="22"/>
+      <c r="AC67" s="22"/>
+      <c r="AD67" s="22"/>
+      <c r="AE67" s="22"/>
+      <c r="AF67" s="22"/>
+      <c r="AG67" s="22"/>
+      <c r="AH67" s="22"/>
+      <c r="AI67" s="22"/>
+      <c r="AJ67" s="22"/>
+      <c r="AK67" s="22"/>
+      <c r="AL67" s="26"/>
       <c r="AM67" s="32"/>
       <c r="AN67" s="33"/>
       <c r="AO67" s="33"/>
@@ -12632,28 +12951,28 @@
       <c r="AJ68" s="12"/>
       <c r="AK68" s="12"/>
       <c r="AL68" s="25"/>
-      <c r="AM68" s="34"/>
-      <c r="AN68" s="33"/>
-      <c r="AO68" s="33"/>
-      <c r="AP68" s="40"/>
-      <c r="AQ68" s="44"/>
-      <c r="AR68" s="33"/>
-      <c r="AS68" s="33"/>
-      <c r="AT68" s="40"/>
-      <c r="AU68" s="32"/>
-      <c r="AV68" s="33"/>
-      <c r="AW68" s="33"/>
-      <c r="AX68" s="40"/>
-      <c r="AY68" s="32"/>
-      <c r="AZ68" s="33"/>
-      <c r="BA68" s="33"/>
-      <c r="BB68" s="40"/>
+      <c r="AM68" s="16"/>
+      <c r="AN68" s="17"/>
+      <c r="AO68" s="17"/>
+      <c r="AP68" s="18"/>
+      <c r="AQ68" s="16"/>
+      <c r="AR68" s="17"/>
+      <c r="AS68" s="17"/>
+      <c r="AT68" s="18"/>
+      <c r="AU68" s="16"/>
+      <c r="AV68" s="17"/>
+      <c r="AW68" s="17"/>
+      <c r="AX68" s="18"/>
+      <c r="AY68" s="16"/>
+      <c r="AZ68" s="17"/>
+      <c r="BA68" s="17"/>
+      <c r="BB68" s="18"/>
     </row>
     <row r="69" s="1" customFormat="1" ht="20.1" customHeight="1" spans="2:54">
-      <c r="B69" s="16"/>
-      <c r="C69" s="17"/>
-      <c r="D69" s="18"/>
-      <c r="E69" s="11"/>
+      <c r="B69" s="20"/>
+      <c r="C69" s="12"/>
+      <c r="D69" s="12"/>
+      <c r="E69" s="12"/>
       <c r="F69" s="12"/>
       <c r="G69" s="12"/>
       <c r="H69" s="12"/>
@@ -12669,8 +12988,8 @@
       <c r="R69" s="12"/>
       <c r="S69" s="12"/>
       <c r="T69" s="12"/>
-      <c r="U69" s="25"/>
-      <c r="V69" s="11"/>
+      <c r="U69" s="12"/>
+      <c r="V69" s="12"/>
       <c r="W69" s="12"/>
       <c r="X69" s="12"/>
       <c r="Y69" s="12"/>
@@ -12686,23 +13005,23 @@
       <c r="AI69" s="12"/>
       <c r="AJ69" s="12"/>
       <c r="AK69" s="12"/>
-      <c r="AL69" s="25"/>
-      <c r="AM69" s="32"/>
-      <c r="AN69" s="33"/>
-      <c r="AO69" s="33"/>
-      <c r="AP69" s="40"/>
-      <c r="AQ69" s="41"/>
-      <c r="AR69" s="33"/>
-      <c r="AS69" s="33"/>
-      <c r="AT69" s="40"/>
-      <c r="AU69" s="32"/>
-      <c r="AV69" s="33"/>
-      <c r="AW69" s="33"/>
-      <c r="AX69" s="40"/>
-      <c r="AY69" s="32"/>
-      <c r="AZ69" s="33"/>
-      <c r="BA69" s="33"/>
-      <c r="BB69" s="40"/>
+      <c r="AL69" s="12"/>
+      <c r="AM69" s="12"/>
+      <c r="AN69" s="12"/>
+      <c r="AO69" s="12"/>
+      <c r="AP69" s="12"/>
+      <c r="AQ69" s="12"/>
+      <c r="AR69" s="12"/>
+      <c r="AS69" s="12"/>
+      <c r="AT69" s="12"/>
+      <c r="AU69" s="12"/>
+      <c r="AV69" s="12"/>
+      <c r="AW69" s="12"/>
+      <c r="AX69" s="12"/>
+      <c r="AY69" s="12"/>
+      <c r="AZ69" s="12"/>
+      <c r="BA69" s="12"/>
+      <c r="BB69" s="25"/>
     </row>
     <row r="70" s="1" customFormat="1" ht="20.1" customHeight="1" spans="2:54">
       <c r="B70" s="16"/>
@@ -12759,10 +13078,226 @@
       <c r="BA70" s="33"/>
       <c r="BB70" s="40"/>
     </row>
-    <row r="71" ht="20.1" customHeight="1"/>
-    <row r="72" ht="20.1" customHeight="1"/>
-    <row r="73" ht="20.1" customHeight="1"/>
-    <row r="74" ht="20.1" customHeight="1"/>
+    <row r="71" s="1" customFormat="1" ht="20.1" customHeight="1" spans="2:54">
+      <c r="B71" s="16"/>
+      <c r="C71" s="17"/>
+      <c r="D71" s="18"/>
+      <c r="E71" s="11"/>
+      <c r="F71" s="12"/>
+      <c r="G71" s="12"/>
+      <c r="H71" s="12"/>
+      <c r="I71" s="12"/>
+      <c r="J71" s="12"/>
+      <c r="K71" s="12"/>
+      <c r="L71" s="12"/>
+      <c r="M71" s="12"/>
+      <c r="N71" s="12"/>
+      <c r="O71" s="12"/>
+      <c r="P71" s="12"/>
+      <c r="Q71" s="12"/>
+      <c r="R71" s="12"/>
+      <c r="S71" s="12"/>
+      <c r="T71" s="12"/>
+      <c r="U71" s="25"/>
+      <c r="V71" s="11"/>
+      <c r="W71" s="12"/>
+      <c r="X71" s="12"/>
+      <c r="Y71" s="12"/>
+      <c r="Z71" s="12"/>
+      <c r="AA71" s="12"/>
+      <c r="AB71" s="12"/>
+      <c r="AC71" s="12"/>
+      <c r="AD71" s="12"/>
+      <c r="AE71" s="12"/>
+      <c r="AF71" s="12"/>
+      <c r="AG71" s="12"/>
+      <c r="AH71" s="12"/>
+      <c r="AI71" s="12"/>
+      <c r="AJ71" s="12"/>
+      <c r="AK71" s="12"/>
+      <c r="AL71" s="25"/>
+      <c r="AM71" s="32"/>
+      <c r="AN71" s="33"/>
+      <c r="AO71" s="33"/>
+      <c r="AP71" s="40"/>
+      <c r="AQ71" s="41"/>
+      <c r="AR71" s="33"/>
+      <c r="AS71" s="33"/>
+      <c r="AT71" s="40"/>
+      <c r="AU71" s="32"/>
+      <c r="AV71" s="33"/>
+      <c r="AW71" s="33"/>
+      <c r="AX71" s="40"/>
+      <c r="AY71" s="32"/>
+      <c r="AZ71" s="33"/>
+      <c r="BA71" s="33"/>
+      <c r="BB71" s="40"/>
+    </row>
+    <row r="72" s="1" customFormat="1" ht="20.1" customHeight="1" spans="2:54">
+      <c r="B72" s="16"/>
+      <c r="C72" s="17"/>
+      <c r="D72" s="18"/>
+      <c r="E72" s="11"/>
+      <c r="F72" s="12"/>
+      <c r="G72" s="12"/>
+      <c r="H72" s="12"/>
+      <c r="I72" s="12"/>
+      <c r="J72" s="12"/>
+      <c r="K72" s="12"/>
+      <c r="L72" s="12"/>
+      <c r="M72" s="12"/>
+      <c r="N72" s="12"/>
+      <c r="O72" s="12"/>
+      <c r="P72" s="12"/>
+      <c r="Q72" s="12"/>
+      <c r="R72" s="12"/>
+      <c r="S72" s="12"/>
+      <c r="T72" s="12"/>
+      <c r="U72" s="25"/>
+      <c r="V72" s="11"/>
+      <c r="W72" s="12"/>
+      <c r="X72" s="12"/>
+      <c r="Y72" s="12"/>
+      <c r="Z72" s="12"/>
+      <c r="AA72" s="12"/>
+      <c r="AB72" s="12"/>
+      <c r="AC72" s="12"/>
+      <c r="AD72" s="12"/>
+      <c r="AE72" s="12"/>
+      <c r="AF72" s="12"/>
+      <c r="AG72" s="12"/>
+      <c r="AH72" s="12"/>
+      <c r="AI72" s="12"/>
+      <c r="AJ72" s="12"/>
+      <c r="AK72" s="12"/>
+      <c r="AL72" s="25"/>
+      <c r="AM72" s="34"/>
+      <c r="AN72" s="33"/>
+      <c r="AO72" s="33"/>
+      <c r="AP72" s="40"/>
+      <c r="AQ72" s="42"/>
+      <c r="AR72" s="33"/>
+      <c r="AS72" s="33"/>
+      <c r="AT72" s="40"/>
+      <c r="AU72" s="32"/>
+      <c r="AV72" s="33"/>
+      <c r="AW72" s="33"/>
+      <c r="AX72" s="40"/>
+      <c r="AY72" s="32"/>
+      <c r="AZ72" s="33"/>
+      <c r="BA72" s="33"/>
+      <c r="BB72" s="40"/>
+    </row>
+    <row r="73" s="1" customFormat="1" ht="20.1" customHeight="1" spans="2:54">
+      <c r="B73" s="16"/>
+      <c r="C73" s="17"/>
+      <c r="D73" s="18"/>
+      <c r="E73" s="11"/>
+      <c r="F73" s="12"/>
+      <c r="G73" s="12"/>
+      <c r="H73" s="12"/>
+      <c r="I73" s="12"/>
+      <c r="J73" s="12"/>
+      <c r="K73" s="12"/>
+      <c r="L73" s="12"/>
+      <c r="M73" s="12"/>
+      <c r="N73" s="12"/>
+      <c r="O73" s="12"/>
+      <c r="P73" s="12"/>
+      <c r="Q73" s="12"/>
+      <c r="R73" s="12"/>
+      <c r="S73" s="12"/>
+      <c r="T73" s="12"/>
+      <c r="U73" s="25"/>
+      <c r="V73" s="11"/>
+      <c r="W73" s="12"/>
+      <c r="X73" s="12"/>
+      <c r="Y73" s="12"/>
+      <c r="Z73" s="12"/>
+      <c r="AA73" s="12"/>
+      <c r="AB73" s="12"/>
+      <c r="AC73" s="12"/>
+      <c r="AD73" s="12"/>
+      <c r="AE73" s="12"/>
+      <c r="AF73" s="12"/>
+      <c r="AG73" s="12"/>
+      <c r="AH73" s="12"/>
+      <c r="AI73" s="12"/>
+      <c r="AJ73" s="12"/>
+      <c r="AK73" s="12"/>
+      <c r="AL73" s="25"/>
+      <c r="AM73" s="32"/>
+      <c r="AN73" s="33"/>
+      <c r="AO73" s="33"/>
+      <c r="AP73" s="40"/>
+      <c r="AQ73" s="41"/>
+      <c r="AR73" s="33"/>
+      <c r="AS73" s="33"/>
+      <c r="AT73" s="40"/>
+      <c r="AU73" s="32"/>
+      <c r="AV73" s="33"/>
+      <c r="AW73" s="33"/>
+      <c r="AX73" s="40"/>
+      <c r="AY73" s="32"/>
+      <c r="AZ73" s="33"/>
+      <c r="BA73" s="33"/>
+      <c r="BB73" s="40"/>
+    </row>
+    <row r="74" s="1" customFormat="1" ht="20.1" customHeight="1" spans="2:54">
+      <c r="B74" s="16"/>
+      <c r="C74" s="17"/>
+      <c r="D74" s="18"/>
+      <c r="E74" s="11"/>
+      <c r="F74" s="12"/>
+      <c r="G74" s="12"/>
+      <c r="H74" s="12"/>
+      <c r="I74" s="12"/>
+      <c r="J74" s="12"/>
+      <c r="K74" s="12"/>
+      <c r="L74" s="12"/>
+      <c r="M74" s="12"/>
+      <c r="N74" s="12"/>
+      <c r="O74" s="12"/>
+      <c r="P74" s="12"/>
+      <c r="Q74" s="12"/>
+      <c r="R74" s="12"/>
+      <c r="S74" s="12"/>
+      <c r="T74" s="12"/>
+      <c r="U74" s="25"/>
+      <c r="V74" s="11"/>
+      <c r="W74" s="12"/>
+      <c r="X74" s="12"/>
+      <c r="Y74" s="12"/>
+      <c r="Z74" s="12"/>
+      <c r="AA74" s="12"/>
+      <c r="AB74" s="12"/>
+      <c r="AC74" s="12"/>
+      <c r="AD74" s="12"/>
+      <c r="AE74" s="12"/>
+      <c r="AF74" s="12"/>
+      <c r="AG74" s="12"/>
+      <c r="AH74" s="12"/>
+      <c r="AI74" s="12"/>
+      <c r="AJ74" s="12"/>
+      <c r="AK74" s="12"/>
+      <c r="AL74" s="25"/>
+      <c r="AM74" s="32"/>
+      <c r="AN74" s="33"/>
+      <c r="AO74" s="33"/>
+      <c r="AP74" s="40"/>
+      <c r="AQ74" s="41"/>
+      <c r="AR74" s="33"/>
+      <c r="AS74" s="33"/>
+      <c r="AT74" s="40"/>
+      <c r="AU74" s="32"/>
+      <c r="AV74" s="33"/>
+      <c r="AW74" s="33"/>
+      <c r="AX74" s="40"/>
+      <c r="AY74" s="32"/>
+      <c r="AZ74" s="33"/>
+      <c r="BA74" s="33"/>
+      <c r="BB74" s="40"/>
+    </row>
     <row r="75" ht="20.1" customHeight="1"/>
     <row r="76" ht="20.1" customHeight="1"/>
     <row r="77" ht="20.1" customHeight="1"/>
@@ -12898,8 +13433,12 @@
     <row r="207" ht="20.1" customHeight="1"/>
     <row r="208" ht="20.1" customHeight="1"/>
     <row r="209" ht="20.1" customHeight="1"/>
+    <row r="210" ht="20.1" customHeight="1"/>
+    <row r="211" ht="20.1" customHeight="1"/>
+    <row r="212" ht="20.1" customHeight="1"/>
+    <row r="213" ht="20.1" customHeight="1"/>
   </sheetData>
-  <mergeCells count="399">
+  <mergeCells count="426">
     <mergeCell ref="B1:BA1"/>
     <mergeCell ref="X2:BB2"/>
     <mergeCell ref="E3:R3"/>
@@ -12923,7 +13462,12 @@
     <mergeCell ref="AQ6:AT6"/>
     <mergeCell ref="AU6:AX6"/>
     <mergeCell ref="AY6:BB6"/>
+    <mergeCell ref="B7:D7"/>
     <mergeCell ref="E7:U7"/>
+    <mergeCell ref="V7:AL7"/>
+    <mergeCell ref="AM7:AP7"/>
+    <mergeCell ref="AQ7:AT7"/>
+    <mergeCell ref="AU7:AX7"/>
     <mergeCell ref="B8:D8"/>
     <mergeCell ref="E8:U8"/>
     <mergeCell ref="V8:AL8"/>
@@ -12961,14 +13505,14 @@
     <mergeCell ref="AQ14:AT14"/>
     <mergeCell ref="AU14:AX14"/>
     <mergeCell ref="AY14:BB14"/>
-    <mergeCell ref="B15:BB15"/>
-    <mergeCell ref="B16:D16"/>
-    <mergeCell ref="E16:U16"/>
-    <mergeCell ref="V16:AL16"/>
-    <mergeCell ref="AM16:AP16"/>
-    <mergeCell ref="AQ16:AT16"/>
-    <mergeCell ref="AU16:AX16"/>
-    <mergeCell ref="AY16:BB16"/>
+    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="E15:U15"/>
+    <mergeCell ref="V15:AL15"/>
+    <mergeCell ref="AM15:AP15"/>
+    <mergeCell ref="AQ15:AT15"/>
+    <mergeCell ref="AU15:AX15"/>
+    <mergeCell ref="AY15:BB15"/>
+    <mergeCell ref="B16:BB16"/>
     <mergeCell ref="B17:D17"/>
     <mergeCell ref="E17:U17"/>
     <mergeCell ref="V17:AL17"/>
@@ -12997,13 +13541,7 @@
     <mergeCell ref="AQ20:AT20"/>
     <mergeCell ref="AU20:AX20"/>
     <mergeCell ref="AY20:BB20"/>
-    <mergeCell ref="B21:D21"/>
-    <mergeCell ref="E21:U21"/>
-    <mergeCell ref="V21:AL21"/>
-    <mergeCell ref="AM21:AP21"/>
-    <mergeCell ref="AQ21:AT21"/>
-    <mergeCell ref="AU21:AX21"/>
-    <mergeCell ref="AY21:BB21"/>
+    <mergeCell ref="B21:BB21"/>
     <mergeCell ref="B22:D22"/>
     <mergeCell ref="E22:U22"/>
     <mergeCell ref="V22:AL22"/>
@@ -13011,7 +13549,13 @@
     <mergeCell ref="AQ22:AT22"/>
     <mergeCell ref="AU22:AX22"/>
     <mergeCell ref="AY22:BB22"/>
-    <mergeCell ref="B23:BB23"/>
+    <mergeCell ref="B23:D23"/>
+    <mergeCell ref="E23:U23"/>
+    <mergeCell ref="V23:AL23"/>
+    <mergeCell ref="AM23:AP23"/>
+    <mergeCell ref="AQ23:AT23"/>
+    <mergeCell ref="AU23:AX23"/>
+    <mergeCell ref="AY23:BB23"/>
     <mergeCell ref="B24:D24"/>
     <mergeCell ref="E24:U24"/>
     <mergeCell ref="V24:AL24"/>
@@ -13083,14 +13627,14 @@
     <mergeCell ref="AQ34:AT34"/>
     <mergeCell ref="AU34:AX34"/>
     <mergeCell ref="AY34:BB34"/>
-    <mergeCell ref="B35:D35"/>
-    <mergeCell ref="E35:U35"/>
-    <mergeCell ref="V35:AL35"/>
-    <mergeCell ref="AM35:AP35"/>
-    <mergeCell ref="AQ35:AT35"/>
-    <mergeCell ref="AU35:AX35"/>
-    <mergeCell ref="AY35:BB35"/>
-    <mergeCell ref="B36:BB36"/>
+    <mergeCell ref="B35:BB35"/>
+    <mergeCell ref="B36:D36"/>
+    <mergeCell ref="E36:U36"/>
+    <mergeCell ref="V36:AL36"/>
+    <mergeCell ref="AM36:AP36"/>
+    <mergeCell ref="AQ36:AT36"/>
+    <mergeCell ref="AU36:AX36"/>
+    <mergeCell ref="AY36:BB36"/>
     <mergeCell ref="B37:D37"/>
     <mergeCell ref="E37:U37"/>
     <mergeCell ref="V37:AL37"/>
@@ -13112,13 +13656,7 @@
     <mergeCell ref="AQ39:AT39"/>
     <mergeCell ref="AU39:AX39"/>
     <mergeCell ref="AY39:BB39"/>
-    <mergeCell ref="B40:D40"/>
-    <mergeCell ref="E40:U40"/>
-    <mergeCell ref="V40:AL40"/>
-    <mergeCell ref="AM40:AP40"/>
-    <mergeCell ref="AQ40:AT40"/>
-    <mergeCell ref="AU40:AX40"/>
-    <mergeCell ref="AY40:BB40"/>
+    <mergeCell ref="B40:BB40"/>
     <mergeCell ref="B41:D41"/>
     <mergeCell ref="E41:U41"/>
     <mergeCell ref="V41:AL41"/>
@@ -13126,7 +13664,13 @@
     <mergeCell ref="AQ41:AT41"/>
     <mergeCell ref="AU41:AX41"/>
     <mergeCell ref="AY41:BB41"/>
-    <mergeCell ref="B42:BB42"/>
+    <mergeCell ref="B42:D42"/>
+    <mergeCell ref="E42:U42"/>
+    <mergeCell ref="V42:AL42"/>
+    <mergeCell ref="AM42:AP42"/>
+    <mergeCell ref="AQ42:AT42"/>
+    <mergeCell ref="AU42:AX42"/>
+    <mergeCell ref="AY42:BB42"/>
     <mergeCell ref="B43:D43"/>
     <mergeCell ref="E43:U43"/>
     <mergeCell ref="V43:AL43"/>
@@ -13148,13 +13692,7 @@
     <mergeCell ref="AQ45:AT45"/>
     <mergeCell ref="AU45:AX45"/>
     <mergeCell ref="AY45:BB45"/>
-    <mergeCell ref="B46:D46"/>
-    <mergeCell ref="E46:U46"/>
-    <mergeCell ref="V46:AL46"/>
-    <mergeCell ref="AM46:AP46"/>
-    <mergeCell ref="AQ46:AT46"/>
-    <mergeCell ref="AU46:AX46"/>
-    <mergeCell ref="AY46:BB46"/>
+    <mergeCell ref="B46:BB46"/>
     <mergeCell ref="B47:D47"/>
     <mergeCell ref="E47:U47"/>
     <mergeCell ref="V47:AL47"/>
@@ -13176,7 +13714,13 @@
     <mergeCell ref="AQ49:AT49"/>
     <mergeCell ref="AU49:AX49"/>
     <mergeCell ref="AY49:BB49"/>
-    <mergeCell ref="B50:BB50"/>
+    <mergeCell ref="B50:D50"/>
+    <mergeCell ref="E50:U50"/>
+    <mergeCell ref="V50:AL50"/>
+    <mergeCell ref="AM50:AP50"/>
+    <mergeCell ref="AQ50:AT50"/>
+    <mergeCell ref="AU50:AX50"/>
+    <mergeCell ref="AY50:BB50"/>
     <mergeCell ref="B51:D51"/>
     <mergeCell ref="E51:U51"/>
     <mergeCell ref="V51:AL51"/>
@@ -13220,14 +13764,14 @@
     <mergeCell ref="AQ57:AT57"/>
     <mergeCell ref="AU57:AX57"/>
     <mergeCell ref="AY57:BB57"/>
-    <mergeCell ref="B58:D58"/>
-    <mergeCell ref="E58:U58"/>
-    <mergeCell ref="V58:AL58"/>
-    <mergeCell ref="AM58:AP58"/>
-    <mergeCell ref="AQ58:AT58"/>
-    <mergeCell ref="AU58:AX58"/>
-    <mergeCell ref="AY58:BB58"/>
-    <mergeCell ref="B59:BB59"/>
+    <mergeCell ref="B58:BB58"/>
+    <mergeCell ref="B59:D59"/>
+    <mergeCell ref="E59:U59"/>
+    <mergeCell ref="V59:AL59"/>
+    <mergeCell ref="AM59:AP59"/>
+    <mergeCell ref="AQ59:AT59"/>
+    <mergeCell ref="AU59:AX59"/>
+    <mergeCell ref="AY59:BB59"/>
     <mergeCell ref="B60:D60"/>
     <mergeCell ref="E60:U60"/>
     <mergeCell ref="V60:AL60"/>
@@ -13249,13 +13793,7 @@
     <mergeCell ref="AQ62:AT62"/>
     <mergeCell ref="AU62:AX62"/>
     <mergeCell ref="AY62:BB62"/>
-    <mergeCell ref="B63:D63"/>
-    <mergeCell ref="E63:U63"/>
-    <mergeCell ref="V63:AL63"/>
-    <mergeCell ref="AM63:AP63"/>
-    <mergeCell ref="AQ63:AT63"/>
-    <mergeCell ref="AU63:AX63"/>
-    <mergeCell ref="AY63:BB63"/>
+    <mergeCell ref="B63:BB63"/>
     <mergeCell ref="B64:D64"/>
     <mergeCell ref="E64:U64"/>
     <mergeCell ref="V64:AL64"/>
@@ -13263,7 +13801,13 @@
     <mergeCell ref="AQ64:AT64"/>
     <mergeCell ref="AU64:AX64"/>
     <mergeCell ref="AY64:BB64"/>
-    <mergeCell ref="B65:BB65"/>
+    <mergeCell ref="B65:D65"/>
+    <mergeCell ref="E65:U65"/>
+    <mergeCell ref="V65:AL65"/>
+    <mergeCell ref="AM65:AP65"/>
+    <mergeCell ref="AQ65:AT65"/>
+    <mergeCell ref="AU65:AX65"/>
+    <mergeCell ref="AY65:BB65"/>
     <mergeCell ref="B66:D66"/>
     <mergeCell ref="E66:U66"/>
     <mergeCell ref="V66:AL66"/>
@@ -13285,13 +13829,7 @@
     <mergeCell ref="AQ68:AT68"/>
     <mergeCell ref="AU68:AX68"/>
     <mergeCell ref="AY68:BB68"/>
-    <mergeCell ref="B69:D69"/>
-    <mergeCell ref="E69:U69"/>
-    <mergeCell ref="V69:AL69"/>
-    <mergeCell ref="AM69:AP69"/>
-    <mergeCell ref="AQ69:AT69"/>
-    <mergeCell ref="AU69:AX69"/>
-    <mergeCell ref="AY69:BB69"/>
+    <mergeCell ref="B69:BB69"/>
     <mergeCell ref="B70:D70"/>
     <mergeCell ref="E70:U70"/>
     <mergeCell ref="V70:AL70"/>
@@ -13299,6 +13837,34 @@
     <mergeCell ref="AQ70:AT70"/>
     <mergeCell ref="AU70:AX70"/>
     <mergeCell ref="AY70:BB70"/>
+    <mergeCell ref="B71:D71"/>
+    <mergeCell ref="E71:U71"/>
+    <mergeCell ref="V71:AL71"/>
+    <mergeCell ref="AM71:AP71"/>
+    <mergeCell ref="AQ71:AT71"/>
+    <mergeCell ref="AU71:AX71"/>
+    <mergeCell ref="AY71:BB71"/>
+    <mergeCell ref="B72:D72"/>
+    <mergeCell ref="E72:U72"/>
+    <mergeCell ref="V72:AL72"/>
+    <mergeCell ref="AM72:AP72"/>
+    <mergeCell ref="AQ72:AT72"/>
+    <mergeCell ref="AU72:AX72"/>
+    <mergeCell ref="AY72:BB72"/>
+    <mergeCell ref="B73:D73"/>
+    <mergeCell ref="E73:U73"/>
+    <mergeCell ref="V73:AL73"/>
+    <mergeCell ref="AM73:AP73"/>
+    <mergeCell ref="AQ73:AT73"/>
+    <mergeCell ref="AU73:AX73"/>
+    <mergeCell ref="AY73:BB73"/>
+    <mergeCell ref="B74:D74"/>
+    <mergeCell ref="E74:U74"/>
+    <mergeCell ref="V74:AL74"/>
+    <mergeCell ref="AM74:AP74"/>
+    <mergeCell ref="AQ74:AT74"/>
+    <mergeCell ref="AU74:AX74"/>
+    <mergeCell ref="AY74:BB74"/>
   </mergeCells>
   <pageMargins left="0.393700787401575" right="0.196850393700787" top="0.590551181102362" bottom="0.590551181102362" header="0.393700787401575" footer="0.393700787401575"/>
   <pageSetup paperSize="9" scale="97" orientation="landscape"/>
